--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Form 1 - Município" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -11,7 +11,11 @@
     <sheet name="Form 2 - UVR" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Form 3 - Empreendimento" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form 1 - Município'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Form 2 - UVR'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Form 3 - Empreendimento'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -3513,6 +3517,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -6485,6 +6490,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -9416,6 +9422,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -189,7 +189,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -203,6 +203,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FF6666"/>
           <bgColor rgb="00FF6666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFA500"/>
+          <bgColor rgb="00FFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3533,27 +3541,33 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não, Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -6506,27 +6520,33 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -9362,12 +9382,16 @@
           <t xml:space="preserve">Ademir Papini Júnior </t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="n"/>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G67" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9438,27 +9462,33 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -631,7 +631,8 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3586,7 +3587,8 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6565,7 +6567,8 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -495,7 +495,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7060,6 +7100,95 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" priority="73" operator="containsText" dxfId="0" text="Atrasado">
+      <formula>NOT(ISERROR(SEARCH("Atrasado",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:F15 K2:M14">
+    <cfRule type="cellIs" priority="72" operator="equal" dxfId="1">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="69" operator="equal" dxfId="2">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="70" operator="equal" dxfId="3">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="71" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E15">
+    <cfRule type="cellIs" priority="68" operator="equal" dxfId="1">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="65" operator="equal" dxfId="2">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="66" operator="equal" dxfId="3">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="67" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F15">
+    <cfRule type="cellIs" priority="64" operator="equal" dxfId="1">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="61" operator="equal" dxfId="2">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="62" operator="equal" dxfId="3">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="63" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:F31">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="1">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="2">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="3">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:F46">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="1">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:M31">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="1">
+      <formula>"Enviado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="2">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="3">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9970,38 +10099,38 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J68">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12950,38 +13079,38 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J68">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15893,38 +16022,38 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J68">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="8" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="10" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="9" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -7101,49 +7101,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" priority="73" operator="containsText" dxfId="0" text="Atrasado">
+    <cfRule type="containsText" priority="25" operator="containsText" dxfId="0" text="Atrasado">
       <formula>NOT(ISERROR(SEARCH("Atrasado",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F15 K2:M14">
-    <cfRule type="cellIs" priority="72" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="69" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="2">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="70" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="3">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="71" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" priority="68" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="65" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="2">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="66" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="3">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="67" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" priority="64" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="61" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="2">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="62" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="3">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="63" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -512,16 +512,6 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="8" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
@@ -533,6 +523,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1482,9 +1482,13 @@
     <col width="31.140625" customWidth="1" min="2" max="2"/>
     <col width="8.5703125" customWidth="1" min="3" max="3"/>
     <col width="24.28515625" customWidth="1" min="4" max="4"/>
+    <col width="26.140625" customWidth="1" min="5" max="5"/>
+    <col width="27.7109375" customWidth="1" min="6" max="6"/>
     <col width="31.140625" customWidth="1" min="9" max="9"/>
     <col width="8.5703125" customWidth="1" min="10" max="10"/>
     <col width="24.28515625" customWidth="1" min="11" max="11"/>
+    <col width="28.85546875" customWidth="1" min="12" max="12"/>
+    <col width="29.140625" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1645,18 +1649,18 @@
       <c r="K2" s="22">
         <f t="array" ref="K2">IF(
     VLOOKUP(
-        $A2,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C2)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A2,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C2)
+        $H2,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J2)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H2,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
         FALSE
@@ -1667,18 +1671,18 @@
       <c r="L2" s="22">
         <f t="array" ref="L2">IF(
     VLOOKUP(
-        $A2,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C2)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A2,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C2)
+        $H2,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J2)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H2,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
         FALSE
@@ -1689,18 +1693,18 @@
       <c r="M2" s="22">
         <f t="array" ref="M2">IF(
     VLOOKUP(
-        $A2,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C2)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A2,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C2)
+        $H2,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J2)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H2,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
         FALSE
@@ -1805,18 +1809,18 @@
       <c r="K3" s="22">
         <f t="array" ref="K3">IF(
     VLOOKUP(
-        $A3,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C3)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A3,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C3)
+        $H3,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J3)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H3,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
         FALSE
@@ -1827,18 +1831,18 @@
       <c r="L3" s="22">
         <f t="array" ref="L3">IF(
     VLOOKUP(
-        $A3,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C3)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A3,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C3)
+        $H3,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J3)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H3,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
         FALSE
@@ -1849,18 +1853,18 @@
       <c r="M3" s="22">
         <f t="array" ref="M3">IF(
     VLOOKUP(
-        $A3,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C3)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A3,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C3)
+        $H3,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J3)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H3,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
         FALSE
@@ -1965,18 +1969,18 @@
       <c r="K4" s="22">
         <f t="array" ref="K4">IF(
     VLOOKUP(
-        $A4,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C4)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A4,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C4)
+        $H4,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J4)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H4,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
         FALSE
@@ -1987,18 +1991,18 @@
       <c r="L4" s="22">
         <f t="array" ref="L4">IF(
     VLOOKUP(
-        $A4,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C4)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A4,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C4)
+        $H4,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J4)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H4,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
         FALSE
@@ -2009,18 +2013,18 @@
       <c r="M4" s="22">
         <f t="array" ref="M4">IF(
     VLOOKUP(
-        $A4,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C4)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A4,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C4)
+        $H4,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J4)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H4,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
         FALSE
@@ -2125,18 +2129,18 @@
       <c r="K5" s="22">
         <f t="array" ref="K5">IF(
     VLOOKUP(
-        $A5,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C5)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A5,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C5)
+        $H5,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J5)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H5,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
         FALSE
@@ -2147,18 +2151,18 @@
       <c r="L5" s="22">
         <f t="array" ref="L5">IF(
     VLOOKUP(
-        $A5,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C5)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A5,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C5)
+        $H5,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J5)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H5,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
         FALSE
@@ -2169,18 +2173,18 @@
       <c r="M5" s="22">
         <f t="array" ref="M5">IF(
     VLOOKUP(
-        $A5,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C5)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A5,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C5)
+        $H5,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J5)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H5,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
         FALSE
@@ -2285,18 +2289,18 @@
       <c r="K6" s="22">
         <f t="array" ref="K6">IF(
     VLOOKUP(
-        $A6,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C6)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A6,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C6)
+        $H6,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J6)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H6,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
         FALSE
@@ -2307,18 +2311,18 @@
       <c r="L6" s="22">
         <f t="array" ref="L6">IF(
     VLOOKUP(
-        $A6,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C6)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A6,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C6)
+        $H6,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J6)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H6,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
         FALSE
@@ -2329,18 +2333,18 @@
       <c r="M6" s="22">
         <f t="array" ref="M6">IF(
     VLOOKUP(
-        $A6,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C6)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A6,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C6)
+        $H6,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J6)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H6,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
         FALSE
@@ -2445,18 +2449,18 @@
       <c r="K7" s="22">
         <f t="array" ref="K7">IF(
     VLOOKUP(
-        $A7,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C7)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A7,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C7)
+        $H7,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J7)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H7,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
         FALSE
@@ -2467,18 +2471,18 @@
       <c r="L7" s="22">
         <f t="array" ref="L7">IF(
     VLOOKUP(
-        $A7,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C7)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A7,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C7)
+        $H7,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J7)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H7,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
         FALSE
@@ -2489,18 +2493,18 @@
       <c r="M7" s="22">
         <f t="array" ref="M7">IF(
     VLOOKUP(
-        $A7,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C7)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A7,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C7)
+        $H7,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J7)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H7,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
         FALSE
@@ -2605,18 +2609,18 @@
       <c r="K8" s="22">
         <f t="array" ref="K8">IF(
     VLOOKUP(
-        $A8,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C8)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A8,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C8)
+        $H8,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J8)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H8,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
         FALSE
@@ -2627,18 +2631,18 @@
       <c r="L8" s="22">
         <f t="array" ref="L8">IF(
     VLOOKUP(
-        $A8,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C8)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A8,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C8)
+        $H8,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J8)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H8,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
         FALSE
@@ -2649,18 +2653,18 @@
       <c r="M8" s="22">
         <f t="array" ref="M8">IF(
     VLOOKUP(
-        $A8,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C8)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A8,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C8)
+        $H8,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J8)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H8,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
         FALSE
@@ -2765,18 +2769,18 @@
       <c r="K9" s="22">
         <f t="array" ref="K9">IF(
     VLOOKUP(
-        $A9,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C9)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A9,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C9)
+        $H9,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J9)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H9,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
         FALSE
@@ -2787,18 +2791,18 @@
       <c r="L9" s="22">
         <f t="array" ref="L9">IF(
     VLOOKUP(
-        $A9,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C9)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A9,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C9)
+        $H9,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J9)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H9,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
         FALSE
@@ -2809,18 +2813,18 @@
       <c r="M9" s="22">
         <f t="array" ref="M9">IF(
     VLOOKUP(
-        $A9,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C9)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A9,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C9)
+        $H9,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J9)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H9,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
         FALSE
@@ -2925,18 +2929,18 @@
       <c r="K10" s="22">
         <f t="array" ref="K10">IF(
     VLOOKUP(
-        $A10,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C10)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A10,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C10)
+        $H10,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J10)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H10,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
         FALSE
@@ -2947,18 +2951,18 @@
       <c r="L10" s="22">
         <f t="array" ref="L10">IF(
     VLOOKUP(
-        $A10,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C10)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A10,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C10)
+        $H10,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J10)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H10,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
         FALSE
@@ -2969,18 +2973,18 @@
       <c r="M10" s="22">
         <f t="array" ref="M10">IF(
     VLOOKUP(
-        $A10,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C10)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A10,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C10)
+        $H10,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J10)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H10,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
         FALSE
@@ -3085,18 +3089,18 @@
       <c r="K11" s="22">
         <f t="array" ref="K11">IF(
     VLOOKUP(
-        $A11,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C11)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A11,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C11)
+        $H11,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J11)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H11,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
         FALSE
@@ -3107,18 +3111,18 @@
       <c r="L11" s="22">
         <f t="array" ref="L11">IF(
     VLOOKUP(
-        $A11,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C11)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A11,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C11)
+        $H11,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J11)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H11,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
         FALSE
@@ -3129,18 +3133,18 @@
       <c r="M11" s="22">
         <f t="array" ref="M11">IF(
     VLOOKUP(
-        $A11,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C11)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A11,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C11)
+        $H11,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J11)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H11,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
         FALSE
@@ -3245,18 +3249,18 @@
       <c r="K12" s="22">
         <f t="array" ref="K12">IF(
     VLOOKUP(
-        $A12,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C12)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A12,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C12)
+        $H12,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J12)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H12,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
         FALSE
@@ -3267,18 +3271,18 @@
       <c r="L12" s="22">
         <f t="array" ref="L12">IF(
     VLOOKUP(
-        $A12,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C12)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A12,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C12)
+        $H12,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J12)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H12,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
         FALSE
@@ -3289,18 +3293,18 @@
       <c r="M12" s="22">
         <f t="array" ref="M12">IF(
     VLOOKUP(
-        $A12,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C12)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A12,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C12)
+        $H12,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J12)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H12,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
         FALSE
@@ -3405,18 +3409,18 @@
       <c r="K13" s="22">
         <f t="array" ref="K13">IF(
     VLOOKUP(
-        $A13,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C13)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A13,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C13)
+        $H13,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J13)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H13,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
         FALSE
@@ -3427,18 +3431,18 @@
       <c r="L13" s="22">
         <f t="array" ref="L13">IF(
     VLOOKUP(
-        $A13,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C13)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A13,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C13)
+        $H13,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J13)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H13,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
         FALSE
@@ -3449,18 +3453,18 @@
       <c r="M13" s="22">
         <f t="array" ref="M13">IF(
     VLOOKUP(
-        $A13,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C13)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A13,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C13)
+        $H13,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J13)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H13,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
         FALSE
@@ -3565,18 +3569,18 @@
       <c r="K14" s="22">
         <f t="array" ref="K14">IF(
     VLOOKUP(
-        $A14,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C14)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A14,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C14)
+        $H14,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J14)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H14,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
         FALSE
@@ -3587,18 +3591,18 @@
       <c r="L14" s="22">
         <f t="array" ref="L14">IF(
     VLOOKUP(
-        $A14,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C14)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A14,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C14)
+        $H14,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J14)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H14,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
         FALSE
@@ -3609,18 +3613,18 @@
       <c r="M14" s="22">
         <f t="array" ref="M14">IF(
     VLOOKUP(
-        $A14,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C14)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A14,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C14)
+        $H14,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J14)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H14,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
         FALSE
@@ -3869,18 +3873,18 @@
       <c r="K18" s="22">
         <f t="array" ref="K18">IF(
     VLOOKUP(
-        $A18,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C18)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A18,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C18)
+        $H18,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J18)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H18,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
         FALSE
@@ -3891,18 +3895,18 @@
       <c r="L18" s="22">
         <f t="array" ref="L18">IF(
     VLOOKUP(
-        $A18,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C18)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A18,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C18)
+        $H18,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J18)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H18,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
         FALSE
@@ -3913,18 +3917,18 @@
       <c r="M18" s="22">
         <f t="array" ref="M18">IF(
     VLOOKUP(
-        $A18,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C18)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A18,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C18)
+        $H18,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J18)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H18,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
         FALSE
@@ -4029,18 +4033,18 @@
       <c r="K19" s="22">
         <f t="array" ref="K19">IF(
     VLOOKUP(
-        $A19,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C19)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A19,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C19)
+        $H19,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J19)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H19,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
         FALSE
@@ -4051,18 +4055,18 @@
       <c r="L19" s="22">
         <f t="array" ref="L19">IF(
     VLOOKUP(
-        $A19,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C19)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A19,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C19)
+        $H19,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J19)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H19,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
         FALSE
@@ -4073,18 +4077,18 @@
       <c r="M19" s="22">
         <f t="array" ref="M19">IF(
     VLOOKUP(
-        $A19,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C19)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A19,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C19)
+        $H19,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J19)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H19,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
         FALSE
@@ -4189,18 +4193,18 @@
       <c r="K20" s="22">
         <f t="array" ref="K20">IF(
     VLOOKUP(
-        $A20,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C20)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A20,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C20)
+        $H20,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J20)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H20,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
         FALSE
@@ -4211,18 +4215,18 @@
       <c r="L20" s="22">
         <f t="array" ref="L20">IF(
     VLOOKUP(
-        $A20,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C20)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A20,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C20)
+        $H20,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J20)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H20,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
         FALSE
@@ -4233,18 +4237,18 @@
       <c r="M20" s="22">
         <f t="array" ref="M20">IF(
     VLOOKUP(
-        $A20,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C20)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A20,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C20)
+        $H20,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J20)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H20,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
         FALSE
@@ -4349,18 +4353,18 @@
       <c r="K21" s="22">
         <f t="array" ref="K21">IF(
     VLOOKUP(
-        $A21,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C21)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A21,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C21)
+        $H21,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J21)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H21,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
         FALSE
@@ -4371,18 +4375,18 @@
       <c r="L21" s="22">
         <f t="array" ref="L21">IF(
     VLOOKUP(
-        $A21,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C21)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A21,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C21)
+        $H21,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J21)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H21,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
         FALSE
@@ -4393,18 +4397,18 @@
       <c r="M21" s="22">
         <f t="array" ref="M21">IF(
     VLOOKUP(
-        $A21,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C21)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A21,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C21)
+        $H21,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J21)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H21,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
         FALSE
@@ -4509,18 +4513,18 @@
       <c r="K22" s="22">
         <f t="array" ref="K22">IF(
     VLOOKUP(
-        $A22,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C22)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A22,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C22)
+        $H22,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J22)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H22,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
         FALSE
@@ -4531,18 +4535,18 @@
       <c r="L22" s="22">
         <f t="array" ref="L22">IF(
     VLOOKUP(
-        $A22,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C22)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A22,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C22)
+        $H22,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J22)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H22,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
         FALSE
@@ -4553,18 +4557,18 @@
       <c r="M22" s="22">
         <f t="array" ref="M22">IF(
     VLOOKUP(
-        $A22,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C22)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A22,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C22)
+        $H22,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J22)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H22,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
         FALSE
@@ -4669,18 +4673,18 @@
       <c r="K23" s="22">
         <f t="array" ref="K23">IF(
     VLOOKUP(
-        $A23,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C23)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A23,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C23)
+        $H23,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J23)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H23,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
         FALSE
@@ -4691,18 +4695,18 @@
       <c r="L23" s="22">
         <f t="array" ref="L23">IF(
     VLOOKUP(
-        $A23,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C23)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A23,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C23)
+        $H23,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J23)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H23,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
         FALSE
@@ -4713,18 +4717,18 @@
       <c r="M23" s="22">
         <f t="array" ref="M23">IF(
     VLOOKUP(
-        $A23,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C23)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A23,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C23)
+        $H23,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J23)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H23,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
         FALSE
@@ -4829,18 +4833,18 @@
       <c r="K24" s="22">
         <f t="array" ref="K24">IF(
     VLOOKUP(
-        $A24,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C24)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A24,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C24)
+        $H24,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J24)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H24,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
         FALSE
@@ -4851,18 +4855,18 @@
       <c r="L24" s="22">
         <f t="array" ref="L24">IF(
     VLOOKUP(
-        $A24,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C24)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A24,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C24)
+        $H24,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J24)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H24,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
         FALSE
@@ -4873,18 +4877,18 @@
       <c r="M24" s="22">
         <f t="array" ref="M24">IF(
     VLOOKUP(
-        $A24,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C24)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A24,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C24)
+        $H24,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J24)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H24,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
         FALSE
@@ -4989,18 +4993,18 @@
       <c r="K25" s="22">
         <f t="array" ref="K25">IF(
     VLOOKUP(
-        $A25,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C25)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A25,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C25)
+        $H25,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J25)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H25,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
         FALSE
@@ -5011,18 +5015,18 @@
       <c r="L25" s="22">
         <f t="array" ref="L25">IF(
     VLOOKUP(
-        $A25,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C25)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A25,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C25)
+        $H25,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J25)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H25,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
         FALSE
@@ -5033,18 +5037,18 @@
       <c r="M25" s="22">
         <f t="array" ref="M25">IF(
     VLOOKUP(
-        $A25,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C25)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A25,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C25)
+        $H25,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J25)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H25,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
         FALSE
@@ -5149,18 +5153,18 @@
       <c r="K26" s="22">
         <f t="array" ref="K26">IF(
     VLOOKUP(
-        $A26,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C26)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A26,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C26)
+        $H26,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J26)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H26,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
         FALSE
@@ -5171,18 +5175,18 @@
       <c r="L26" s="22">
         <f t="array" ref="L26">IF(
     VLOOKUP(
-        $A26,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C26)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A26,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C26)
+        $H26,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J26)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H26,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
         FALSE
@@ -5193,18 +5197,18 @@
       <c r="M26" s="22">
         <f t="array" ref="M26">IF(
     VLOOKUP(
-        $A26,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C26)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A26,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C26)
+        $H26,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J26)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H26,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
         FALSE
@@ -5309,18 +5313,18 @@
       <c r="K27" s="22">
         <f t="array" ref="K27">IF(
     VLOOKUP(
-        $A27,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C27)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A27,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C27)
+        $H27,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J27)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H27,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
         FALSE
@@ -5331,18 +5335,18 @@
       <c r="L27" s="22">
         <f t="array" ref="L27">IF(
     VLOOKUP(
-        $A27,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C27)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A27,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C27)
+        $H27,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J27)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H27,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
         FALSE
@@ -5353,18 +5357,18 @@
       <c r="M27" s="22">
         <f t="array" ref="M27">IF(
     VLOOKUP(
-        $A27,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C27)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A27,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C27)
+        $H27,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J27)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H27,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
         FALSE
@@ -5469,18 +5473,18 @@
       <c r="K28" s="22">
         <f t="array" ref="K28">IF(
     VLOOKUP(
-        $A28,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C28)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A28,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C28)
+        $H28,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J28)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H28,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
         FALSE
@@ -5491,18 +5495,18 @@
       <c r="L28" s="22">
         <f t="array" ref="L28">IF(
     VLOOKUP(
-        $A28,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C28)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A28,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C28)
+        $H28,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J28)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H28,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
         FALSE
@@ -5513,18 +5517,18 @@
       <c r="M28" s="22">
         <f t="array" ref="M28">IF(
     VLOOKUP(
-        $A28,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C28)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A28,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C28)
+        $H28,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J28)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H28,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
         FALSE
@@ -5629,18 +5633,18 @@
       <c r="K29" s="22">
         <f t="array" ref="K29">IF(
     VLOOKUP(
-        $A29,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C29)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A29,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C29)
+        $H29,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J29)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H29,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
         FALSE
@@ -5651,18 +5655,18 @@
       <c r="L29" s="22">
         <f t="array" ref="L29">IF(
     VLOOKUP(
-        $A29,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C29)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A29,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C29)
+        $H29,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J29)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H29,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
         FALSE
@@ -5673,18 +5677,18 @@
       <c r="M29" s="22">
         <f t="array" ref="M29">IF(
     VLOOKUP(
-        $A29,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C29)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A29,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C29)
+        $H29,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J29)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H29,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
         FALSE
@@ -5789,18 +5793,18 @@
       <c r="K30" s="22">
         <f t="array" ref="K30">IF(
     VLOOKUP(
-        $A30,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C30)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A30,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C30)
+        $H30,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J30)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H30,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
         FALSE
@@ -5811,18 +5815,18 @@
       <c r="L30" s="22">
         <f t="array" ref="L30">IF(
     VLOOKUP(
-        $A30,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C30)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A30,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C30)
+        $H30,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J30)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H30,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
         FALSE
@@ -5833,18 +5837,18 @@
       <c r="M30" s="22">
         <f t="array" ref="M30">IF(
     VLOOKUP(
-        $A30,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C30)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A30,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C30)
+        $H30,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J30)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H30,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
         FALSE
@@ -5949,18 +5953,18 @@
       <c r="K31" s="22">
         <f t="array" ref="K31">IF(
     VLOOKUP(
-        $A31,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C31)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A31,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$C31)
+        $H31,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J31)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H31,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
         FALSE
@@ -5971,18 +5975,18 @@
       <c r="L31" s="22">
         <f t="array" ref="L31">IF(
     VLOOKUP(
-        $A31,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C31)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A31,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$C31)
+        $H31,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J31)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H31,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
         FALSE
@@ -5993,18 +5997,18 @@
       <c r="M31" s="22">
         <f t="array" ref="M31">IF(
     VLOOKUP(
-        $A31,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C31)
-        ),
-        5,
-        FALSE
-    )=0,
-    "",
-    VLOOKUP(
-        $A31,
-        _xlfn._xlws.FILTER(
-            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$C31)
+        $H31,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J31)
+        ),
+        5,
+        FALSE
+    )=0,
+    "",
+    VLOOKUP(
+        $H31,
+        _xlfn._xlws.FILTER(
+            INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
         FALSE
@@ -7101,92 +7105,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" priority="25" operator="containsText" dxfId="0" text="Atrasado">
+    <cfRule type="containsText" priority="33" operator="containsText" dxfId="0" text="Atrasado">
       <formula>NOT(ISERROR(SEARCH("Atrasado",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F15 K2:M14">
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="1">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="2">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="31" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="32" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="2">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E15">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="26" operator="equal" dxfId="2">
+      <formula>"Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="0">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="28" operator="equal" dxfId="3">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F15">
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="1">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="23" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="2">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:F31">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="2">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:F46">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="15" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:F31">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="2">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="3">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="0">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:F46">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="1">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2">
-      <formula>"Duplicado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3">
-      <formula>"Sem Técnico"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
-      <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:M31">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="1">
-      <formula>"Enviado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3">
+      <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7199,7 +7203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -8470,22 +8474,22 @@
       <c r="K30" s="32" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A31" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B31" s="32" t="inlineStr">
         <is>
-          <t>Francisco Alves</t>
+          <t>Foz do Iguaçu</t>
         </is>
       </c>
       <c r="C31" s="32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" s="32" t="inlineStr">
         <is>
-          <t>Paulo Rogerio Hiroshi Fujii</t>
+          <t xml:space="preserve">Mariane Plaza da Silva </t>
         </is>
       </c>
       <c r="E31" s="33" t="inlineStr">
@@ -8516,7 +8520,7 @@
       </c>
       <c r="B32" s="32" t="inlineStr">
         <is>
-          <t>Guaira</t>
+          <t>Francisco Alves</t>
         </is>
       </c>
       <c r="C32" s="32" t="n">
@@ -8524,7 +8528,7 @@
       </c>
       <c r="D32" s="32" t="inlineStr">
         <is>
-          <t>Marlene R. Oliveira Dallacosta</t>
+          <t>Paulo Rogerio Hiroshi Fujii</t>
         </is>
       </c>
       <c r="E32" s="33" t="inlineStr">
@@ -8548,14 +8552,14 @@
       <c r="K32" s="32" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A33" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B33" s="32" t="inlineStr">
         <is>
-          <t>Guaraniacu</t>
+          <t>Guaira</t>
         </is>
       </c>
       <c r="C33" s="32" t="n">
@@ -8563,29 +8567,21 @@
       </c>
       <c r="D33" s="32" t="inlineStr">
         <is>
-          <t>Vitolor dos Santos Almeida</t>
-        </is>
-      </c>
-      <c r="E33" s="39" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
-        </is>
-      </c>
-      <c r="F33" s="32" t="inlineStr">
-        <is>
-          <t>08/03/2025, 02/04/2025</t>
-        </is>
-      </c>
+          <t>Marlene R. Oliveira Dallacosta</t>
+        </is>
+      </c>
+      <c r="E33" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F33" s="32" t="n"/>
       <c r="G33" s="34" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H33" s="32" t="inlineStr">
-        <is>
-          <t>Necessário ajustes pág 4, 5 e 6</t>
-        </is>
-      </c>
+      <c r="H33" s="32" t="n"/>
       <c r="I33" s="32" t="n"/>
       <c r="J33" s="32" t="inlineStr">
         <is>
@@ -8602,7 +8598,7 @@
       </c>
       <c r="B34" s="32" t="inlineStr">
         <is>
-          <t>Ibema</t>
+          <t>Guaraniacu</t>
         </is>
       </c>
       <c r="C34" s="32" t="n">
@@ -8610,27 +8606,27 @@
       </c>
       <c r="D34" s="32" t="inlineStr">
         <is>
-          <t>Kelly Jackeline Silva do Valle</t>
-        </is>
-      </c>
-      <c r="E34" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+          <t>Vitolor dos Santos Almeida</t>
+        </is>
+      </c>
+      <c r="E34" s="39" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F34" s="32" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
-        </is>
-      </c>
-      <c r="G34" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>08/03/2025, 02/04/2025</t>
+        </is>
+      </c>
+      <c r="G34" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H34" s="32" t="inlineStr">
         <is>
-          <t>pág 6, a frequência de coleta urbana e rural é em porcentagem e não em dias.</t>
+          <t>Necessário ajustes pág 4, 5 e 6</t>
         </is>
       </c>
       <c r="I34" s="32" t="n"/>
@@ -8649,85 +8645,85 @@
       </c>
       <c r="B35" s="32" t="inlineStr">
         <is>
+          <t>Ibema</t>
+        </is>
+      </c>
+      <c r="C35" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="32" t="inlineStr">
+        <is>
+          <t>Kelly Jackeline Silva do Valle</t>
+        </is>
+      </c>
+      <c r="E35" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="32" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="G35" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H35" s="32" t="inlineStr">
+        <is>
+          <t>pág 6, a frequência de coleta urbana e rural é em porcentagem e não em dias.</t>
+        </is>
+      </c>
+      <c r="I35" s="32" t="n"/>
+      <c r="J35" s="32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K35" s="32" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
+        </is>
+      </c>
+      <c r="B36" s="32" t="inlineStr">
+        <is>
           <t>Iguatu</t>
         </is>
       </c>
-      <c r="C35" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="32" t="inlineStr">
+      <c r="C36" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="32" t="inlineStr">
         <is>
           <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
-      <c r="E35" s="36" t="inlineStr">
+      <c r="E36" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F35" s="32" t="inlineStr">
+      <c r="F36" s="32" t="inlineStr">
         <is>
           <t>13/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="37" t="inlineStr">
+      <c r="G36" s="37" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H35" s="32" t="inlineStr">
+      <c r="H36" s="32" t="inlineStr">
         <is>
           <t>Pág 5, vc não conseguiu i valor da taxa de lixo recebida em 2024 pela prefeitura.
 Pág 6, a frequência das coletas é porcentagem, não em dia.</t>
         </is>
       </c>
-      <c r="I35" s="32" t="n"/>
-      <c r="J35" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K35" s="32" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
-        </is>
-      </c>
-      <c r="B36" s="32" t="inlineStr">
-        <is>
-          <t>Iracema do Oeste</t>
-        </is>
-      </c>
-      <c r="C36" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="32" t="inlineStr">
-        <is>
-          <t>Eliane Borin</t>
-        </is>
-      </c>
-      <c r="E36" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F36" s="32" t="inlineStr">
-        <is>
-          <t>18/03/2025</t>
-        </is>
-      </c>
-      <c r="G36" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H36" s="32" t="inlineStr">
-        <is>
-          <t>09/04- Dados incorretos informações da coleta seletiva - formulário aba 6 - dados da frequancia semanal -</t>
-        </is>
-      </c>
       <c r="I36" s="32" t="n"/>
       <c r="J36" s="32" t="inlineStr">
         <is>
@@ -8737,14 +8733,14 @@
       <c r="K36" s="32" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A37" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B37" s="32" t="inlineStr">
         <is>
-          <t>Itaipulândia</t>
+          <t>Iracema do Oeste</t>
         </is>
       </c>
       <c r="C37" s="32" t="n">
@@ -8752,7 +8748,7 @@
       </c>
       <c r="D37" s="32" t="inlineStr">
         <is>
-          <t>Tatiana schrard</t>
+          <t>Eliane Borin</t>
         </is>
       </c>
       <c r="E37" s="36" t="inlineStr">
@@ -8762,7 +8758,7 @@
       </c>
       <c r="F37" s="32" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="G37" s="34" t="inlineStr">
@@ -8770,7 +8766,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H37" s="32" t="n"/>
+      <c r="H37" s="32" t="inlineStr">
+        <is>
+          <t>09/04- Dados incorretos informações da coleta seletiva - formulário aba 6 - dados da frequancia semanal -</t>
+        </is>
+      </c>
       <c r="I37" s="32" t="n"/>
       <c r="J37" s="32" t="inlineStr">
         <is>
@@ -8780,14 +8780,14 @@
       <c r="K37" s="32" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A38" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B38" s="32" t="inlineStr">
         <is>
-          <t>Jesuítas</t>
+          <t>Itaipulândia</t>
         </is>
       </c>
       <c r="C38" s="32" t="n">
@@ -8795,15 +8795,19 @@
       </c>
       <c r="D38" s="32" t="inlineStr">
         <is>
-          <t>Francilaine Cavalini de Oliveira</t>
-        </is>
-      </c>
-      <c r="E38" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="32" t="n"/>
+          <t>Tatiana schrard</t>
+        </is>
+      </c>
+      <c r="E38" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="32" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G38" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8819,14 +8823,14 @@
       <c r="K38" s="32" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A39" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B39" s="32" t="inlineStr">
         <is>
-          <t>Lindoeste</t>
+          <t>Jesuítas</t>
         </is>
       </c>
       <c r="C39" s="32" t="n">
@@ -8834,7 +8838,7 @@
       </c>
       <c r="D39" s="32" t="inlineStr">
         <is>
-          <t>Ailton Carlos Fialho</t>
+          <t>César Piva Glinglani</t>
         </is>
       </c>
       <c r="E39" s="33" t="inlineStr">
@@ -8858,14 +8862,14 @@
       <c r="K39" s="32" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A40" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B40" s="32" t="inlineStr">
         <is>
-          <t>Marechal Candido Rondon</t>
+          <t>Lindoeste</t>
         </is>
       </c>
       <c r="C40" s="32" t="n">
@@ -8873,19 +8877,15 @@
       </c>
       <c r="D40" s="32" t="inlineStr">
         <is>
-          <t>Marcos José Chaves</t>
-        </is>
-      </c>
-      <c r="E40" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F40" s="32" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
+          <t>Ailton Carlos Fialho</t>
+        </is>
+      </c>
+      <c r="E40" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F40" s="32" t="n"/>
       <c r="G40" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8912,11 +8912,11 @@
         </is>
       </c>
       <c r="C41" s="32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="32" t="inlineStr">
         <is>
-          <t>Diego Matheus Reinicke</t>
+          <t>Marcos José Chaves</t>
         </is>
       </c>
       <c r="E41" s="36" t="inlineStr">
@@ -8944,30 +8944,34 @@
       <c r="K41" s="32" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A42" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B42" s="32" t="inlineStr">
         <is>
-          <t>Maripa</t>
+          <t>Marechal Candido Rondon</t>
         </is>
       </c>
       <c r="C42" s="32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="32" t="inlineStr">
         <is>
-          <t>Cleiton Manske</t>
-        </is>
-      </c>
-      <c r="E42" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="32" t="n"/>
+          <t>Diego Matheus Reinicke</t>
+        </is>
+      </c>
+      <c r="E42" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="32" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
       <c r="G42" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8983,14 +8987,14 @@
       <c r="K42" s="32" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A43" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B43" s="32" t="inlineStr">
         <is>
-          <t>Matelândia</t>
+          <t>Maripa</t>
         </is>
       </c>
       <c r="C43" s="32" t="n">
@@ -8998,22 +9002,18 @@
       </c>
       <c r="D43" s="32" t="inlineStr">
         <is>
-          <t>Alexandro Aparecido de Lima Vieira</t>
-        </is>
-      </c>
-      <c r="E43" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F43" s="32" t="inlineStr">
-        <is>
-          <t>02/04/2025</t>
-        </is>
-      </c>
-      <c r="G43" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Cleiton Manske</t>
+        </is>
+      </c>
+      <c r="E43" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F43" s="32" t="n"/>
+      <c r="G43" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H43" s="32" t="n"/>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B44" s="32" t="inlineStr">
         <is>
-          <t>Medianeira</t>
+          <t>Matelândia</t>
         </is>
       </c>
       <c r="C44" s="32" t="n">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="D44" s="32" t="inlineStr">
         <is>
-          <t>Natielly Pereira Ochoa</t>
+          <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
       <c r="E44" s="36" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="F44" s="32" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="G44" s="37" t="inlineStr">
@@ -9059,11 +9059,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H44" s="32" t="inlineStr">
-        <is>
-          <t>corrigir aba 5 - lançar dados financeiros da coleta (já comunicado o técnicor</t>
-        </is>
-      </c>
+      <c r="H44" s="32" t="n"/>
       <c r="I44" s="32" t="n"/>
       <c r="J44" s="32" t="inlineStr">
         <is>
@@ -9073,14 +9069,14 @@
       <c r="K44" s="32" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A45" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B45" s="32" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Medianeira</t>
         </is>
       </c>
       <c r="C45" s="32" t="n">
@@ -9088,21 +9084,29 @@
       </c>
       <c r="D45" s="32" t="inlineStr">
         <is>
-          <t>Roberto Pedron</t>
-        </is>
-      </c>
-      <c r="E45" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F45" s="32" t="n"/>
-      <c r="G45" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H45" s="32" t="n"/>
+          <t>Natielly Pereira Ochoa</t>
+        </is>
+      </c>
+      <c r="E45" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="32" t="inlineStr">
+        <is>
+          <t>18/03/2025</t>
+        </is>
+      </c>
+      <c r="G45" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H45" s="32" t="inlineStr">
+        <is>
+          <t>corrigir aba 5 - lançar dados financeiros da coleta (já comunicado o técnicor</t>
+        </is>
+      </c>
       <c r="I45" s="32" t="n"/>
       <c r="J45" s="32" t="inlineStr">
         <is>
@@ -9112,14 +9116,14 @@
       <c r="K45" s="32" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A46" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B46" s="32" t="inlineStr">
         <is>
-          <t>Missal</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="C46" s="32" t="n">
@@ -9127,22 +9131,18 @@
       </c>
       <c r="D46" s="32" t="inlineStr">
         <is>
-          <t>Luciane Spies</t>
-        </is>
-      </c>
-      <c r="E46" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F46" s="32" t="inlineStr">
-        <is>
-          <t>18/03/2025</t>
-        </is>
-      </c>
-      <c r="G46" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Roberto Pedron</t>
+        </is>
+      </c>
+      <c r="E46" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F46" s="32" t="n"/>
+      <c r="G46" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H46" s="32" t="n"/>
@@ -9155,14 +9155,14 @@
       <c r="K46" s="32" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A47" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B47" s="32" t="inlineStr">
         <is>
-          <t>Mundo Novo</t>
+          <t>Missal</t>
         </is>
       </c>
       <c r="C47" s="32" t="n">
@@ -9170,18 +9170,22 @@
       </c>
       <c r="D47" s="32" t="inlineStr">
         <is>
-          <t>Jaqueline Meireles / Margarete Pusippe</t>
-        </is>
-      </c>
-      <c r="E47" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F47" s="32" t="n"/>
-      <c r="G47" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>Luciane Spies</t>
+        </is>
+      </c>
+      <c r="E47" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F47" s="32" t="inlineStr">
+        <is>
+          <t>18/03/2025</t>
+        </is>
+      </c>
+      <c r="G47" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H47" s="32" t="n"/>
@@ -9194,14 +9198,14 @@
       <c r="K47" s="32" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A48" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B48" s="32" t="inlineStr">
         <is>
-          <t>Nova Aurora</t>
+          <t>Mundo Novo</t>
         </is>
       </c>
       <c r="C48" s="32" t="n">
@@ -9209,19 +9213,15 @@
       </c>
       <c r="D48" s="32" t="inlineStr">
         <is>
-          <t>Luiz Fernando Pereira Barbosa</t>
-        </is>
-      </c>
-      <c r="E48" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F48" s="32" t="inlineStr">
-        <is>
-          <t>16/04/2025</t>
-        </is>
-      </c>
+          <t>Jaqueline Meireles / Margarete Pusippe</t>
+        </is>
+      </c>
+      <c r="E48" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F48" s="32" t="n"/>
       <c r="G48" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9237,14 +9237,14 @@
       <c r="K48" s="32" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A49" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B49" s="32" t="inlineStr">
         <is>
-          <t>Nova Santa Rosa</t>
+          <t>Nova Aurora</t>
         </is>
       </c>
       <c r="C49" s="32" t="n">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="D49" s="32" t="inlineStr">
         <is>
-          <t>Carolina Eggers</t>
+          <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
       <c r="E49" s="36" t="inlineStr">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="F49" s="32" t="inlineStr">
         <is>
-          <t>31/03/2025</t>
+          <t>16/04/2025</t>
         </is>
       </c>
       <c r="G49" s="34" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="B50" s="32" t="inlineStr">
         <is>
-          <t>Ouro Verde do Oeste</t>
+          <t>Nova Santa Rosa</t>
         </is>
       </c>
       <c r="C50" s="32" t="n">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D50" s="32" t="inlineStr">
         <is>
-          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
+          <t>Carolina Eggers</t>
         </is>
       </c>
       <c r="E50" s="36" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="F50" s="32" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>31/03/2025</t>
         </is>
       </c>
       <c r="G50" s="34" t="inlineStr">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="B51" s="32" t="inlineStr">
         <is>
-          <t>Palotina</t>
+          <t>Ouro Verde do Oeste</t>
         </is>
       </c>
       <c r="C51" s="32" t="n">
@@ -9338,15 +9338,19 @@
       </c>
       <c r="D51" s="32" t="inlineStr">
         <is>
-          <t>Dorival Manoel Canhete</t>
-        </is>
-      </c>
-      <c r="E51" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="32" t="n"/>
+          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
+        </is>
+      </c>
+      <c r="E51" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="32" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G51" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9362,14 +9366,14 @@
       <c r="K51" s="32" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A52" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B52" s="32" t="inlineStr">
         <is>
-          <t>Pato Bragado</t>
+          <t>Palotina</t>
         </is>
       </c>
       <c r="C52" s="32" t="n">
@@ -9377,29 +9381,21 @@
       </c>
       <c r="D52" s="32" t="inlineStr">
         <is>
-          <t>Jaqueline Vanelli</t>
-        </is>
-      </c>
-      <c r="E52" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F52" s="32" t="inlineStr">
-        <is>
-          <t>27/02/2025</t>
-        </is>
-      </c>
-      <c r="G52" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H52" s="32" t="inlineStr">
-        <is>
-          <t>o técnico precisa arrumar algumas informações</t>
-        </is>
-      </c>
+          <t>Dorival Manoel Canhete</t>
+        </is>
+      </c>
+      <c r="E52" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F52" s="32" t="n"/>
+      <c r="G52" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H52" s="32" t="n"/>
       <c r="I52" s="32" t="n"/>
       <c r="J52" s="32" t="inlineStr">
         <is>
@@ -9409,14 +9405,14 @@
       <c r="K52" s="32" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A53" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B53" s="32" t="inlineStr">
         <is>
-          <t>Quatro Pontes</t>
+          <t>Pato Bragado</t>
         </is>
       </c>
       <c r="C53" s="32" t="n">
@@ -9424,7 +9420,7 @@
       </c>
       <c r="D53" s="32" t="inlineStr">
         <is>
-          <t>Fernanda Jung</t>
+          <t>Jaqueline Vanelli</t>
         </is>
       </c>
       <c r="E53" s="36" t="inlineStr">
@@ -9434,15 +9430,19 @@
       </c>
       <c r="F53" s="32" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
-        </is>
-      </c>
-      <c r="G53" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H53" s="32" t="n"/>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="G53" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H53" s="32" t="inlineStr">
+        <is>
+          <t>o técnico precisa arrumar algumas informações</t>
+        </is>
+      </c>
       <c r="I53" s="32" t="n"/>
       <c r="J53" s="32" t="inlineStr">
         <is>
@@ -9452,14 +9452,14 @@
       <c r="K53" s="32" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A54" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B54" s="32" t="inlineStr">
         <is>
-          <t>Ramilândia</t>
+          <t>Quatro Pontes</t>
         </is>
       </c>
       <c r="C54" s="32" t="n">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D54" s="32" t="inlineStr">
         <is>
-          <t>Ana Paula Romagnoli</t>
+          <t>Fernanda Jung</t>
         </is>
       </c>
       <c r="E54" s="36" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="F54" s="32" t="inlineStr">
         <is>
-          <t>07/04/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="G54" s="34" t="inlineStr">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="B55" s="32" t="inlineStr">
         <is>
-          <t>Santa Helena</t>
+          <t>Ramilândia</t>
         </is>
       </c>
       <c r="C55" s="32" t="n">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="D55" s="32" t="inlineStr">
         <is>
-          <t>Isabel Caroline Fruhling</t>
+          <t>Ana Paula Romagnoli</t>
         </is>
       </c>
       <c r="E55" s="36" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="F55" s="32" t="inlineStr">
         <is>
-          <t>25/04/2025</t>
+          <t>07/04/2025</t>
         </is>
       </c>
       <c r="G55" s="34" t="inlineStr">
@@ -9538,14 +9538,14 @@
       <c r="K55" s="32" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A56" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B56" s="32" t="inlineStr">
         <is>
-          <t>Santa Lúcia</t>
+          <t>Santa Helena</t>
         </is>
       </c>
       <c r="C56" s="32" t="n">
@@ -9553,15 +9553,19 @@
       </c>
       <c r="D56" s="32" t="inlineStr">
         <is>
-          <t>Marina Ancelmo da Silva</t>
-        </is>
-      </c>
-      <c r="E56" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="32" t="n"/>
+          <t>Isabel Caroline Fruhling</t>
+        </is>
+      </c>
+      <c r="E56" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="32" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
       <c r="G56" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9577,14 +9581,14 @@
       <c r="K56" s="32" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A57" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B57" s="32" t="inlineStr">
         <is>
-          <t>Santa Tereza do Oeste</t>
+          <t>Santa Lúcia</t>
         </is>
       </c>
       <c r="C57" s="32" t="n">
@@ -9592,22 +9596,18 @@
       </c>
       <c r="D57" s="32" t="inlineStr">
         <is>
-          <t>Ana Carolina Peterle Ribeiro</t>
-        </is>
-      </c>
-      <c r="E57" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F57" s="32" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G57" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Marina Ancelmo da Silva</t>
+        </is>
+      </c>
+      <c r="E57" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F57" s="32" t="n"/>
+      <c r="G57" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H57" s="32" t="n"/>
@@ -9620,14 +9620,14 @@
       <c r="K57" s="32" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A58" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B58" s="32" t="inlineStr">
         <is>
-          <t>Santa Terezinha de Itaipu</t>
+          <t>Santa Tereza do Oeste</t>
         </is>
       </c>
       <c r="C58" s="32" t="n">
@@ -9635,25 +9635,25 @@
       </c>
       <c r="D58" s="32" t="inlineStr">
         <is>
-          <t>Taiane Amélia Mondardo</t>
-        </is>
-      </c>
-      <c r="E58" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F58" s="32" t="n"/>
+          <t>Ana Carolina Peterle Ribeiro</t>
+        </is>
+      </c>
+      <c r="E58" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="32" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
       <c r="G58" s="37" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H58" s="32" t="inlineStr">
-        <is>
-          <t>SOlicitei ao técnico que faça o cadastramento junto a prefeitura (solicitação realizada dia 20/05/2025).</t>
-        </is>
-      </c>
+      <c r="H58" s="32" t="n"/>
       <c r="I58" s="32" t="n"/>
       <c r="J58" s="32" t="inlineStr">
         <is>
@@ -9663,14 +9663,14 @@
       <c r="K58" s="32" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A59" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B59" s="32" t="inlineStr">
         <is>
-          <t>São Jose das Palmeiras</t>
+          <t>Santa Terezinha de Itaipu</t>
         </is>
       </c>
       <c r="C59" s="32" t="n">
@@ -9678,19 +9678,15 @@
       </c>
       <c r="D59" s="32" t="inlineStr">
         <is>
-          <t>Adnan navarro de freitas kassim</t>
-        </is>
-      </c>
-      <c r="E59" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F59" s="32" t="inlineStr">
-        <is>
-          <t>11/03/2025</t>
-        </is>
-      </c>
+          <t>Taiane Amélia Mondardo</t>
+        </is>
+      </c>
+      <c r="E59" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F59" s="32" t="n"/>
       <c r="G59" s="37" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -9698,7 +9694,7 @@
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Foi solicita ao técnico para arrumar uma informação que estava errada. </t>
+          <t>SOlicitei ao técnico que faça o cadastramento junto a prefeitura (solicitação realizada dia 20/05/2025).</t>
         </is>
       </c>
       <c r="I59" s="32" t="n"/>
@@ -9710,14 +9706,14 @@
       <c r="K59" s="32" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A60" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B60" s="32" t="inlineStr">
         <is>
-          <t>São Miguel do Iguaçu</t>
+          <t>São Jose das Palmeiras</t>
         </is>
       </c>
       <c r="C60" s="32" t="n">
@@ -9725,7 +9721,7 @@
       </c>
       <c r="D60" s="32" t="inlineStr">
         <is>
-          <t>Andryws Rafael Gois</t>
+          <t>Adnan navarro de freitas kassim</t>
         </is>
       </c>
       <c r="E60" s="36" t="inlineStr">
@@ -9735,7 +9731,7 @@
       </c>
       <c r="F60" s="32" t="inlineStr">
         <is>
-          <t>22/04/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="G60" s="37" t="inlineStr">
@@ -9745,7 +9741,7 @@
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>SOlicitei ao técnico qual ID do form 2 que precisa ser excluído (solicitação realizada dia 20/05/2025).</t>
+          <t xml:space="preserve">Foi solicita ao técnico para arrumar uma informação que estava errada. </t>
         </is>
       </c>
       <c r="I60" s="32" t="n"/>
@@ -9757,14 +9753,14 @@
       <c r="K60" s="32" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A61" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B61" s="32" t="inlineStr">
         <is>
-          <t>São Pedro do Iguaçu</t>
+          <t>São Miguel do Iguaçu</t>
         </is>
       </c>
       <c r="C61" s="32" t="n">
@@ -9772,7 +9768,7 @@
       </c>
       <c r="D61" s="32" t="inlineStr">
         <is>
-          <t>Mayara Ketllyn de Paula Rosetti</t>
+          <t>Andryws Rafael Gois</t>
         </is>
       </c>
       <c r="E61" s="36" t="inlineStr">
@@ -9782,15 +9778,19 @@
       </c>
       <c r="F61" s="32" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
-        </is>
-      </c>
-      <c r="G61" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H61" s="32" t="n"/>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+      <c r="G61" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H61" s="32" t="inlineStr">
+        <is>
+          <t>SOlicitei ao técnico qual ID do form 2 que precisa ser excluído (solicitação realizada dia 20/05/2025).</t>
+        </is>
+      </c>
       <c r="I61" s="32" t="n"/>
       <c r="J61" s="32" t="inlineStr">
         <is>
@@ -9800,14 +9800,14 @@
       <c r="K61" s="32" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A62" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B62" s="32" t="inlineStr">
         <is>
-          <t>Serranopolis do Iguaçu</t>
+          <t>São Pedro do Iguaçu</t>
         </is>
       </c>
       <c r="C62" s="32" t="n">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="D62" s="32" t="inlineStr">
         <is>
-          <t>Junior Andre Britzke</t>
+          <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
       <c r="E62" s="36" t="inlineStr">
@@ -9825,12 +9825,12 @@
       </c>
       <c r="F62" s="32" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
-        </is>
-      </c>
-      <c r="G62" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G62" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H62" s="32" t="n"/>
@@ -9843,14 +9843,14 @@
       <c r="K62" s="32" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A63" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B63" s="32" t="inlineStr">
         <is>
-          <t>Terra Roxa</t>
+          <t>Serranopolis do Iguaçu</t>
         </is>
       </c>
       <c r="C63" s="32" t="n">
@@ -9858,22 +9858,22 @@
       </c>
       <c r="D63" s="32" t="inlineStr">
         <is>
-          <t>Adriano Pereira Guedes</t>
-        </is>
-      </c>
-      <c r="E63" s="39" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+          <t>Junior Andre Britzke</t>
+        </is>
+      </c>
+      <c r="E63" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F63" s="32" t="inlineStr">
         <is>
-          <t>03/04/2025, 04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
-        </is>
-      </c>
-      <c r="G63" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G63" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H63" s="32" t="n"/>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="B64" s="32" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Terra Roxa</t>
         </is>
       </c>
       <c r="C64" s="32" t="n">
@@ -9901,15 +9901,19 @@
       </c>
       <c r="D64" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
-        </is>
-      </c>
-      <c r="E64" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F64" s="32" t="n"/>
+          <t>Adriano Pereira Guedes</t>
+        </is>
+      </c>
+      <c r="E64" s="39" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F64" s="32" t="inlineStr">
+        <is>
+          <t>03/04/2025, 04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
+        </is>
+      </c>
       <c r="G64" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9925,14 +9929,14 @@
       <c r="K64" s="32" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A65" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B65" s="32" t="inlineStr">
         <is>
-          <t>Tres Barras do Parana</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="C65" s="32" t="n">
@@ -9940,29 +9944,21 @@
       </c>
       <c r="D65" s="32" t="inlineStr">
         <is>
-          <t>Alice Cristiane Zancheta</t>
-        </is>
-      </c>
-      <c r="E65" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F65" s="32" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G65" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H65" s="32" t="inlineStr">
-        <is>
-          <t>Pag 6, a frequência de coleta está em porcentagem e não em dias</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
+        </is>
+      </c>
+      <c r="E65" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F65" s="32" t="n"/>
+      <c r="G65" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H65" s="32" t="n"/>
       <c r="I65" s="32" t="n"/>
       <c r="J65" s="32" t="inlineStr">
         <is>
@@ -9972,14 +9968,14 @@
       <c r="K65" s="32" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A66" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B66" s="32" t="inlineStr">
         <is>
-          <t>Tupassi</t>
+          <t>Tres Barras do Parana</t>
         </is>
       </c>
       <c r="C66" s="32" t="n">
@@ -9987,7 +9983,7 @@
       </c>
       <c r="D66" s="32" t="inlineStr">
         <is>
-          <t>Fernanda kaezer de Godoy</t>
+          <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
       <c r="E66" s="36" t="inlineStr">
@@ -9997,17 +9993,17 @@
       </c>
       <c r="F66" s="32" t="inlineStr">
         <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-      <c r="G66" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G66" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>09/04- Dados incorretos informações da coleta seletiva - formulário aba 5 - informações financeiras - distinção entre a coleta dos rejeitos e dos reciclaveis</t>
+          <t>Pag 6, a frequência de coleta está em porcentagem e não em dias</t>
         </is>
       </c>
       <c r="I66" s="32" t="n"/>
@@ -10026,7 +10022,7 @@
       </c>
       <c r="B67" s="32" t="inlineStr">
         <is>
-          <t>Ubirata</t>
+          <t>Tupassi</t>
         </is>
       </c>
       <c r="C67" s="32" t="n">
@@ -10034,21 +10030,29 @@
       </c>
       <c r="D67" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ademir Papini Júnior </t>
-        </is>
-      </c>
-      <c r="E67" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F67" s="32" t="n"/>
+          <t>Fernanda kaezer de Godoy</t>
+        </is>
+      </c>
+      <c r="E67" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F67" s="32" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
       <c r="G67" s="34" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="H67" s="32" t="n"/>
+      <c r="H67" s="32" t="inlineStr">
+        <is>
+          <t>09/04- Dados incorretos informações da coleta seletiva - formulário aba 5 - informações financeiras - distinção entre a coleta dos rejeitos e dos reciclaveis</t>
+        </is>
+      </c>
       <c r="I67" s="32" t="n"/>
       <c r="J67" s="32" t="inlineStr">
         <is>
@@ -10058,14 +10062,14 @@
       <c r="K67" s="32" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A68" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B68" s="32" t="inlineStr">
         <is>
-          <t>Vera Cruz do Oeste</t>
+          <t>Ubirata</t>
         </is>
       </c>
       <c r="C68" s="32" t="n">
@@ -10073,7 +10077,7 @@
       </c>
       <c r="D68" s="32" t="inlineStr">
         <is>
-          <t>Heloísa Maria Beloni Insenha</t>
+          <t xml:space="preserve">Ademir Papini Júnior </t>
         </is>
       </c>
       <c r="E68" s="33" t="inlineStr">
@@ -10096,9 +10100,48 @@
       </c>
       <c r="K68" s="32" t="n"/>
     </row>
+    <row r="69">
+      <c r="A69" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B69" s="32" t="inlineStr">
+        <is>
+          <t>Vera Cruz do Oeste</t>
+        </is>
+      </c>
+      <c r="C69" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="32" t="inlineStr">
+        <is>
+          <t>Heloísa Maria Beloni Insenha</t>
+        </is>
+      </c>
+      <c r="E69" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F69" s="32" t="n"/>
+      <c r="G69" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H69" s="32" t="n"/>
+      <c r="I69" s="32" t="n"/>
+      <c r="J69" s="32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K69" s="32" t="n"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2:G68">
+  <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -10106,7 +10149,7 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J68">
+  <conditionalFormatting sqref="J2:J69">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -10117,7 +10160,7 @@
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E68">
+  <conditionalFormatting sqref="E2:E69">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
@@ -10135,13 +10178,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não, Em Análise"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10155,7 +10198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -11300,12 +11343,16 @@
           <t>Lucas Correia de Souza</t>
         </is>
       </c>
-      <c r="E27" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F27" s="32" t="n"/>
+      <c r="E27" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="32" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G27" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11462,22 +11509,22 @@
       <c r="K30" s="32" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A31" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B31" s="32" t="inlineStr">
         <is>
-          <t>Francisco Alves</t>
+          <t>Foz do Iguaçu</t>
         </is>
       </c>
       <c r="C31" s="32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" s="32" t="inlineStr">
         <is>
-          <t>Paulo Rogerio Hiroshi Fujii</t>
+          <t xml:space="preserve">Mariane Plaza da Silva </t>
         </is>
       </c>
       <c r="E31" s="33" t="inlineStr">
@@ -11508,7 +11555,7 @@
       </c>
       <c r="B32" s="32" t="inlineStr">
         <is>
-          <t>Guaira</t>
+          <t>Francisco Alves</t>
         </is>
       </c>
       <c r="C32" s="32" t="n">
@@ -11516,7 +11563,7 @@
       </c>
       <c r="D32" s="32" t="inlineStr">
         <is>
-          <t>Marlene R. Oliveira Dallacosta</t>
+          <t>Paulo Rogerio Hiroshi Fujii</t>
         </is>
       </c>
       <c r="E32" s="33" t="inlineStr">
@@ -11540,14 +11587,14 @@
       <c r="K32" s="32" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A33" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B33" s="32" t="inlineStr">
         <is>
-          <t>Guaraniacu</t>
+          <t>Guaira</t>
         </is>
       </c>
       <c r="C33" s="32" t="n">
@@ -11555,22 +11602,18 @@
       </c>
       <c r="D33" s="32" t="inlineStr">
         <is>
-          <t>Vitolor dos Santos Almeida</t>
-        </is>
-      </c>
-      <c r="E33" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F33" s="32" t="inlineStr">
-        <is>
-          <t>08/03/2025</t>
-        </is>
-      </c>
-      <c r="G33" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Marlene R. Oliveira Dallacosta</t>
+        </is>
+      </c>
+      <c r="E33" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F33" s="32" t="n"/>
+      <c r="G33" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H33" s="32" t="n"/>
@@ -11590,7 +11633,7 @@
       </c>
       <c r="B34" s="32" t="inlineStr">
         <is>
-          <t>Ibema</t>
+          <t>Guaraniacu</t>
         </is>
       </c>
       <c r="C34" s="32" t="n">
@@ -11598,7 +11641,7 @@
       </c>
       <c r="D34" s="32" t="inlineStr">
         <is>
-          <t>Kelly Jackeline Silva do Valle</t>
+          <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
       <c r="E34" s="36" t="inlineStr">
@@ -11608,7 +11651,7 @@
       </c>
       <c r="F34" s="32" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>08/03/2025</t>
         </is>
       </c>
       <c r="G34" s="37" t="inlineStr">
@@ -11633,7 +11676,7 @@
       </c>
       <c r="B35" s="32" t="inlineStr">
         <is>
-          <t>Iguatu</t>
+          <t>Ibema</t>
         </is>
       </c>
       <c r="C35" s="32" t="n">
@@ -11641,7 +11684,7 @@
       </c>
       <c r="D35" s="32" t="inlineStr">
         <is>
-          <t>Felipe Carvalho Zydek</t>
+          <t>Kelly Jackeline Silva do Valle</t>
         </is>
       </c>
       <c r="E35" s="36" t="inlineStr">
@@ -11651,7 +11694,7 @@
       </c>
       <c r="F35" s="32" t="inlineStr">
         <is>
-          <t>28/02/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="G35" s="37" t="inlineStr">
@@ -11669,14 +11712,14 @@
       <c r="K35" s="32" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A36" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B36" s="32" t="inlineStr">
         <is>
-          <t>Iracema do Oeste</t>
+          <t>Iguatu</t>
         </is>
       </c>
       <c r="C36" s="32" t="n">
@@ -11684,7 +11727,7 @@
       </c>
       <c r="D36" s="32" t="inlineStr">
         <is>
-          <t>Eliane Borin</t>
+          <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
       <c r="E36" s="36" t="inlineStr">
@@ -11694,12 +11737,12 @@
       </c>
       <c r="F36" s="32" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
-        </is>
-      </c>
-      <c r="G36" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>28/02/2025</t>
+        </is>
+      </c>
+      <c r="G36" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H36" s="32" t="n"/>
@@ -11712,14 +11755,14 @@
       <c r="K36" s="32" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A37" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B37" s="32" t="inlineStr">
         <is>
-          <t>Itaipulândia</t>
+          <t>Iracema do Oeste</t>
         </is>
       </c>
       <c r="C37" s="32" t="n">
@@ -11727,7 +11770,7 @@
       </c>
       <c r="D37" s="32" t="inlineStr">
         <is>
-          <t>Tatiana schrard</t>
+          <t>Eliane Borin</t>
         </is>
       </c>
       <c r="E37" s="36" t="inlineStr">
@@ -11737,7 +11780,7 @@
       </c>
       <c r="F37" s="32" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="G37" s="34" t="inlineStr">
@@ -11755,14 +11798,14 @@
       <c r="K37" s="32" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A38" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B38" s="32" t="inlineStr">
         <is>
-          <t>Jesuítas</t>
+          <t>Itaipulândia</t>
         </is>
       </c>
       <c r="C38" s="32" t="n">
@@ -11770,15 +11813,19 @@
       </c>
       <c r="D38" s="32" t="inlineStr">
         <is>
-          <t>Francilaine Cavalini de Oliveira</t>
-        </is>
-      </c>
-      <c r="E38" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="32" t="n"/>
+          <t>Tatiana schrard</t>
+        </is>
+      </c>
+      <c r="E38" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="32" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G38" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11794,14 +11841,14 @@
       <c r="K38" s="32" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A39" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B39" s="32" t="inlineStr">
         <is>
-          <t>Lindoeste</t>
+          <t>Jesuítas</t>
         </is>
       </c>
       <c r="C39" s="32" t="n">
@@ -11809,7 +11856,7 @@
       </c>
       <c r="D39" s="32" t="inlineStr">
         <is>
-          <t>Ailton Carlos Fialho</t>
+          <t>César Piva Glinglani</t>
         </is>
       </c>
       <c r="E39" s="33" t="inlineStr">
@@ -11833,14 +11880,14 @@
       <c r="K39" s="32" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A40" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B40" s="32" t="inlineStr">
         <is>
-          <t>Marechal Candido Rondon</t>
+          <t>Lindoeste</t>
         </is>
       </c>
       <c r="C40" s="32" t="n">
@@ -11848,19 +11895,15 @@
       </c>
       <c r="D40" s="32" t="inlineStr">
         <is>
-          <t>Marcos José Chaves</t>
-        </is>
-      </c>
-      <c r="E40" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F40" s="32" t="inlineStr">
-        <is>
-          <t>04/04/2025</t>
-        </is>
-      </c>
+          <t>Ailton Carlos Fialho</t>
+        </is>
+      </c>
+      <c r="E40" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F40" s="32" t="n"/>
       <c r="G40" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11887,11 +11930,11 @@
         </is>
       </c>
       <c r="C41" s="32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="32" t="inlineStr">
         <is>
-          <t>Diego Matheus Reinicke</t>
+          <t>Marcos José Chaves</t>
         </is>
       </c>
       <c r="E41" s="36" t="inlineStr">
@@ -11919,30 +11962,34 @@
       <c r="K41" s="32" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A42" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B42" s="32" t="inlineStr">
         <is>
-          <t>Maripa</t>
+          <t>Marechal Candido Rondon</t>
         </is>
       </c>
       <c r="C42" s="32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="32" t="inlineStr">
         <is>
-          <t>Cleiton Manske</t>
-        </is>
-      </c>
-      <c r="E42" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="32" t="n"/>
+          <t>Diego Matheus Reinicke</t>
+        </is>
+      </c>
+      <c r="E42" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="32" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G42" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11958,14 +12005,14 @@
       <c r="K42" s="32" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A43" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B43" s="32" t="inlineStr">
         <is>
-          <t>Matelândia</t>
+          <t>Maripa</t>
         </is>
       </c>
       <c r="C43" s="32" t="n">
@@ -11973,19 +12020,15 @@
       </c>
       <c r="D43" s="32" t="inlineStr">
         <is>
-          <t>Alexandro Aparecido de Lima Vieira</t>
-        </is>
-      </c>
-      <c r="E43" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F43" s="32" t="inlineStr">
-        <is>
-          <t>02/04/2025</t>
-        </is>
-      </c>
+          <t>Cleiton Manske</t>
+        </is>
+      </c>
+      <c r="E43" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F43" s="32" t="n"/>
       <c r="G43" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12008,7 +12051,7 @@
       </c>
       <c r="B44" s="32" t="inlineStr">
         <is>
-          <t>Medianeira</t>
+          <t>Matelândia</t>
         </is>
       </c>
       <c r="C44" s="32" t="n">
@@ -12016,7 +12059,7 @@
       </c>
       <c r="D44" s="32" t="inlineStr">
         <is>
-          <t>Natielly Pereira Ochoa</t>
+          <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
       <c r="E44" s="36" t="inlineStr">
@@ -12026,19 +12069,15 @@
       </c>
       <c r="F44" s="32" t="inlineStr">
         <is>
-          <t>11/03/2025</t>
-        </is>
-      </c>
-      <c r="G44" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H44" s="32" t="inlineStr">
-        <is>
-          <t>Está ok</t>
-        </is>
-      </c>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="G44" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H44" s="32" t="n"/>
       <c r="I44" s="32" t="n"/>
       <c r="J44" s="32" t="inlineStr">
         <is>
@@ -12048,14 +12087,14 @@
       <c r="K44" s="32" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A45" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B45" s="32" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Medianeira</t>
         </is>
       </c>
       <c r="C45" s="32" t="n">
@@ -12063,21 +12102,29 @@
       </c>
       <c r="D45" s="32" t="inlineStr">
         <is>
-          <t>Roberto Pedron</t>
-        </is>
-      </c>
-      <c r="E45" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F45" s="32" t="n"/>
-      <c r="G45" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H45" s="32" t="n"/>
+          <t>Natielly Pereira Ochoa</t>
+        </is>
+      </c>
+      <c r="E45" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="32" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="G45" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H45" s="32" t="inlineStr">
+        <is>
+          <t>Está ok</t>
+        </is>
+      </c>
       <c r="I45" s="32" t="n"/>
       <c r="J45" s="32" t="inlineStr">
         <is>
@@ -12087,14 +12134,14 @@
       <c r="K45" s="32" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A46" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B46" s="32" t="inlineStr">
         <is>
-          <t>Missal</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="C46" s="32" t="n">
@@ -12102,22 +12149,18 @@
       </c>
       <c r="D46" s="32" t="inlineStr">
         <is>
-          <t>Luciane Spies</t>
-        </is>
-      </c>
-      <c r="E46" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F46" s="32" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-      <c r="G46" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Roberto Pedron</t>
+        </is>
+      </c>
+      <c r="E46" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F46" s="32" t="n"/>
+      <c r="G46" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H46" s="32" t="n"/>
@@ -12130,14 +12173,14 @@
       <c r="K46" s="32" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A47" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B47" s="32" t="inlineStr">
         <is>
-          <t>Mundo Novo</t>
+          <t>Missal</t>
         </is>
       </c>
       <c r="C47" s="32" t="n">
@@ -12145,18 +12188,22 @@
       </c>
       <c r="D47" s="32" t="inlineStr">
         <is>
-          <t>Jaqueline Meireles / Margarete Pusippe</t>
-        </is>
-      </c>
-      <c r="E47" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F47" s="32" t="n"/>
-      <c r="G47" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>Luciane Spies</t>
+        </is>
+      </c>
+      <c r="E47" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F47" s="32" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="G47" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H47" s="32" t="n"/>
@@ -12169,14 +12216,14 @@
       <c r="K47" s="32" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A48" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B48" s="32" t="inlineStr">
         <is>
-          <t>Nova Aurora</t>
+          <t>Mundo Novo</t>
         </is>
       </c>
       <c r="C48" s="32" t="n">
@@ -12184,19 +12231,15 @@
       </c>
       <c r="D48" s="32" t="inlineStr">
         <is>
-          <t>Luiz Fernando Pereira Barbosa</t>
-        </is>
-      </c>
-      <c r="E48" s="39" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
-        </is>
-      </c>
-      <c r="F48" s="32" t="inlineStr">
-        <is>
-          <t>16/04/2025, 30/05/2025</t>
-        </is>
-      </c>
+          <t>Jaqueline Meireles / Margarete Pusippe</t>
+        </is>
+      </c>
+      <c r="E48" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F48" s="32" t="n"/>
       <c r="G48" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12212,14 +12255,14 @@
       <c r="K48" s="32" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A49" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B49" s="32" t="inlineStr">
         <is>
-          <t>Nova Santa Rosa</t>
+          <t>Nova Aurora</t>
         </is>
       </c>
       <c r="C49" s="32" t="n">
@@ -12227,17 +12270,17 @@
       </c>
       <c r="D49" s="32" t="inlineStr">
         <is>
-          <t>Carolina Eggers</t>
-        </is>
-      </c>
-      <c r="E49" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+          <t>Luiz Fernando Pereira Barbosa</t>
+        </is>
+      </c>
+      <c r="E49" s="39" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F49" s="32" t="inlineStr">
         <is>
-          <t>31/03/2025</t>
+          <t>16/04/2025, 30/05/2025</t>
         </is>
       </c>
       <c r="G49" s="34" t="inlineStr">
@@ -12262,7 +12305,7 @@
       </c>
       <c r="B50" s="32" t="inlineStr">
         <is>
-          <t>Ouro Verde do Oeste</t>
+          <t>Nova Santa Rosa</t>
         </is>
       </c>
       <c r="C50" s="32" t="n">
@@ -12270,7 +12313,7 @@
       </c>
       <c r="D50" s="32" t="inlineStr">
         <is>
-          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
+          <t>Carolina Eggers</t>
         </is>
       </c>
       <c r="E50" s="36" t="inlineStr">
@@ -12280,7 +12323,7 @@
       </c>
       <c r="F50" s="32" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>31/03/2025</t>
         </is>
       </c>
       <c r="G50" s="34" t="inlineStr">
@@ -12305,7 +12348,7 @@
       </c>
       <c r="B51" s="32" t="inlineStr">
         <is>
-          <t>Palotina</t>
+          <t>Ouro Verde do Oeste</t>
         </is>
       </c>
       <c r="C51" s="32" t="n">
@@ -12313,15 +12356,19 @@
       </c>
       <c r="D51" s="32" t="inlineStr">
         <is>
-          <t>Dorival Manoel Canhete</t>
-        </is>
-      </c>
-      <c r="E51" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="32" t="n"/>
+          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
+        </is>
+      </c>
+      <c r="E51" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="32" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G51" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12337,14 +12384,14 @@
       <c r="K51" s="32" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A52" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B52" s="32" t="inlineStr">
         <is>
-          <t>Pato Bragado</t>
+          <t>Palotina</t>
         </is>
       </c>
       <c r="C52" s="32" t="n">
@@ -12352,22 +12399,18 @@
       </c>
       <c r="D52" s="32" t="inlineStr">
         <is>
-          <t>Jaqueline Vanelli</t>
-        </is>
-      </c>
-      <c r="E52" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F52" s="32" t="inlineStr">
-        <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="G52" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Dorival Manoel Canhete</t>
+        </is>
+      </c>
+      <c r="E52" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F52" s="32" t="n"/>
+      <c r="G52" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H52" s="32" t="n"/>
@@ -12380,14 +12423,14 @@
       <c r="K52" s="32" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A53" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B53" s="32" t="inlineStr">
         <is>
-          <t>Quatro Pontes</t>
+          <t>Pato Bragado</t>
         </is>
       </c>
       <c r="C53" s="32" t="n">
@@ -12395,7 +12438,7 @@
       </c>
       <c r="D53" s="32" t="inlineStr">
         <is>
-          <t>Fernanda Jung</t>
+          <t>Jaqueline Vanelli</t>
         </is>
       </c>
       <c r="E53" s="36" t="inlineStr">
@@ -12405,12 +12448,12 @@
       </c>
       <c r="F53" s="32" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
-        </is>
-      </c>
-      <c r="G53" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="G53" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H53" s="32" t="n"/>
@@ -12423,14 +12466,14 @@
       <c r="K53" s="32" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A54" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B54" s="32" t="inlineStr">
         <is>
-          <t>Ramilândia</t>
+          <t>Quatro Pontes</t>
         </is>
       </c>
       <c r="C54" s="32" t="n">
@@ -12438,15 +12481,19 @@
       </c>
       <c r="D54" s="32" t="inlineStr">
         <is>
-          <t>Ana Paula Romagnoli</t>
-        </is>
-      </c>
-      <c r="E54" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F54" s="32" t="n"/>
+          <t>Fernanda Jung</t>
+        </is>
+      </c>
+      <c r="E54" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F54" s="32" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G54" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12469,7 +12516,7 @@
       </c>
       <c r="B55" s="32" t="inlineStr">
         <is>
-          <t>Santa Helena</t>
+          <t>Ramilândia</t>
         </is>
       </c>
       <c r="C55" s="32" t="n">
@@ -12477,19 +12524,15 @@
       </c>
       <c r="D55" s="32" t="inlineStr">
         <is>
-          <t>Isabel Caroline Fruhling</t>
-        </is>
-      </c>
-      <c r="E55" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F55" s="32" t="inlineStr">
-        <is>
-          <t>03/04/2025</t>
-        </is>
-      </c>
+          <t>Ana Paula Romagnoli</t>
+        </is>
+      </c>
+      <c r="E55" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F55" s="32" t="n"/>
       <c r="G55" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12505,88 +12548,88 @@
       <c r="K55" s="32" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="35" t="inlineStr">
+      <c r="A56" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B56" s="32" t="inlineStr">
+        <is>
+          <t>Santa Helena</t>
+        </is>
+      </c>
+      <c r="C56" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="32" t="inlineStr">
+        <is>
+          <t>Isabel Caroline Fruhling</t>
+        </is>
+      </c>
+      <c r="E56" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="32" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="G56" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H56" s="32" t="n"/>
+      <c r="I56" s="32" t="n"/>
+      <c r="J56" s="32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K56" s="32" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="35" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="B56" s="32" t="inlineStr">
+      <c r="B57" s="32" t="inlineStr">
         <is>
           <t>Santa Lúcia</t>
         </is>
       </c>
-      <c r="C56" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="32" t="inlineStr">
+      <c r="C57" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="32" t="inlineStr">
         <is>
           <t>Marina Ancelmo da Silva</t>
         </is>
       </c>
-      <c r="E56" s="36" t="inlineStr">
+      <c r="E57" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F56" s="32" t="inlineStr">
+      <c r="F57" s="32" t="inlineStr">
         <is>
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G56" s="37" t="inlineStr">
+      <c r="G57" s="37" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H56" s="32" t="inlineStr">
+      <c r="H57" s="32" t="inlineStr">
         <is>
           <t>Pág 3, precisa incluir fotos de cada um dos ambientes da UVR - cozinha, refeitório, área de processamento...
 Pág 4, estão com 3 prensas horizontais?</t>
         </is>
       </c>
-      <c r="I56" s="32" t="n"/>
-      <c r="J56" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K56" s="32" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
-        </is>
-      </c>
-      <c r="B57" s="32" t="inlineStr">
-        <is>
-          <t>Santa Tereza do Oeste</t>
-        </is>
-      </c>
-      <c r="C57" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="32" t="inlineStr">
-        <is>
-          <t>Ana Carolina Peterle Ribeiro</t>
-        </is>
-      </c>
-      <c r="E57" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F57" s="32" t="inlineStr">
-        <is>
-          <t>19/03/2025</t>
-        </is>
-      </c>
-      <c r="G57" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H57" s="32" t="n"/>
       <c r="I57" s="32" t="n"/>
       <c r="J57" s="32" t="inlineStr">
         <is>
@@ -12596,14 +12639,14 @@
       <c r="K57" s="32" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A58" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B58" s="32" t="inlineStr">
         <is>
-          <t>Santa Terezinha de Itaipu</t>
+          <t>Santa Tereza do Oeste</t>
         </is>
       </c>
       <c r="C58" s="32" t="n">
@@ -12611,18 +12654,22 @@
       </c>
       <c r="D58" s="32" t="inlineStr">
         <is>
-          <t>Taiane Amélia Mondardo</t>
-        </is>
-      </c>
-      <c r="E58" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F58" s="32" t="n"/>
-      <c r="G58" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>Ana Carolina Peterle Ribeiro</t>
+        </is>
+      </c>
+      <c r="E58" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="32" t="inlineStr">
+        <is>
+          <t>19/03/2025</t>
+        </is>
+      </c>
+      <c r="G58" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H58" s="32" t="n"/>
@@ -12635,14 +12682,14 @@
       <c r="K58" s="32" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A59" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B59" s="32" t="inlineStr">
         <is>
-          <t>São Jose das Palmeiras</t>
+          <t>Santa Terezinha de Itaipu</t>
         </is>
       </c>
       <c r="C59" s="32" t="n">
@@ -12650,29 +12697,21 @@
       </c>
       <c r="D59" s="32" t="inlineStr">
         <is>
-          <t>Adnan navarro de freitas kassim</t>
-        </is>
-      </c>
-      <c r="E59" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F59" s="32" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-      <c r="G59" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H59" s="32" t="inlineStr">
-        <is>
-          <t>Alterado as fotos</t>
-        </is>
-      </c>
+          <t>Taiane Amélia Mondardo</t>
+        </is>
+      </c>
+      <c r="E59" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F59" s="32" t="n"/>
+      <c r="G59" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H59" s="32" t="n"/>
       <c r="I59" s="32" t="n"/>
       <c r="J59" s="32" t="inlineStr">
         <is>
@@ -12682,138 +12721,138 @@
       <c r="K59" s="32" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="41" t="inlineStr">
+      <c r="A60" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B60" s="32" t="inlineStr">
+        <is>
+          <t>São Jose das Palmeiras</t>
+        </is>
+      </c>
+      <c r="C60" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="32" t="inlineStr">
+        <is>
+          <t>Adnan navarro de freitas kassim</t>
+        </is>
+      </c>
+      <c r="E60" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F60" s="32" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="G60" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H60" s="32" t="inlineStr">
+        <is>
+          <t>Alterado as fotos</t>
+        </is>
+      </c>
+      <c r="I60" s="32" t="n"/>
+      <c r="J60" s="32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K60" s="32" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="41" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
       </c>
-      <c r="B60" s="32" t="inlineStr">
+      <c r="B61" s="32" t="inlineStr">
         <is>
           <t>São Miguel do Iguaçu</t>
         </is>
       </c>
-      <c r="C60" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" s="32" t="inlineStr">
+      <c r="C61" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="32" t="inlineStr">
         <is>
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="36" t="inlineStr">
+      <c r="E61" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F60" s="32" t="inlineStr">
+      <c r="F61" s="32" t="inlineStr">
         <is>
           <t>22/04/2025</t>
         </is>
       </c>
-      <c r="G60" s="37" t="inlineStr">
+      <c r="G61" s="37" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="H60" s="32" t="n"/>
-      <c r="I60" s="32" t="inlineStr">
+      <c r="H61" s="32" t="n"/>
+      <c r="I61" s="32" t="inlineStr">
         <is>
           <t>Remover ID 195</t>
         </is>
       </c>
-      <c r="J60" s="32" t="inlineStr">
+      <c r="J61" s="32" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
-      <c r="K60" s="32" t="inlineStr">
+      <c r="K61" s="32" t="inlineStr">
         <is>
           <t>Removido o 195</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="40" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="40" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
       </c>
-      <c r="B61" s="32" t="inlineStr">
+      <c r="B62" s="32" t="inlineStr">
         <is>
           <t>São Pedro do Iguaçu</t>
         </is>
       </c>
-      <c r="C61" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="32" t="inlineStr">
+      <c r="C62" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="32" t="inlineStr">
         <is>
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="36" t="inlineStr">
+      <c r="E62" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
-      <c r="F61" s="32" t="inlineStr">
+      <c r="F62" s="32" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="G61" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H61" s="32" t="n"/>
-      <c r="I61" s="32" t="n"/>
-      <c r="J61" s="32" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K61" s="32" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
-        </is>
-      </c>
-      <c r="B62" s="32" t="inlineStr">
-        <is>
-          <t>Serranopolis do Iguaçu</t>
-        </is>
-      </c>
-      <c r="C62" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="32" t="inlineStr">
-        <is>
-          <t>Junior Andre Britzke</t>
-        </is>
-      </c>
-      <c r="E62" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F62" s="32" t="inlineStr">
-        <is>
-          <t>08/04/2025</t>
-        </is>
-      </c>
-      <c r="G62" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H62" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ajustas a aba 3</t>
-        </is>
-      </c>
+      <c r="G62" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H62" s="32" t="n"/>
       <c r="I62" s="32" t="n"/>
       <c r="J62" s="32" t="inlineStr">
         <is>
@@ -12823,14 +12862,14 @@
       <c r="K62" s="32" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A63" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B63" s="32" t="inlineStr">
         <is>
-          <t>Terra Roxa</t>
+          <t>Serranopolis do Iguaçu</t>
         </is>
       </c>
       <c r="C63" s="32" t="n">
@@ -12838,25 +12877,29 @@
       </c>
       <c r="D63" s="32" t="inlineStr">
         <is>
-          <t>Adriano Pereira Guedes</t>
-        </is>
-      </c>
-      <c r="E63" s="39" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+          <t>Junior Andre Britzke</t>
+        </is>
+      </c>
+      <c r="E63" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F63" s="32" t="inlineStr">
         <is>
-          <t>15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 04/04/2025, 12/05/2025</t>
-        </is>
-      </c>
-      <c r="G63" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H63" s="32" t="n"/>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G63" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H63" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ajustas a aba 3</t>
+        </is>
+      </c>
       <c r="I63" s="32" t="n"/>
       <c r="J63" s="32" t="inlineStr">
         <is>
@@ -12873,7 +12916,7 @@
       </c>
       <c r="B64" s="32" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Terra Roxa</t>
         </is>
       </c>
       <c r="C64" s="32" t="n">
@@ -12881,15 +12924,19 @@
       </c>
       <c r="D64" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
-        </is>
-      </c>
-      <c r="E64" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F64" s="32" t="n"/>
+          <t>Adriano Pereira Guedes</t>
+        </is>
+      </c>
+      <c r="E64" s="39" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="F64" s="32" t="inlineStr">
+        <is>
+          <t>15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 04/04/2025, 12/05/2025</t>
+        </is>
+      </c>
       <c r="G64" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12905,14 +12952,14 @@
       <c r="K64" s="32" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A65" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B65" s="32" t="inlineStr">
         <is>
-          <t>Tres Barras do Parana</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="C65" s="32" t="n">
@@ -12920,29 +12967,21 @@
       </c>
       <c r="D65" s="32" t="inlineStr">
         <is>
-          <t>Alice Cristiane Zancheta</t>
-        </is>
-      </c>
-      <c r="E65" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F65" s="32" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G65" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H65" s="32" t="inlineStr">
-        <is>
-          <t>Pag 3, as fotos da edificação e da área de estocagem estão ótimas, para as outras áreas precisaria de fotos mais específicas</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
+        </is>
+      </c>
+      <c r="E65" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F65" s="32" t="n"/>
+      <c r="G65" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H65" s="32" t="n"/>
       <c r="I65" s="32" t="n"/>
       <c r="J65" s="32" t="inlineStr">
         <is>
@@ -12952,14 +12991,14 @@
       <c r="K65" s="32" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A66" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B66" s="32" t="inlineStr">
         <is>
-          <t>Tupassi</t>
+          <t>Tres Barras do Parana</t>
         </is>
       </c>
       <c r="C66" s="32" t="n">
@@ -12967,7 +13006,7 @@
       </c>
       <c r="D66" s="32" t="inlineStr">
         <is>
-          <t>Fernanda kaezer de Godoy</t>
+          <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
       <c r="E66" s="36" t="inlineStr">
@@ -12977,15 +13016,19 @@
       </c>
       <c r="F66" s="32" t="inlineStr">
         <is>
-          <t>26/02/2025</t>
-        </is>
-      </c>
-      <c r="G66" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H66" s="32" t="n"/>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G66" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H66" s="32" t="inlineStr">
+        <is>
+          <t>Pag 3, as fotos da edificação e da área de estocagem estão ótimas, para as outras áreas precisaria de fotos mais específicas</t>
+        </is>
+      </c>
       <c r="I66" s="32" t="n"/>
       <c r="J66" s="32" t="inlineStr">
         <is>
@@ -13002,7 +13045,7 @@
       </c>
       <c r="B67" s="32" t="inlineStr">
         <is>
-          <t>Ubirata</t>
+          <t>Tupassi</t>
         </is>
       </c>
       <c r="C67" s="32" t="n">
@@ -13010,7 +13053,7 @@
       </c>
       <c r="D67" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ademir Papini Júnior </t>
+          <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
       <c r="E67" s="36" t="inlineStr">
@@ -13020,7 +13063,7 @@
       </c>
       <c r="F67" s="32" t="inlineStr">
         <is>
-          <t>16/04/2025</t>
+          <t>26/02/2025</t>
         </is>
       </c>
       <c r="G67" s="34" t="inlineStr">
@@ -13038,14 +13081,14 @@
       <c r="K67" s="32" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A68" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B68" s="32" t="inlineStr">
         <is>
-          <t>Vera Cruz do Oeste</t>
+          <t>Ubirata</t>
         </is>
       </c>
       <c r="C68" s="32" t="n">
@@ -13053,15 +13096,19 @@
       </c>
       <c r="D68" s="32" t="inlineStr">
         <is>
-          <t>Heloísa Maria Beloni Insenha</t>
-        </is>
-      </c>
-      <c r="E68" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F68" s="32" t="n"/>
+          <t xml:space="preserve">Ademir Papini Júnior </t>
+        </is>
+      </c>
+      <c r="E68" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F68" s="32" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
       <c r="G68" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13076,9 +13123,48 @@
       </c>
       <c r="K68" s="32" t="n"/>
     </row>
+    <row r="69">
+      <c r="A69" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B69" s="32" t="inlineStr">
+        <is>
+          <t>Vera Cruz do Oeste</t>
+        </is>
+      </c>
+      <c r="C69" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="32" t="inlineStr">
+        <is>
+          <t>Heloísa Maria Beloni Insenha</t>
+        </is>
+      </c>
+      <c r="E69" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F69" s="32" t="n"/>
+      <c r="G69" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H69" s="32" t="n"/>
+      <c r="I69" s="32" t="n"/>
+      <c r="J69" s="32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K69" s="32" t="n"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2:G68">
+  <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -13086,7 +13172,7 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J68">
+  <conditionalFormatting sqref="J2:J69">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -13097,7 +13183,7 @@
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E68">
+  <conditionalFormatting sqref="E2:E69">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
@@ -13115,13 +13201,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13135,7 +13221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -14268,12 +14354,16 @@
           <t>Lucas Correia de Souza</t>
         </is>
       </c>
-      <c r="E27" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F27" s="32" t="n"/>
+      <c r="E27" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="32" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
       <c r="G27" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14430,22 +14520,22 @@
       <c r="K30" s="32" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A31" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B31" s="32" t="inlineStr">
         <is>
-          <t>Francisco Alves</t>
+          <t>Foz do Iguaçu</t>
         </is>
       </c>
       <c r="C31" s="32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" s="32" t="inlineStr">
         <is>
-          <t>Paulo Rogerio Hiroshi Fujii</t>
+          <t xml:space="preserve">Mariane Plaza da Silva </t>
         </is>
       </c>
       <c r="E31" s="33" t="inlineStr">
@@ -14476,7 +14566,7 @@
       </c>
       <c r="B32" s="32" t="inlineStr">
         <is>
-          <t>Guaira</t>
+          <t>Francisco Alves</t>
         </is>
       </c>
       <c r="C32" s="32" t="n">
@@ -14484,7 +14574,7 @@
       </c>
       <c r="D32" s="32" t="inlineStr">
         <is>
-          <t>Marlene R. Oliveira Dallacosta</t>
+          <t>Paulo Rogerio Hiroshi Fujii</t>
         </is>
       </c>
       <c r="E32" s="33" t="inlineStr">
@@ -14508,14 +14598,14 @@
       <c r="K32" s="32" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A33" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B33" s="32" t="inlineStr">
         <is>
-          <t>Guaraniacu</t>
+          <t>Guaira</t>
         </is>
       </c>
       <c r="C33" s="32" t="n">
@@ -14523,19 +14613,15 @@
       </c>
       <c r="D33" s="32" t="inlineStr">
         <is>
-          <t>Vitolor dos Santos Almeida</t>
-        </is>
-      </c>
-      <c r="E33" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F33" s="32" t="inlineStr">
-        <is>
-          <t>08/04/2025</t>
-        </is>
-      </c>
+          <t>Marlene R. Oliveira Dallacosta</t>
+        </is>
+      </c>
+      <c r="E33" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F33" s="32" t="n"/>
       <c r="G33" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14558,7 +14644,7 @@
       </c>
       <c r="B34" s="32" t="inlineStr">
         <is>
-          <t>Ibema</t>
+          <t>Guaraniacu</t>
         </is>
       </c>
       <c r="C34" s="32" t="n">
@@ -14566,7 +14652,7 @@
       </c>
       <c r="D34" s="32" t="inlineStr">
         <is>
-          <t>Kelly Jackeline Silva do Valle</t>
+          <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
       <c r="E34" s="36" t="inlineStr">
@@ -14576,12 +14662,12 @@
       </c>
       <c r="F34" s="32" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
-        </is>
-      </c>
-      <c r="G34" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G34" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H34" s="32" t="n"/>
@@ -14601,7 +14687,7 @@
       </c>
       <c r="B35" s="32" t="inlineStr">
         <is>
-          <t>Iguatu</t>
+          <t>Ibema</t>
         </is>
       </c>
       <c r="C35" s="32" t="n">
@@ -14609,7 +14695,7 @@
       </c>
       <c r="D35" s="32" t="inlineStr">
         <is>
-          <t>Felipe Carvalho Zydek</t>
+          <t>Kelly Jackeline Silva do Valle</t>
         </is>
       </c>
       <c r="E35" s="36" t="inlineStr">
@@ -14619,7 +14705,7 @@
       </c>
       <c r="F35" s="32" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="G35" s="37" t="inlineStr">
@@ -14637,14 +14723,14 @@
       <c r="K35" s="32" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A36" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B36" s="32" t="inlineStr">
         <is>
-          <t>Iracema do Oeste</t>
+          <t>Iguatu</t>
         </is>
       </c>
       <c r="C36" s="32" t="n">
@@ -14652,7 +14738,7 @@
       </c>
       <c r="D36" s="32" t="inlineStr">
         <is>
-          <t>Eliane Borin</t>
+          <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
       <c r="E36" s="36" t="inlineStr">
@@ -14662,12 +14748,12 @@
       </c>
       <c r="F36" s="32" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
-        </is>
-      </c>
-      <c r="G36" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="G36" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H36" s="32" t="n"/>
@@ -14680,14 +14766,14 @@
       <c r="K36" s="32" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A37" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B37" s="32" t="inlineStr">
         <is>
-          <t>Itaipulândia</t>
+          <t>Iracema do Oeste</t>
         </is>
       </c>
       <c r="C37" s="32" t="n">
@@ -14695,7 +14781,7 @@
       </c>
       <c r="D37" s="32" t="inlineStr">
         <is>
-          <t>Tatiana schrard</t>
+          <t>Eliane Borin</t>
         </is>
       </c>
       <c r="E37" s="36" t="inlineStr">
@@ -14705,7 +14791,7 @@
       </c>
       <c r="F37" s="32" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="G37" s="34" t="inlineStr">
@@ -14723,14 +14809,14 @@
       <c r="K37" s="32" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A38" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B38" s="32" t="inlineStr">
         <is>
-          <t>Jesuítas</t>
+          <t>Itaipulândia</t>
         </is>
       </c>
       <c r="C38" s="32" t="n">
@@ -14738,15 +14824,19 @@
       </c>
       <c r="D38" s="32" t="inlineStr">
         <is>
-          <t>Francilaine Cavalini de Oliveira</t>
-        </is>
-      </c>
-      <c r="E38" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F38" s="32" t="n"/>
+          <t>Tatiana schrard</t>
+        </is>
+      </c>
+      <c r="E38" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F38" s="32" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
       <c r="G38" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14762,14 +14852,14 @@
       <c r="K38" s="32" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A39" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B39" s="32" t="inlineStr">
         <is>
-          <t>Lindoeste</t>
+          <t>Jesuítas</t>
         </is>
       </c>
       <c r="C39" s="32" t="n">
@@ -14777,7 +14867,7 @@
       </c>
       <c r="D39" s="32" t="inlineStr">
         <is>
-          <t>Ailton Carlos Fialho</t>
+          <t>César Piva Glinglani</t>
         </is>
       </c>
       <c r="E39" s="33" t="inlineStr">
@@ -14801,14 +14891,14 @@
       <c r="K39" s="32" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A40" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B40" s="32" t="inlineStr">
         <is>
-          <t>Marechal Candido Rondon</t>
+          <t>Lindoeste</t>
         </is>
       </c>
       <c r="C40" s="32" t="n">
@@ -14816,19 +14906,15 @@
       </c>
       <c r="D40" s="32" t="inlineStr">
         <is>
-          <t>Marcos José Chaves</t>
-        </is>
-      </c>
-      <c r="E40" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F40" s="32" t="inlineStr">
-        <is>
-          <t>09/04/2025</t>
-        </is>
-      </c>
+          <t>Ailton Carlos Fialho</t>
+        </is>
+      </c>
+      <c r="E40" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F40" s="32" t="n"/>
       <c r="G40" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14855,11 +14941,11 @@
         </is>
       </c>
       <c r="C41" s="32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="32" t="inlineStr">
         <is>
-          <t>Diego Matheus Reinicke</t>
+          <t>Marcos José Chaves</t>
         </is>
       </c>
       <c r="E41" s="36" t="inlineStr">
@@ -14869,7 +14955,7 @@
       </c>
       <c r="F41" s="32" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="G41" s="34" t="inlineStr">
@@ -14887,30 +14973,34 @@
       <c r="K41" s="32" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A42" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B42" s="32" t="inlineStr">
         <is>
-          <t>Maripa</t>
+          <t>Marechal Candido Rondon</t>
         </is>
       </c>
       <c r="C42" s="32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="32" t="inlineStr">
         <is>
-          <t>Cleiton Manske</t>
-        </is>
-      </c>
-      <c r="E42" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F42" s="32" t="n"/>
+          <t>Diego Matheus Reinicke</t>
+        </is>
+      </c>
+      <c r="E42" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F42" s="32" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G42" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14926,14 +15016,14 @@
       <c r="K42" s="32" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A43" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B43" s="32" t="inlineStr">
         <is>
-          <t>Matelândia</t>
+          <t>Maripa</t>
         </is>
       </c>
       <c r="C43" s="32" t="n">
@@ -14941,22 +15031,18 @@
       </c>
       <c r="D43" s="32" t="inlineStr">
         <is>
-          <t>Alexandro Aparecido de Lima Vieira</t>
-        </is>
-      </c>
-      <c r="E43" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F43" s="32" t="inlineStr">
-        <is>
-          <t>02/04/2025</t>
-        </is>
-      </c>
-      <c r="G43" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Cleiton Manske</t>
+        </is>
+      </c>
+      <c r="E43" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F43" s="32" t="n"/>
+      <c r="G43" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H43" s="32" t="n"/>
@@ -14976,7 +15062,7 @@
       </c>
       <c r="B44" s="32" t="inlineStr">
         <is>
-          <t>Medianeira</t>
+          <t>Matelândia</t>
         </is>
       </c>
       <c r="C44" s="32" t="n">
@@ -14984,7 +15070,7 @@
       </c>
       <c r="D44" s="32" t="inlineStr">
         <is>
-          <t>Natielly Pereira Ochoa</t>
+          <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
       <c r="E44" s="36" t="inlineStr">
@@ -14994,7 +15080,7 @@
       </c>
       <c r="F44" s="32" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="G44" s="37" t="inlineStr">
@@ -15002,11 +15088,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="H44" s="32" t="inlineStr">
-        <is>
-          <t>Está ok</t>
-        </is>
-      </c>
+      <c r="H44" s="32" t="n"/>
       <c r="I44" s="32" t="n"/>
       <c r="J44" s="32" t="inlineStr">
         <is>
@@ -15016,14 +15098,14 @@
       <c r="K44" s="32" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A45" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B45" s="32" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Medianeira</t>
         </is>
       </c>
       <c r="C45" s="32" t="n">
@@ -15031,21 +15113,29 @@
       </c>
       <c r="D45" s="32" t="inlineStr">
         <is>
-          <t>Roberto Pedron</t>
-        </is>
-      </c>
-      <c r="E45" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F45" s="32" t="n"/>
-      <c r="G45" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H45" s="32" t="n"/>
+          <t>Natielly Pereira Ochoa</t>
+        </is>
+      </c>
+      <c r="E45" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="32" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="G45" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H45" s="32" t="inlineStr">
+        <is>
+          <t>Está ok</t>
+        </is>
+      </c>
       <c r="I45" s="32" t="n"/>
       <c r="J45" s="32" t="inlineStr">
         <is>
@@ -15055,14 +15145,14 @@
       <c r="K45" s="32" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A46" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B46" s="32" t="inlineStr">
         <is>
-          <t>Missal</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="C46" s="32" t="n">
@@ -15070,22 +15160,18 @@
       </c>
       <c r="D46" s="32" t="inlineStr">
         <is>
-          <t>Luciane Spies</t>
-        </is>
-      </c>
-      <c r="E46" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F46" s="32" t="inlineStr">
-        <is>
-          <t>11/03/2025</t>
-        </is>
-      </c>
-      <c r="G46" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Roberto Pedron</t>
+        </is>
+      </c>
+      <c r="E46" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F46" s="32" t="n"/>
+      <c r="G46" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H46" s="32" t="n"/>
@@ -15098,14 +15184,14 @@
       <c r="K46" s="32" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A47" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B47" s="32" t="inlineStr">
         <is>
-          <t>Mundo Novo</t>
+          <t>Missal</t>
         </is>
       </c>
       <c r="C47" s="32" t="n">
@@ -15113,18 +15199,22 @@
       </c>
       <c r="D47" s="32" t="inlineStr">
         <is>
-          <t>Jaqueline Meireles / Margarete Pusippe</t>
-        </is>
-      </c>
-      <c r="E47" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F47" s="32" t="n"/>
-      <c r="G47" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>Luciane Spies</t>
+        </is>
+      </c>
+      <c r="E47" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F47" s="32" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="G47" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H47" s="32" t="n"/>
@@ -15137,14 +15227,14 @@
       <c r="K47" s="32" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A48" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B48" s="32" t="inlineStr">
         <is>
-          <t>Nova Aurora</t>
+          <t>Mundo Novo</t>
         </is>
       </c>
       <c r="C48" s="32" t="n">
@@ -15152,19 +15242,15 @@
       </c>
       <c r="D48" s="32" t="inlineStr">
         <is>
-          <t>Luiz Fernando Pereira Barbosa</t>
-        </is>
-      </c>
-      <c r="E48" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F48" s="32" t="inlineStr">
-        <is>
-          <t>16/04/2025</t>
-        </is>
-      </c>
+          <t>Jaqueline Meireles / Margarete Pusippe</t>
+        </is>
+      </c>
+      <c r="E48" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F48" s="32" t="n"/>
       <c r="G48" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15180,14 +15266,14 @@
       <c r="K48" s="32" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A49" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B49" s="32" t="inlineStr">
         <is>
-          <t>Nova Santa Rosa</t>
+          <t>Nova Aurora</t>
         </is>
       </c>
       <c r="C49" s="32" t="n">
@@ -15195,7 +15281,7 @@
       </c>
       <c r="D49" s="32" t="inlineStr">
         <is>
-          <t>Carolina Eggers</t>
+          <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
       <c r="E49" s="36" t="inlineStr">
@@ -15205,7 +15291,7 @@
       </c>
       <c r="F49" s="32" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>16/04/2025</t>
         </is>
       </c>
       <c r="G49" s="34" t="inlineStr">
@@ -15230,7 +15316,7 @@
       </c>
       <c r="B50" s="32" t="inlineStr">
         <is>
-          <t>Ouro Verde do Oeste</t>
+          <t>Nova Santa Rosa</t>
         </is>
       </c>
       <c r="C50" s="32" t="n">
@@ -15238,7 +15324,7 @@
       </c>
       <c r="D50" s="32" t="inlineStr">
         <is>
-          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
+          <t>Carolina Eggers</t>
         </is>
       </c>
       <c r="E50" s="36" t="inlineStr">
@@ -15248,7 +15334,7 @@
       </c>
       <c r="F50" s="32" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="G50" s="34" t="inlineStr">
@@ -15273,7 +15359,7 @@
       </c>
       <c r="B51" s="32" t="inlineStr">
         <is>
-          <t>Palotina</t>
+          <t>Ouro Verde do Oeste</t>
         </is>
       </c>
       <c r="C51" s="32" t="n">
@@ -15281,15 +15367,19 @@
       </c>
       <c r="D51" s="32" t="inlineStr">
         <is>
-          <t>Dorival Manoel Canhete</t>
-        </is>
-      </c>
-      <c r="E51" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F51" s="32" t="n"/>
+          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
+        </is>
+      </c>
+      <c r="E51" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F51" s="32" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
       <c r="G51" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15305,14 +15395,14 @@
       <c r="K51" s="32" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A52" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B52" s="32" t="inlineStr">
         <is>
-          <t>Pato Bragado</t>
+          <t>Palotina</t>
         </is>
       </c>
       <c r="C52" s="32" t="n">
@@ -15320,22 +15410,18 @@
       </c>
       <c r="D52" s="32" t="inlineStr">
         <is>
-          <t>Jaqueline Vanelli</t>
-        </is>
-      </c>
-      <c r="E52" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F52" s="32" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
-      </c>
-      <c r="G52" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Dorival Manoel Canhete</t>
+        </is>
+      </c>
+      <c r="E52" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F52" s="32" t="n"/>
+      <c r="G52" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H52" s="32" t="n"/>
@@ -15348,14 +15434,14 @@
       <c r="K52" s="32" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A53" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B53" s="32" t="inlineStr">
         <is>
-          <t>Quatro Pontes</t>
+          <t>Pato Bragado</t>
         </is>
       </c>
       <c r="C53" s="32" t="n">
@@ -15363,7 +15449,7 @@
       </c>
       <c r="D53" s="32" t="inlineStr">
         <is>
-          <t>Fernanda Jung</t>
+          <t>Jaqueline Vanelli</t>
         </is>
       </c>
       <c r="E53" s="36" t="inlineStr">
@@ -15373,12 +15459,12 @@
       </c>
       <c r="F53" s="32" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
-        </is>
-      </c>
-      <c r="G53" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="G53" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H53" s="32" t="n"/>
@@ -15391,14 +15477,14 @@
       <c r="K53" s="32" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A54" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B54" s="32" t="inlineStr">
         <is>
-          <t>Ramilândia</t>
+          <t>Quatro Pontes</t>
         </is>
       </c>
       <c r="C54" s="32" t="n">
@@ -15406,15 +15492,19 @@
       </c>
       <c r="D54" s="32" t="inlineStr">
         <is>
-          <t>Ana Paula Romagnoli</t>
-        </is>
-      </c>
-      <c r="E54" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F54" s="32" t="n"/>
+          <t>Fernanda Jung</t>
+        </is>
+      </c>
+      <c r="E54" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F54" s="32" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
       <c r="G54" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15437,7 +15527,7 @@
       </c>
       <c r="B55" s="32" t="inlineStr">
         <is>
-          <t>Santa Helena</t>
+          <t>Ramilândia</t>
         </is>
       </c>
       <c r="C55" s="32" t="n">
@@ -15445,19 +15535,15 @@
       </c>
       <c r="D55" s="32" t="inlineStr">
         <is>
-          <t>Isabel Caroline Fruhling</t>
-        </is>
-      </c>
-      <c r="E55" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F55" s="32" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
+          <t>Ana Paula Romagnoli</t>
+        </is>
+      </c>
+      <c r="E55" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F55" s="32" t="n"/>
       <c r="G55" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15473,14 +15559,14 @@
       <c r="K55" s="32" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A56" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B56" s="32" t="inlineStr">
         <is>
-          <t>Santa Lúcia</t>
+          <t>Santa Helena</t>
         </is>
       </c>
       <c r="C56" s="32" t="n">
@@ -15488,15 +15574,19 @@
       </c>
       <c r="D56" s="32" t="inlineStr">
         <is>
-          <t>Marina Ancelmo da Silva</t>
-        </is>
-      </c>
-      <c r="E56" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F56" s="32" t="n"/>
+          <t>Isabel Caroline Fruhling</t>
+        </is>
+      </c>
+      <c r="E56" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F56" s="32" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
       <c r="G56" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15512,14 +15602,14 @@
       <c r="K56" s="32" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A57" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B57" s="32" t="inlineStr">
         <is>
-          <t>Santa Tereza do Oeste</t>
+          <t>Santa Lúcia</t>
         </is>
       </c>
       <c r="C57" s="32" t="n">
@@ -15527,22 +15617,18 @@
       </c>
       <c r="D57" s="32" t="inlineStr">
         <is>
-          <t>Ana Carolina Peterle Ribeiro</t>
-        </is>
-      </c>
-      <c r="E57" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F57" s="32" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G57" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Marina Ancelmo da Silva</t>
+        </is>
+      </c>
+      <c r="E57" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F57" s="32" t="n"/>
+      <c r="G57" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H57" s="32" t="n"/>
@@ -15555,14 +15641,14 @@
       <c r="K57" s="32" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A58" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B58" s="32" t="inlineStr">
         <is>
-          <t>Santa Terezinha de Itaipu</t>
+          <t>Santa Tereza do Oeste</t>
         </is>
       </c>
       <c r="C58" s="32" t="n">
@@ -15570,18 +15656,22 @@
       </c>
       <c r="D58" s="32" t="inlineStr">
         <is>
-          <t>Taiane Amélia Mondardo</t>
-        </is>
-      </c>
-      <c r="E58" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F58" s="32" t="n"/>
-      <c r="G58" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>Ana Carolina Peterle Ribeiro</t>
+        </is>
+      </c>
+      <c r="E58" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="32" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G58" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H58" s="32" t="n"/>
@@ -15594,14 +15684,14 @@
       <c r="K58" s="32" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A59" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B59" s="32" t="inlineStr">
         <is>
-          <t>São Jose das Palmeiras</t>
+          <t>Santa Terezinha de Itaipu</t>
         </is>
       </c>
       <c r="C59" s="32" t="n">
@@ -15609,22 +15699,18 @@
       </c>
       <c r="D59" s="32" t="inlineStr">
         <is>
-          <t>Adnan navarro de freitas kassim</t>
-        </is>
-      </c>
-      <c r="E59" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
-        </is>
-      </c>
-      <c r="F59" s="32" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
-      </c>
-      <c r="G59" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>Taiane Amélia Mondardo</t>
+        </is>
+      </c>
+      <c r="E59" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F59" s="32" t="n"/>
+      <c r="G59" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H59" s="32" t="n"/>
@@ -15637,14 +15723,14 @@
       <c r="K59" s="32" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A60" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B60" s="32" t="inlineStr">
         <is>
-          <t>São Miguel do Iguaçu</t>
+          <t>São Jose das Palmeiras</t>
         </is>
       </c>
       <c r="C60" s="32" t="n">
@@ -15652,7 +15738,7 @@
       </c>
       <c r="D60" s="32" t="inlineStr">
         <is>
-          <t>Andryws Rafael Gois</t>
+          <t>Adnan navarro de freitas kassim</t>
         </is>
       </c>
       <c r="E60" s="36" t="inlineStr">
@@ -15662,12 +15748,12 @@
       </c>
       <c r="F60" s="32" t="inlineStr">
         <is>
-          <t>09/05/2025</t>
-        </is>
-      </c>
-      <c r="G60" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="G60" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H60" s="32" t="n"/>
@@ -15680,14 +15766,14 @@
       <c r="K60" s="32" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A61" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B61" s="32" t="inlineStr">
         <is>
-          <t>São Pedro do Iguaçu</t>
+          <t>São Miguel do Iguaçu</t>
         </is>
       </c>
       <c r="C61" s="32" t="n">
@@ -15695,7 +15781,7 @@
       </c>
       <c r="D61" s="32" t="inlineStr">
         <is>
-          <t>Mayara Ketllyn de Paula Rosetti</t>
+          <t>Andryws Rafael Gois</t>
         </is>
       </c>
       <c r="E61" s="36" t="inlineStr">
@@ -15705,7 +15791,7 @@
       </c>
       <c r="F61" s="32" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>09/05/2025</t>
         </is>
       </c>
       <c r="G61" s="34" t="inlineStr">
@@ -15723,14 +15809,14 @@
       <c r="K61" s="32" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="41" t="inlineStr">
-        <is>
-          <t>Larissa</t>
+      <c r="A62" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B62" s="32" t="inlineStr">
         <is>
-          <t>Serranopolis do Iguaçu</t>
+          <t>São Pedro do Iguaçu</t>
         </is>
       </c>
       <c r="C62" s="32" t="n">
@@ -15738,7 +15824,7 @@
       </c>
       <c r="D62" s="32" t="inlineStr">
         <is>
-          <t>Junior Andre Britzke</t>
+          <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
       <c r="E62" s="36" t="inlineStr">
@@ -15748,12 +15834,12 @@
       </c>
       <c r="F62" s="32" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
-        </is>
-      </c>
-      <c r="G62" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G62" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H62" s="32" t="n"/>
@@ -15766,14 +15852,14 @@
       <c r="K62" s="32" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="31" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
+      <c r="A63" s="41" t="inlineStr">
+        <is>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B63" s="32" t="inlineStr">
         <is>
-          <t>Terra Roxa</t>
+          <t>Serranopolis do Iguaçu</t>
         </is>
       </c>
       <c r="C63" s="32" t="n">
@@ -15781,22 +15867,22 @@
       </c>
       <c r="D63" s="32" t="inlineStr">
         <is>
-          <t>Adriano Pereira Guedes</t>
-        </is>
-      </c>
-      <c r="E63" s="39" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+          <t>Junior Andre Britzke</t>
+        </is>
+      </c>
+      <c r="E63" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F63" s="32" t="inlineStr">
         <is>
-          <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
-        </is>
-      </c>
-      <c r="G63" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G63" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H63" s="32" t="n"/>
@@ -15816,7 +15902,7 @@
       </c>
       <c r="B64" s="32" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Terra Roxa</t>
         </is>
       </c>
       <c r="C64" s="32" t="n">
@@ -15824,17 +15910,17 @@
       </c>
       <c r="D64" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
-        </is>
-      </c>
-      <c r="E64" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+          <t>Adriano Pereira Guedes</t>
+        </is>
+      </c>
+      <c r="E64" s="39" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F64" s="32" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
         </is>
       </c>
       <c r="G64" s="34" t="inlineStr">
@@ -15852,14 +15938,14 @@
       <c r="K64" s="32" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="35" t="inlineStr">
-        <is>
-          <t>Bianca</t>
+      <c r="A65" s="31" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B65" s="32" t="inlineStr">
         <is>
-          <t>Tres Barras do Parana</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="C65" s="32" t="n">
@@ -15867,7 +15953,7 @@
       </c>
       <c r="D65" s="32" t="inlineStr">
         <is>
-          <t>Alice Cristiane Zancheta</t>
+          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
         </is>
       </c>
       <c r="E65" s="36" t="inlineStr">
@@ -15877,12 +15963,12 @@
       </c>
       <c r="F65" s="32" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G65" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="G65" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H65" s="32" t="n"/>
@@ -15895,14 +15981,14 @@
       <c r="K65" s="32" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="38" t="inlineStr">
-        <is>
-          <t>Valquiria</t>
+      <c r="A66" s="35" t="inlineStr">
+        <is>
+          <t>Bianca</t>
         </is>
       </c>
       <c r="B66" s="32" t="inlineStr">
         <is>
-          <t>Tupassi</t>
+          <t>Tres Barras do Parana</t>
         </is>
       </c>
       <c r="C66" s="32" t="n">
@@ -15910,7 +15996,7 @@
       </c>
       <c r="D66" s="32" t="inlineStr">
         <is>
-          <t>Fernanda kaezer de Godoy</t>
+          <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
       <c r="E66" s="36" t="inlineStr">
@@ -15920,12 +16006,12 @@
       </c>
       <c r="F66" s="32" t="inlineStr">
         <is>
-          <t>26/02/2025</t>
-        </is>
-      </c>
-      <c r="G66" s="34" t="inlineStr">
-        <is>
-          <t>Não</t>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G66" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H66" s="32" t="n"/>
@@ -15945,7 +16031,7 @@
       </c>
       <c r="B67" s="32" t="inlineStr">
         <is>
-          <t>Ubirata</t>
+          <t>Tupassi</t>
         </is>
       </c>
       <c r="C67" s="32" t="n">
@@ -15953,7 +16039,7 @@
       </c>
       <c r="D67" s="32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ademir Papini Júnior </t>
+          <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
       <c r="E67" s="36" t="inlineStr">
@@ -15963,7 +16049,7 @@
       </c>
       <c r="F67" s="32" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>26/02/2025</t>
         </is>
       </c>
       <c r="G67" s="34" t="inlineStr">
@@ -15981,14 +16067,14 @@
       <c r="K67" s="32" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="40" t="inlineStr">
-        <is>
-          <t>Luana</t>
+      <c r="A68" s="38" t="inlineStr">
+        <is>
+          <t>Valquiria</t>
         </is>
       </c>
       <c r="B68" s="32" t="inlineStr">
         <is>
-          <t>Vera Cruz do Oeste</t>
+          <t>Ubirata</t>
         </is>
       </c>
       <c r="C68" s="32" t="n">
@@ -15996,15 +16082,19 @@
       </c>
       <c r="D68" s="32" t="inlineStr">
         <is>
-          <t>Heloísa Maria Beloni Insenha</t>
-        </is>
-      </c>
-      <c r="E68" s="33" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F68" s="32" t="n"/>
+          <t xml:space="preserve">Ademir Papini Júnior </t>
+        </is>
+      </c>
+      <c r="E68" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F68" s="32" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G68" s="34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16019,9 +16109,48 @@
       </c>
       <c r="K68" s="32" t="n"/>
     </row>
+    <row r="69">
+      <c r="A69" s="40" t="inlineStr">
+        <is>
+          <t>Luana</t>
+        </is>
+      </c>
+      <c r="B69" s="32" t="inlineStr">
+        <is>
+          <t>Vera Cruz do Oeste</t>
+        </is>
+      </c>
+      <c r="C69" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="32" t="inlineStr">
+        <is>
+          <t>Heloísa Maria Beloni Insenha</t>
+        </is>
+      </c>
+      <c r="E69" s="33" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="F69" s="32" t="n"/>
+      <c r="G69" s="34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H69" s="32" t="n"/>
+      <c r="I69" s="32" t="n"/>
+      <c r="J69" s="32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K69" s="32" t="n"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <conditionalFormatting sqref="G2:G68">
+  <conditionalFormatting sqref="G2:G69">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -16029,7 +16158,7 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J68">
+  <conditionalFormatting sqref="J2:J69">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Sim"</formula>
     </cfRule>
@@ -16040,7 +16169,7 @@
       <formula>"Em Análise"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E68">
+  <conditionalFormatting sqref="E2:E69">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
@@ -16058,13 +16187,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 G69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68 J69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -10210,7 +10210,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="51" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="75" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -10291,10 +10291,9 @@
       <c r="C2" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="inlineStr">
-        <is>
-          <t>Paula Tatiana Santana Vechi</t>
-        </is>
+      <c r="D2" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="36" t="inlineStr">
         <is>
@@ -10334,10 +10333,9 @@
       <c r="C3" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="inlineStr">
-        <is>
-          <t>Willian de Oliveira Lino</t>
-        </is>
+      <c r="D3" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="36" t="inlineStr">
         <is>
@@ -10381,10 +10379,9 @@
       <c r="C4" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="inlineStr">
-        <is>
-          <t>Gisele Cássia Tamparowsky de Oliveira</t>
-        </is>
+      <c r="D4" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="33" t="inlineStr">
         <is>
@@ -10420,10 +10417,9 @@
       <c r="C5" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="inlineStr">
-        <is>
-          <t>Marcos Gabriel Franciosi Borges</t>
-        </is>
+      <c r="D5" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="36" t="inlineStr">
         <is>
@@ -10467,10 +10463,9 @@
       <c r="C6" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="inlineStr">
-        <is>
-          <t>Geni Rodrigues Morais / Chayla Bianca Gazoli</t>
-        </is>
+      <c r="D6" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="36" t="inlineStr">
         <is>
@@ -10510,10 +10505,9 @@
       <c r="C7" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="32" t="inlineStr">
-        <is>
-          <t>Solange Maria Masqueti</t>
-        </is>
+      <c r="D7" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="36" t="inlineStr">
         <is>
@@ -10553,10 +10547,9 @@
       <c r="C8" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="32" t="inlineStr">
-        <is>
-          <t>Cristiane Petry Vieira</t>
-        </is>
+      <c r="D8" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="36" t="inlineStr">
         <is>
@@ -10596,10 +10589,9 @@
       <c r="C9" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="32" t="inlineStr">
-        <is>
-          <t>Diego Hemerich</t>
-        </is>
+      <c r="D9" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="33" t="inlineStr">
         <is>
@@ -10635,10 +10627,9 @@
       <c r="C10" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="32" t="inlineStr">
-        <is>
-          <t>Tatiane Girardi</t>
-        </is>
+      <c r="D10" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="36" t="inlineStr">
         <is>
@@ -10678,10 +10669,9 @@
       <c r="C11" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="32" t="inlineStr">
-        <is>
-          <t>Edson Batista de Castro</t>
-        </is>
+      <c r="D11" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="36" t="inlineStr">
         <is>
@@ -10721,10 +10711,9 @@
       <c r="C12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="32" t="inlineStr">
-        <is>
-          <t>Gabriela Fernanda Sandri</t>
-        </is>
+      <c r="D12" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="36" t="inlineStr">
         <is>
@@ -10764,10 +10753,9 @@
       <c r="C13" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="32" t="inlineStr">
-        <is>
-          <t>Eduarda Rohden Donasolo</t>
-        </is>
+      <c r="D13" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="33" t="inlineStr">
         <is>
@@ -10803,10 +10791,9 @@
       <c r="C14" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="32" t="inlineStr">
-        <is>
-          <t>Mauricio Pinto de Lima</t>
-        </is>
+      <c r="D14" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="39" t="inlineStr">
         <is>
@@ -10846,7 +10833,10 @@
       <c r="C15" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="32" t="n"/>
+      <c r="D15" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E15" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
@@ -10885,7 +10875,10 @@
       <c r="C16" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="32" t="n"/>
+      <c r="D16" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E16" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
@@ -10924,10 +10917,9 @@
       <c r="C17" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="32" t="inlineStr">
-        <is>
-          <t>Cristina Harumi Enokida</t>
-        </is>
+      <c r="D17" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="36" t="inlineStr">
         <is>
@@ -10967,10 +10959,9 @@
       <c r="C18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="32" t="inlineStr">
-        <is>
-          <t>Douglas de Mattia / Alvaro Rodrigues</t>
-        </is>
+      <c r="D18" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="33" t="inlineStr">
         <is>
@@ -11006,10 +10997,9 @@
       <c r="C19" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="32" t="inlineStr">
-        <is>
-          <t>Vanderson Pasetti</t>
-        </is>
+      <c r="D19" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E19" s="33" t="inlineStr">
         <is>
@@ -11045,10 +11035,9 @@
       <c r="C20" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="32" t="inlineStr">
-        <is>
-          <t>Bruna Schneider Guimarães</t>
-        </is>
+      <c r="D20" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="36" t="inlineStr">
         <is>
@@ -11088,10 +11077,9 @@
       <c r="C21" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="32" t="inlineStr">
-        <is>
-          <t>Keilla Avezedo</t>
-        </is>
+      <c r="D21" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="36" t="inlineStr">
         <is>
@@ -11131,10 +11119,9 @@
       <c r="C22" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="32" t="inlineStr">
-        <is>
-          <t>Carmen Maria Stein Weiler</t>
-        </is>
+      <c r="D22" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="33" t="inlineStr">
         <is>
@@ -11170,10 +11157,9 @@
       <c r="C23" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="32" t="inlineStr">
-        <is>
-          <t>Thiago Varaschim Cenci</t>
-        </is>
+      <c r="D23" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="36" t="inlineStr">
         <is>
@@ -11213,10 +11199,9 @@
       <c r="C24" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="32" t="inlineStr">
-        <is>
-          <t>Andrea Carla Winkelmann</t>
-        </is>
+      <c r="D24" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="33" t="inlineStr">
         <is>
@@ -11252,10 +11237,9 @@
       <c r="C25" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="D25" s="32" t="inlineStr">
-        <is>
-          <t>Lorizete de Andrade</t>
-        </is>
+      <c r="D25" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="36" t="inlineStr">
         <is>
@@ -11295,10 +11279,9 @@
       <c r="C26" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="D26" s="32" t="inlineStr">
-        <is>
-          <t>Andressa Maia</t>
-        </is>
+      <c r="D26" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="36" t="inlineStr">
         <is>
@@ -11338,10 +11321,9 @@
       <c r="C27" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="32" t="inlineStr">
-        <is>
-          <t>Lucas Correia de Souza</t>
-        </is>
+      <c r="D27" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="36" t="inlineStr">
         <is>
@@ -11381,10 +11363,9 @@
       <c r="C28" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="D28" s="32" t="inlineStr">
-        <is>
-          <t>Jose Francisco Mariano de Faria Filho</t>
-        </is>
+      <c r="D28" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="36" t="inlineStr">
         <is>
@@ -11428,10 +11409,9 @@
       <c r="C29" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="D29" s="32" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Mariano de Faria</t>
-        </is>
+      <c r="D29" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="36" t="inlineStr">
         <is>
@@ -11475,10 +11455,9 @@
       <c r="C30" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="D30" s="32" t="inlineStr">
-        <is>
-          <t>Renata Aparecida de Souza</t>
-        </is>
+      <c r="D30" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="36" t="inlineStr">
         <is>
@@ -11522,10 +11501,9 @@
       <c r="C31" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="D31" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mariane Plaza da Silva </t>
-        </is>
+      <c r="D31" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="33" t="inlineStr">
         <is>
@@ -11561,10 +11539,9 @@
       <c r="C32" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="32" t="inlineStr">
-        <is>
-          <t>Paulo Rogerio Hiroshi Fujii</t>
-        </is>
+      <c r="D32" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="33" t="inlineStr">
         <is>
@@ -11600,10 +11577,9 @@
       <c r="C33" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="32" t="inlineStr">
-        <is>
-          <t>Marlene R. Oliveira Dallacosta</t>
-        </is>
+      <c r="D33" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="33" t="inlineStr">
         <is>
@@ -11639,10 +11615,9 @@
       <c r="C34" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="32" t="inlineStr">
-        <is>
-          <t>Vitolor dos Santos Almeida</t>
-        </is>
+      <c r="D34" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="36" t="inlineStr">
         <is>
@@ -11682,10 +11657,9 @@
       <c r="C35" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="32" t="inlineStr">
-        <is>
-          <t>Kelly Jackeline Silva do Valle</t>
-        </is>
+      <c r="D35" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="36" t="inlineStr">
         <is>
@@ -11725,10 +11699,9 @@
       <c r="C36" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="32" t="inlineStr">
-        <is>
-          <t>Felipe Carvalho Zydek</t>
-        </is>
+      <c r="D36" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="36" t="inlineStr">
         <is>
@@ -11768,10 +11741,9 @@
       <c r="C37" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="32" t="inlineStr">
-        <is>
-          <t>Eliane Borin</t>
-        </is>
+      <c r="D37" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="36" t="inlineStr">
         <is>
@@ -11811,10 +11783,9 @@
       <c r="C38" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="32" t="inlineStr">
-        <is>
-          <t>Tatiana schrard</t>
-        </is>
+      <c r="D38" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="36" t="inlineStr">
         <is>
@@ -11854,10 +11825,9 @@
       <c r="C39" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="32" t="inlineStr">
-        <is>
-          <t>César Piva Glinglani</t>
-        </is>
+      <c r="D39" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="33" t="inlineStr">
         <is>
@@ -11893,10 +11863,9 @@
       <c r="C40" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="32" t="inlineStr">
-        <is>
-          <t>Ailton Carlos Fialho</t>
-        </is>
+      <c r="D40" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="33" t="inlineStr">
         <is>
@@ -11932,10 +11901,9 @@
       <c r="C41" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="32" t="inlineStr">
-        <is>
-          <t>Marcos José Chaves</t>
-        </is>
+      <c r="D41" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="36" t="inlineStr">
         <is>
@@ -11975,10 +11943,9 @@
       <c r="C42" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="32" t="inlineStr">
-        <is>
-          <t>Diego Matheus Reinicke</t>
-        </is>
+      <c r="D42" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="36" t="inlineStr">
         <is>
@@ -12018,10 +11985,9 @@
       <c r="C43" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="32" t="inlineStr">
-        <is>
-          <t>Cleiton Manske</t>
-        </is>
+      <c r="D43" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="33" t="inlineStr">
         <is>
@@ -12057,10 +12023,9 @@
       <c r="C44" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="32" t="inlineStr">
-        <is>
-          <t>Alexandro Aparecido de Lima Vieira</t>
-        </is>
+      <c r="D44" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="36" t="inlineStr">
         <is>
@@ -12100,10 +12065,9 @@
       <c r="C45" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="32" t="inlineStr">
-        <is>
-          <t>Natielly Pereira Ochoa</t>
-        </is>
+      <c r="D45" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="36" t="inlineStr">
         <is>
@@ -12147,10 +12111,9 @@
       <c r="C46" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="32" t="inlineStr">
-        <is>
-          <t>Roberto Pedron</t>
-        </is>
+      <c r="D46" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="33" t="inlineStr">
         <is>
@@ -12186,10 +12149,9 @@
       <c r="C47" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="32" t="inlineStr">
-        <is>
-          <t>Luciane Spies</t>
-        </is>
+      <c r="D47" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="36" t="inlineStr">
         <is>
@@ -12229,10 +12191,9 @@
       <c r="C48" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D48" s="32" t="inlineStr">
-        <is>
-          <t>Jaqueline Meireles / Margarete Pusippe</t>
-        </is>
+      <c r="D48" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="33" t="inlineStr">
         <is>
@@ -12268,10 +12229,9 @@
       <c r="C49" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="32" t="inlineStr">
-        <is>
-          <t>Luiz Fernando Pereira Barbosa</t>
-        </is>
+      <c r="D49" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="39" t="inlineStr">
         <is>
@@ -12311,10 +12271,9 @@
       <c r="C50" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="32" t="inlineStr">
-        <is>
-          <t>Carolina Eggers</t>
-        </is>
+      <c r="D50" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="36" t="inlineStr">
         <is>
@@ -12354,10 +12313,9 @@
       <c r="C51" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="32" t="inlineStr">
-        <is>
-          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
-        </is>
+      <c r="D51" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="36" t="inlineStr">
         <is>
@@ -12397,10 +12355,9 @@
       <c r="C52" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="32" t="inlineStr">
-        <is>
-          <t>Dorival Manoel Canhete</t>
-        </is>
+      <c r="D52" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="33" t="inlineStr">
         <is>
@@ -12436,10 +12393,9 @@
       <c r="C53" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="32" t="inlineStr">
-        <is>
-          <t>Jaqueline Vanelli</t>
-        </is>
+      <c r="D53" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="36" t="inlineStr">
         <is>
@@ -12479,10 +12435,9 @@
       <c r="C54" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="32" t="inlineStr">
-        <is>
-          <t>Fernanda Jung</t>
-        </is>
+      <c r="D54" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E54" s="36" t="inlineStr">
         <is>
@@ -12522,10 +12477,9 @@
       <c r="C55" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D55" s="32" t="inlineStr">
-        <is>
-          <t>Ana Paula Romagnoli</t>
-        </is>
+      <c r="D55" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="33" t="inlineStr">
         <is>
@@ -12561,10 +12515,9 @@
       <c r="C56" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D56" s="32" t="inlineStr">
-        <is>
-          <t>Isabel Caroline Fruhling</t>
-        </is>
+      <c r="D56" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="36" t="inlineStr">
         <is>
@@ -12604,10 +12557,9 @@
       <c r="C57" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="32" t="inlineStr">
-        <is>
-          <t>Marina Ancelmo da Silva</t>
-        </is>
+      <c r="D57" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="36" t="inlineStr">
         <is>
@@ -12652,10 +12604,9 @@
       <c r="C58" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="32" t="inlineStr">
-        <is>
-          <t>Ana Carolina Peterle Ribeiro</t>
-        </is>
+      <c r="D58" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="36" t="inlineStr">
         <is>
@@ -12695,10 +12646,9 @@
       <c r="C59" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="32" t="inlineStr">
-        <is>
-          <t>Taiane Amélia Mondardo</t>
-        </is>
+      <c r="D59" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E59" s="33" t="inlineStr">
         <is>
@@ -12734,10 +12684,9 @@
       <c r="C60" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="32" t="inlineStr">
-        <is>
-          <t>Adnan navarro de freitas kassim</t>
-        </is>
+      <c r="D60" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E60" s="36" t="inlineStr">
         <is>
@@ -12781,10 +12730,9 @@
       <c r="C61" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="32" t="inlineStr">
-        <is>
-          <t>Andryws Rafael Gois</t>
-        </is>
+      <c r="D61" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E61" s="36" t="inlineStr">
         <is>
@@ -12832,10 +12780,9 @@
       <c r="C62" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="32" t="inlineStr">
-        <is>
-          <t>Mayara Ketllyn de Paula Rosetti</t>
-        </is>
+      <c r="D62" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E62" s="36" t="inlineStr">
         <is>
@@ -12875,10 +12822,9 @@
       <c r="C63" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="32" t="inlineStr">
-        <is>
-          <t>Junior Andre Britzke</t>
-        </is>
+      <c r="D63" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E63" s="36" t="inlineStr">
         <is>
@@ -12922,10 +12868,9 @@
       <c r="C64" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D64" s="32" t="inlineStr">
-        <is>
-          <t>Adriano Pereira Guedes</t>
-        </is>
+      <c r="D64" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E64" s="39" t="inlineStr">
         <is>
@@ -12965,10 +12910,9 @@
       <c r="C65" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
-        </is>
+      <c r="D65" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E65" s="33" t="inlineStr">
         <is>
@@ -13004,10 +12948,9 @@
       <c r="C66" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="32" t="inlineStr">
-        <is>
-          <t>Alice Cristiane Zancheta</t>
-        </is>
+      <c r="D66" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E66" s="36" t="inlineStr">
         <is>
@@ -13051,10 +12994,9 @@
       <c r="C67" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="32" t="inlineStr">
-        <is>
-          <t>Fernanda kaezer de Godoy</t>
-        </is>
+      <c r="D67" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E67" s="36" t="inlineStr">
         <is>
@@ -13094,10 +13036,9 @@
       <c r="C68" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ademir Papini Júnior </t>
-        </is>
+      <c r="D68" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E68" s="36" t="inlineStr">
         <is>
@@ -13137,10 +13078,9 @@
       <c r="C69" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D69" s="32" t="inlineStr">
-        <is>
-          <t>Heloísa Maria Beloni Insenha</t>
-        </is>
+      <c r="D69" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B69&amp;C69, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B69&amp;C69, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E69" s="33" t="inlineStr">
         <is>
@@ -13233,7 +13173,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="51" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="75" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
@@ -13314,10 +13254,9 @@
       <c r="C2" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="inlineStr">
-        <is>
-          <t>Paula Tatiana Santana Vechi</t>
-        </is>
+      <c r="D2" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E2" s="33" t="inlineStr">
         <is>
@@ -13353,10 +13292,9 @@
       <c r="C3" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="inlineStr">
-        <is>
-          <t>Willian de Oliveira Lino</t>
-        </is>
+      <c r="D3" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E3" s="36" t="inlineStr">
         <is>
@@ -13396,10 +13334,9 @@
       <c r="C4" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="inlineStr">
-        <is>
-          <t>Gisele Cássia Tamparowsky de Oliveira</t>
-        </is>
+      <c r="D4" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E4" s="33" t="inlineStr">
         <is>
@@ -13435,10 +13372,9 @@
       <c r="C5" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="inlineStr">
-        <is>
-          <t>Marcos Gabriel Franciosi Borges</t>
-        </is>
+      <c r="D5" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E5" s="36" t="inlineStr">
         <is>
@@ -13482,10 +13418,9 @@
       <c r="C6" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="inlineStr">
-        <is>
-          <t>Geni Rodrigues Morais / Chayla Bianca Gazoli</t>
-        </is>
+      <c r="D6" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E6" s="36" t="inlineStr">
         <is>
@@ -13525,10 +13460,9 @@
       <c r="C7" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="32" t="inlineStr">
-        <is>
-          <t>Solange Maria Masqueti</t>
-        </is>
+      <c r="D7" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E7" s="36" t="inlineStr">
         <is>
@@ -13568,10 +13502,9 @@
       <c r="C8" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="32" t="inlineStr">
-        <is>
-          <t>Cristiane Petry Vieira</t>
-        </is>
+      <c r="D8" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E8" s="33" t="inlineStr">
         <is>
@@ -13607,10 +13540,9 @@
       <c r="C9" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="32" t="inlineStr">
-        <is>
-          <t>Diego Hemerich</t>
-        </is>
+      <c r="D9" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B9&amp;C9, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E9" s="33" t="inlineStr">
         <is>
@@ -13646,10 +13578,9 @@
       <c r="C10" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="32" t="inlineStr">
-        <is>
-          <t>Tatiane Girardi</t>
-        </is>
+      <c r="D10" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E10" s="39" t="inlineStr">
         <is>
@@ -13689,10 +13620,9 @@
       <c r="C11" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="32" t="inlineStr">
-        <is>
-          <t>Edson Batista de Castro</t>
-        </is>
+      <c r="D11" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E11" s="36" t="inlineStr">
         <is>
@@ -13732,10 +13662,9 @@
       <c r="C12" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="32" t="inlineStr">
-        <is>
-          <t>Gabriela Fernanda Sandri</t>
-        </is>
+      <c r="D12" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E12" s="36" t="inlineStr">
         <is>
@@ -13775,10 +13704,9 @@
       <c r="C13" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="32" t="inlineStr">
-        <is>
-          <t>Eduarda Rohden Donasolo</t>
-        </is>
+      <c r="D13" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E13" s="33" t="inlineStr">
         <is>
@@ -13814,10 +13742,9 @@
       <c r="C14" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="32" t="inlineStr">
-        <is>
-          <t>Mauricio Pinto de Lima</t>
-        </is>
+      <c r="D14" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E14" s="39" t="inlineStr">
         <is>
@@ -13857,7 +13784,10 @@
       <c r="C15" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="32" t="n"/>
+      <c r="D15" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E15" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
@@ -13896,7 +13826,10 @@
       <c r="C16" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="32" t="n"/>
+      <c r="D16" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
+      </c>
       <c r="E16" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
@@ -13935,10 +13868,9 @@
       <c r="C17" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="32" t="inlineStr">
-        <is>
-          <t>Cristina Harumi Enokida</t>
-        </is>
+      <c r="D17" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E17" s="36" t="inlineStr">
         <is>
@@ -13978,10 +13910,9 @@
       <c r="C18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="32" t="inlineStr">
-        <is>
-          <t>Douglas de Mattia / Alvaro Rodrigues</t>
-        </is>
+      <c r="D18" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E18" s="33" t="inlineStr">
         <is>
@@ -14017,10 +13948,9 @@
       <c r="C19" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="32" t="inlineStr">
-        <is>
-          <t>Vanderson Pasetti</t>
-        </is>
+      <c r="D19" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B19&amp;C19, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E19" s="33" t="inlineStr">
         <is>
@@ -14056,10 +13986,9 @@
       <c r="C20" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="32" t="inlineStr">
-        <is>
-          <t>Bruna Schneider Guimarães</t>
-        </is>
+      <c r="D20" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E20" s="36" t="inlineStr">
         <is>
@@ -14099,10 +14028,9 @@
       <c r="C21" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="32" t="inlineStr">
-        <is>
-          <t>Keilla Avezedo</t>
-        </is>
+      <c r="D21" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E21" s="36" t="inlineStr">
         <is>
@@ -14146,10 +14074,9 @@
       <c r="C22" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="32" t="inlineStr">
-        <is>
-          <t>Carmen Maria Stein Weiler</t>
-        </is>
+      <c r="D22" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E22" s="33" t="inlineStr">
         <is>
@@ -14185,10 +14112,9 @@
       <c r="C23" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="32" t="inlineStr">
-        <is>
-          <t>Thiago Varaschim Cenci</t>
-        </is>
+      <c r="D23" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E23" s="36" t="inlineStr">
         <is>
@@ -14228,10 +14154,9 @@
       <c r="C24" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="32" t="inlineStr">
-        <is>
-          <t>Andrea Carla Winkelmann</t>
-        </is>
+      <c r="D24" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E24" s="33" t="inlineStr">
         <is>
@@ -14267,10 +14192,9 @@
       <c r="C25" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="D25" s="32" t="inlineStr">
-        <is>
-          <t>Lorizete de Andrade</t>
-        </is>
+      <c r="D25" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E25" s="36" t="inlineStr">
         <is>
@@ -14310,10 +14234,9 @@
       <c r="C26" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="D26" s="32" t="inlineStr">
-        <is>
-          <t>Andressa Maia</t>
-        </is>
+      <c r="D26" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E26" s="33" t="inlineStr">
         <is>
@@ -14349,10 +14272,9 @@
       <c r="C27" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="32" t="inlineStr">
-        <is>
-          <t>Lucas Correia de Souza</t>
-        </is>
+      <c r="D27" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E27" s="36" t="inlineStr">
         <is>
@@ -14392,10 +14314,9 @@
       <c r="C28" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="D28" s="32" t="inlineStr">
-        <is>
-          <t>Jose Francisco Mariano de Faria Filho</t>
-        </is>
+      <c r="D28" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E28" s="36" t="inlineStr">
         <is>
@@ -14439,10 +14360,9 @@
       <c r="C29" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="D29" s="32" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Mariano de Faria</t>
-        </is>
+      <c r="D29" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E29" s="36" t="inlineStr">
         <is>
@@ -14486,10 +14406,9 @@
       <c r="C30" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="D30" s="32" t="inlineStr">
-        <is>
-          <t>Renata Aparecida de Souza</t>
-        </is>
+      <c r="D30" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E30" s="36" t="inlineStr">
         <is>
@@ -14533,10 +14452,9 @@
       <c r="C31" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="D31" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mariane Plaza da Silva </t>
-        </is>
+      <c r="D31" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E31" s="33" t="inlineStr">
         <is>
@@ -14572,10 +14490,9 @@
       <c r="C32" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="32" t="inlineStr">
-        <is>
-          <t>Paulo Rogerio Hiroshi Fujii</t>
-        </is>
+      <c r="D32" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B32&amp;C32, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E32" s="33" t="inlineStr">
         <is>
@@ -14611,10 +14528,9 @@
       <c r="C33" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="32" t="inlineStr">
-        <is>
-          <t>Marlene R. Oliveira Dallacosta</t>
-        </is>
+      <c r="D33" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B33&amp;C33, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E33" s="33" t="inlineStr">
         <is>
@@ -14650,10 +14566,9 @@
       <c r="C34" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="32" t="inlineStr">
-        <is>
-          <t>Vitolor dos Santos Almeida</t>
-        </is>
+      <c r="D34" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E34" s="36" t="inlineStr">
         <is>
@@ -14693,10 +14608,9 @@
       <c r="C35" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="32" t="inlineStr">
-        <is>
-          <t>Kelly Jackeline Silva do Valle</t>
-        </is>
+      <c r="D35" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E35" s="36" t="inlineStr">
         <is>
@@ -14736,10 +14650,9 @@
       <c r="C36" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="32" t="inlineStr">
-        <is>
-          <t>Felipe Carvalho Zydek</t>
-        </is>
+      <c r="D36" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E36" s="36" t="inlineStr">
         <is>
@@ -14779,10 +14692,9 @@
       <c r="C37" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="32" t="inlineStr">
-        <is>
-          <t>Eliane Borin</t>
-        </is>
+      <c r="D37" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E37" s="36" t="inlineStr">
         <is>
@@ -14822,10 +14734,9 @@
       <c r="C38" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="32" t="inlineStr">
-        <is>
-          <t>Tatiana schrard</t>
-        </is>
+      <c r="D38" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E38" s="36" t="inlineStr">
         <is>
@@ -14865,10 +14776,9 @@
       <c r="C39" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="32" t="inlineStr">
-        <is>
-          <t>César Piva Glinglani</t>
-        </is>
+      <c r="D39" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E39" s="33" t="inlineStr">
         <is>
@@ -14904,10 +14814,9 @@
       <c r="C40" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="32" t="inlineStr">
-        <is>
-          <t>Ailton Carlos Fialho</t>
-        </is>
+      <c r="D40" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B40&amp;C40, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E40" s="33" t="inlineStr">
         <is>
@@ -14943,10 +14852,9 @@
       <c r="C41" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="32" t="inlineStr">
-        <is>
-          <t>Marcos José Chaves</t>
-        </is>
+      <c r="D41" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E41" s="36" t="inlineStr">
         <is>
@@ -14986,10 +14894,9 @@
       <c r="C42" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="32" t="inlineStr">
-        <is>
-          <t>Diego Matheus Reinicke</t>
-        </is>
+      <c r="D42" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E42" s="36" t="inlineStr">
         <is>
@@ -15029,10 +14936,9 @@
       <c r="C43" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="32" t="inlineStr">
-        <is>
-          <t>Cleiton Manske</t>
-        </is>
+      <c r="D43" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B43&amp;C43, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E43" s="33" t="inlineStr">
         <is>
@@ -15068,10 +14974,9 @@
       <c r="C44" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="32" t="inlineStr">
-        <is>
-          <t>Alexandro Aparecido de Lima Vieira</t>
-        </is>
+      <c r="D44" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E44" s="36" t="inlineStr">
         <is>
@@ -15111,10 +15016,9 @@
       <c r="C45" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="32" t="inlineStr">
-        <is>
-          <t>Natielly Pereira Ochoa</t>
-        </is>
+      <c r="D45" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E45" s="36" t="inlineStr">
         <is>
@@ -15158,10 +15062,9 @@
       <c r="C46" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="32" t="inlineStr">
-        <is>
-          <t>Roberto Pedron</t>
-        </is>
+      <c r="D46" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B46&amp;C46, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E46" s="33" t="inlineStr">
         <is>
@@ -15197,10 +15100,9 @@
       <c r="C47" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="32" t="inlineStr">
-        <is>
-          <t>Luciane Spies</t>
-        </is>
+      <c r="D47" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E47" s="36" t="inlineStr">
         <is>
@@ -15240,10 +15142,9 @@
       <c r="C48" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D48" s="32" t="inlineStr">
-        <is>
-          <t>Jaqueline Meireles / Margarete Pusippe</t>
-        </is>
+      <c r="D48" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E48" s="33" t="inlineStr">
         <is>
@@ -15279,10 +15180,9 @@
       <c r="C49" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="32" t="inlineStr">
-        <is>
-          <t>Luiz Fernando Pereira Barbosa</t>
-        </is>
+      <c r="D49" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E49" s="36" t="inlineStr">
         <is>
@@ -15322,10 +15222,9 @@
       <c r="C50" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="32" t="inlineStr">
-        <is>
-          <t>Carolina Eggers</t>
-        </is>
+      <c r="D50" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E50" s="36" t="inlineStr">
         <is>
@@ -15365,10 +15264,9 @@
       <c r="C51" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="32" t="inlineStr">
-        <is>
-          <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
-        </is>
+      <c r="D51" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E51" s="36" t="inlineStr">
         <is>
@@ -15408,10 +15306,9 @@
       <c r="C52" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="32" t="inlineStr">
-        <is>
-          <t>Dorival Manoel Canhete</t>
-        </is>
+      <c r="D52" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E52" s="33" t="inlineStr">
         <is>
@@ -15447,10 +15344,9 @@
       <c r="C53" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="32" t="inlineStr">
-        <is>
-          <t>Jaqueline Vanelli</t>
-        </is>
+      <c r="D53" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E53" s="36" t="inlineStr">
         <is>
@@ -15490,10 +15386,9 @@
       <c r="C54" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="32" t="inlineStr">
-        <is>
-          <t>Fernanda Jung</t>
-        </is>
+      <c r="D54" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E54" s="36" t="inlineStr">
         <is>
@@ -15533,10 +15428,9 @@
       <c r="C55" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D55" s="32" t="inlineStr">
-        <is>
-          <t>Ana Paula Romagnoli</t>
-        </is>
+      <c r="D55" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B55&amp;C55, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E55" s="33" t="inlineStr">
         <is>
@@ -15572,10 +15466,9 @@
       <c r="C56" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D56" s="32" t="inlineStr">
-        <is>
-          <t>Isabel Caroline Fruhling</t>
-        </is>
+      <c r="D56" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E56" s="36" t="inlineStr">
         <is>
@@ -15615,10 +15508,9 @@
       <c r="C57" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="32" t="inlineStr">
-        <is>
-          <t>Marina Ancelmo da Silva</t>
-        </is>
+      <c r="D57" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E57" s="33" t="inlineStr">
         <is>
@@ -15654,10 +15546,9 @@
       <c r="C58" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="32" t="inlineStr">
-        <is>
-          <t>Ana Carolina Peterle Ribeiro</t>
-        </is>
+      <c r="D58" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E58" s="36" t="inlineStr">
         <is>
@@ -15697,10 +15588,9 @@
       <c r="C59" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="32" t="inlineStr">
-        <is>
-          <t>Taiane Amélia Mondardo</t>
-        </is>
+      <c r="D59" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E59" s="33" t="inlineStr">
         <is>
@@ -15736,10 +15626,9 @@
       <c r="C60" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="32" t="inlineStr">
-        <is>
-          <t>Adnan navarro de freitas kassim</t>
-        </is>
+      <c r="D60" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E60" s="36" t="inlineStr">
         <is>
@@ -15779,10 +15668,9 @@
       <c r="C61" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="32" t="inlineStr">
-        <is>
-          <t>Andryws Rafael Gois</t>
-        </is>
+      <c r="D61" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E61" s="36" t="inlineStr">
         <is>
@@ -15822,10 +15710,9 @@
       <c r="C62" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="32" t="inlineStr">
-        <is>
-          <t>Mayara Ketllyn de Paula Rosetti</t>
-        </is>
+      <c r="D62" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E62" s="36" t="inlineStr">
         <is>
@@ -15865,10 +15752,9 @@
       <c r="C63" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="32" t="inlineStr">
-        <is>
-          <t>Junior Andre Britzke</t>
-        </is>
+      <c r="D63" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E63" s="36" t="inlineStr">
         <is>
@@ -15908,10 +15794,9 @@
       <c r="C64" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D64" s="32" t="inlineStr">
-        <is>
-          <t>Adriano Pereira Guedes</t>
-        </is>
+      <c r="D64" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E64" s="39" t="inlineStr">
         <is>
@@ -15951,10 +15836,9 @@
       <c r="C65" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
-        </is>
+      <c r="D65" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E65" s="36" t="inlineStr">
         <is>
@@ -15994,10 +15878,9 @@
       <c r="C66" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="32" t="inlineStr">
-        <is>
-          <t>Alice Cristiane Zancheta</t>
-        </is>
+      <c r="D66" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E66" s="36" t="inlineStr">
         <is>
@@ -16037,10 +15920,9 @@
       <c r="C67" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="32" t="inlineStr">
-        <is>
-          <t>Fernanda kaezer de Godoy</t>
-        </is>
+      <c r="D67" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E67" s="36" t="inlineStr">
         <is>
@@ -16080,10 +15962,9 @@
       <c r="C68" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ademir Papini Júnior </t>
-        </is>
+      <c r="D68" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E68" s="36" t="inlineStr">
         <is>
@@ -16123,10 +16004,9 @@
       <c r="C69" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D69" s="32" t="inlineStr">
-        <is>
-          <t>Heloísa Maria Beloni Insenha</t>
-        </is>
+      <c r="D69" s="32">
+        <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B69&amp;C69, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B69&amp;C69, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
+        <v/>
       </c>
       <c r="E69" s="33" t="inlineStr">
         <is>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -7956,7 +7956,11 @@
       <c r="C16" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="35" t="n"/>
+      <c r="D16" s="35" t="inlineStr">
+        <is>
+          <t>Marcelo Merlini</t>
+        </is>
+      </c>
       <c r="E16" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
@@ -9639,7 +9643,7 @@
       </c>
       <c r="D56" s="35" t="inlineStr">
         <is>
-          <t>Isabel Caroline Fruhling</t>
+          <t>Alexandro Schaparini</t>
         </is>
       </c>
       <c r="E56" s="36" t="inlineStr">
@@ -9807,7 +9811,7 @@
       </c>
       <c r="D60" s="35" t="inlineStr">
         <is>
-          <t>Adnan navarro de freitas kassim</t>
+          <t>Regiane Lucia Pereira</t>
         </is>
       </c>
       <c r="E60" s="36" t="inlineStr">

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -8919,12 +8919,16 @@
           <t>César Piva Glinglani</t>
         </is>
       </c>
-      <c r="E39" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="35" t="n"/>
+      <c r="E39" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="35" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
       <c r="G39" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9771,12 +9775,16 @@
           <t>Taiane Amélia Mondardo</t>
         </is>
       </c>
-      <c r="E59" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F59" s="35" t="n"/>
+      <c r="E59" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F59" s="35" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
       <c r="G59" s="37" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11309,12 +11317,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="35" t="n"/>
+      <c r="E24" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="35" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
       <c r="G24" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11611,12 +11623,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F31" s="35" t="n"/>
+      <c r="E31" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="35" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
       <c r="G31" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14910,12 +14926,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="35" t="n"/>
+      <c r="E39" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="35" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
       <c r="G39" s="40" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -35,45 +35,45 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -101,74 +101,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF3172C4"/>
+        <bgColor rgb="FF31859C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF7C9"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA3DDFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF93CDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF91F0D3"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFA3DDFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBC99F"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF1E0C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD2DE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF7C9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FFA9C5E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFA500"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor rgb="FFDCE6F2"/>
+        <bgColor rgb="FFF1E0C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF93CDDD"/>
+        <bgColor rgb="FFA9C5E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -221,8 +221,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -233,8 +233,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,127 +247,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="thin"/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color rgb="FF95B3D7"/>
       </bottom>
     </border>
     <border>
@@ -506,10 +454,10 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -525,41 +473,41 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor rgb="FF953735"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor rgb="FF31859C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.499984740745262"/>
+        <patternFill>
+          <bgColor rgb="FF7F7F7F"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6"/>
+        <patternFill>
+          <bgColor rgb="FF9BBB59"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1010,13 +958,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="2"/>
-    <col width="12.28515625" customWidth="1" min="3" max="3"/>
-    <col width="15.140625" customWidth="1" min="4" max="4"/>
+    <col width="12.85" customWidth="1" min="2" max="2"/>
+    <col width="12.28" customWidth="1" min="3" max="3"/>
+    <col width="15.14" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15.140625" customWidth="1" min="6" max="6"/>
-    <col width="11.85546875" customWidth="1" min="7" max="7"/>
-    <col width="14.85546875" customWidth="1" min="8" max="8"/>
+    <col width="15.14" customWidth="1" min="6" max="6"/>
+    <col width="11.85" customWidth="1" min="7" max="7"/>
+    <col width="14.85" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -1326,14 +1274,14 @@
         </is>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="12" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
       <c r="B17" s="13">
-        <f t="array" ref="B17">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B17:B17">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C17" s="6">
@@ -1341,7 +1289,7 @@
         <v/>
       </c>
       <c r="D17" s="13">
-        <f t="array" ref="D17">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D17:D17">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E17" s="6">
@@ -1349,7 +1297,7 @@
         <v/>
       </c>
       <c r="F17" s="13">
-        <f t="array" ref="F17">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F17:F17">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G17" s="6">
@@ -1357,14 +1305,14 @@
         <v/>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="14" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
       </c>
       <c r="B18" s="13">
-        <f t="array" ref="B18">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B18:B18">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C18" s="6">
@@ -1372,7 +1320,7 @@
         <v/>
       </c>
       <c r="D18" s="13">
-        <f t="array" ref="D18">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D18:D18">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E18" s="6">
@@ -1380,7 +1328,7 @@
         <v/>
       </c>
       <c r="F18" s="13">
-        <f t="array" ref="F18">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F18:F18">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G18" s="6">
@@ -1388,14 +1336,14 @@
         <v/>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="15" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
       </c>
       <c r="B19" s="13">
-        <f t="array" ref="B19">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B19:B19">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C19" s="6">
@@ -1403,7 +1351,7 @@
         <v/>
       </c>
       <c r="D19" s="13">
-        <f t="array" ref="D19">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D19:D19">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E19" s="6">
@@ -1411,7 +1359,7 @@
         <v/>
       </c>
       <c r="F19" s="13">
-        <f t="array" ref="F19">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F19:F19">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G19" s="6">
@@ -1419,14 +1367,14 @@
         <v/>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="16" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
       </c>
       <c r="B20" s="13">
-        <f t="array" ref="B20">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B20:B20">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C20" s="6">
@@ -1434,7 +1382,7 @@
         <v/>
       </c>
       <c r="D20" s="13">
-        <f t="array" ref="D20">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D20:D20">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E20" s="6">
@@ -1442,7 +1390,7 @@
         <v/>
       </c>
       <c r="F20" s="13">
-        <f t="array" ref="F20">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F20:F20">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G20" s="6">
@@ -1450,14 +1398,14 @@
         <v/>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="17" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
       </c>
       <c r="B21" s="13">
-        <f t="array" ref="B21">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B21:B21">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C21" s="6">
@@ -1465,7 +1413,7 @@
         <v/>
       </c>
       <c r="D21" s="13">
-        <f t="array" ref="D21">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D21:D21">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E21" s="6">
@@ -1473,7 +1421,7 @@
         <v/>
       </c>
       <c r="F21" s="13">
-        <f t="array" ref="F21">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F21:F21">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G21" s="6">
@@ -1481,7 +1429,7 @@
         <v/>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1537,16 +1485,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31.140625" customWidth="1" min="2" max="2"/>
-    <col width="8.5703125" customWidth="1" min="3" max="3"/>
-    <col width="24.28515625" customWidth="1" min="4" max="4"/>
-    <col width="26.140625" customWidth="1" min="5" max="5"/>
-    <col width="27.7109375" customWidth="1" min="6" max="6"/>
-    <col width="31.140625" customWidth="1" min="9" max="9"/>
-    <col width="8.5703125" customWidth="1" min="10" max="10"/>
-    <col width="24.28515625" customWidth="1" min="11" max="11"/>
-    <col width="28.85546875" customWidth="1" min="12" max="12"/>
-    <col width="29.140625" customWidth="1" min="13" max="13"/>
+    <col width="31.14" customWidth="1" min="2" max="2"/>
+    <col width="24.28" customWidth="1" min="4" max="4"/>
+    <col width="26.15" customWidth="1" min="5" max="5"/>
+    <col width="27.72" customWidth="1" min="6" max="6"/>
+    <col width="31.14" customWidth="1" min="9" max="9"/>
+    <col width="24.28" customWidth="1" min="11" max="11"/>
+    <col width="28.86" customWidth="1" min="12" max="12"/>
+    <col width="29.14" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1626,67 +1572,67 @@
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <f t="array" ref="D2">IF(
+        <f t="array" ref="D2:D2">IF(
     VLOOKUP(
         $A2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E2" s="25">
-        <f t="array" ref="E2">IF(
+        <f t="array" ref="E2:E2">IF(
     VLOOKUP(
         $A2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F2" s="25">
-        <f t="array" ref="F2">IF(
+        <f t="array" ref="F2:F2">IF(
     VLOOKUP(
         $A2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -1705,73 +1651,73 @@
         <v>2</v>
       </c>
       <c r="K2" s="25">
-        <f t="array" ref="K2">IF(
+        <f t="array" ref="K2:K2">IF(
     VLOOKUP(
         $H2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L2" s="25">
-        <f t="array" ref="L2">IF(
+        <f t="array" ref="L2:L2">IF(
     VLOOKUP(
         $H2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M2" s="25">
-        <f t="array" ref="M2">IF(
+        <f t="array" ref="M2:M2">IF(
     VLOOKUP(
         $H2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H2,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -1786,67 +1732,67 @@
         <v>1</v>
       </c>
       <c r="D3" s="25">
-        <f t="array" ref="D3">IF(
+        <f t="array" ref="D3:D3">IF(
     VLOOKUP(
         $A3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E3" s="25">
-        <f t="array" ref="E3">IF(
+        <f t="array" ref="E3:E3">IF(
     VLOOKUP(
         $A3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F3" s="25">
-        <f t="array" ref="F3">IF(
+        <f t="array" ref="F3:F3">IF(
     VLOOKUP(
         $A3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -1865,73 +1811,73 @@
         <v>3</v>
       </c>
       <c r="K3" s="25">
-        <f t="array" ref="K3">IF(
+        <f t="array" ref="K3:K3">IF(
     VLOOKUP(
         $H3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L3" s="25">
-        <f t="array" ref="L3">IF(
+        <f t="array" ref="L3:L3">IF(
     VLOOKUP(
         $H3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M3" s="25">
-        <f t="array" ref="M3">IF(
+        <f t="array" ref="M3:M3">IF(
     VLOOKUP(
         $H3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H3,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -1946,67 +1892,67 @@
         <v>1</v>
       </c>
       <c r="D4" s="25">
-        <f t="array" ref="D4">IF(
+        <f t="array" ref="D4:D4">IF(
     VLOOKUP(
         $A4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E4" s="25">
-        <f t="array" ref="E4">IF(
+        <f t="array" ref="E4:E4">IF(
     VLOOKUP(
         $A4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F4" s="25">
-        <f t="array" ref="F4">IF(
+        <f t="array" ref="F4:F4">IF(
     VLOOKUP(
         $A4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -2025,73 +1971,73 @@
         <v>4</v>
       </c>
       <c r="K4" s="25">
-        <f t="array" ref="K4">IF(
+        <f t="array" ref="K4:K4">IF(
     VLOOKUP(
         $H4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L4" s="25">
-        <f t="array" ref="L4">IF(
+        <f t="array" ref="L4:L4">IF(
     VLOOKUP(
         $H4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M4" s="25">
-        <f t="array" ref="M4">IF(
+        <f t="array" ref="M4:M4">IF(
     VLOOKUP(
         $H4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H4,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2106,67 +2052,67 @@
         <v>1</v>
       </c>
       <c r="D5" s="25">
-        <f t="array" ref="D5">IF(
+        <f t="array" ref="D5:D5">IF(
     VLOOKUP(
         $A5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E5" s="25">
-        <f t="array" ref="E5">IF(
+        <f t="array" ref="E5:E5">IF(
     VLOOKUP(
         $A5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F5" s="25">
-        <f t="array" ref="F5">IF(
+        <f t="array" ref="F5:F5">IF(
     VLOOKUP(
         $A5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -2185,73 +2131,73 @@
         <v>5</v>
       </c>
       <c r="K5" s="25">
-        <f t="array" ref="K5">IF(
+        <f t="array" ref="K5:K5">IF(
     VLOOKUP(
         $H5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L5" s="25">
-        <f t="array" ref="L5">IF(
+        <f t="array" ref="L5:L5">IF(
     VLOOKUP(
         $H5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M5" s="25">
-        <f t="array" ref="M5">IF(
+        <f t="array" ref="M5:M5">IF(
     VLOOKUP(
         $H5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H5,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2266,67 +2212,67 @@
         <v>1</v>
       </c>
       <c r="D6" s="25">
-        <f t="array" ref="D6">IF(
+        <f t="array" ref="D6:D6">IF(
     VLOOKUP(
         $A6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E6" s="25">
-        <f t="array" ref="E6">IF(
+        <f t="array" ref="E6:E6">IF(
     VLOOKUP(
         $A6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F6" s="25">
-        <f t="array" ref="F6">IF(
+        <f t="array" ref="F6:F6">IF(
     VLOOKUP(
         $A6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -2345,73 +2291,73 @@
         <v>6</v>
       </c>
       <c r="K6" s="25">
-        <f t="array" ref="K6">IF(
+        <f t="array" ref="K6:K6">IF(
     VLOOKUP(
         $H6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L6" s="25">
-        <f t="array" ref="L6">IF(
+        <f t="array" ref="L6:L6">IF(
     VLOOKUP(
         $H6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M6" s="25">
-        <f t="array" ref="M6">IF(
+        <f t="array" ref="M6:M6">IF(
     VLOOKUP(
         $H6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H6,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2426,67 +2372,67 @@
         <v>1</v>
       </c>
       <c r="D7" s="25">
-        <f t="array" ref="D7">IF(
+        <f t="array" ref="D7:D7">IF(
     VLOOKUP(
         $A7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E7" s="25">
-        <f t="array" ref="E7">IF(
+        <f t="array" ref="E7:E7">IF(
     VLOOKUP(
         $A7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F7" s="25">
-        <f t="array" ref="F7">IF(
+        <f t="array" ref="F7:F7">IF(
     VLOOKUP(
         $A7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -2505,73 +2451,73 @@
         <v>7</v>
       </c>
       <c r="K7" s="25">
-        <f t="array" ref="K7">IF(
+        <f t="array" ref="K7:K7">IF(
     VLOOKUP(
         $H7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L7" s="25">
-        <f t="array" ref="L7">IF(
+        <f t="array" ref="L7:L7">IF(
     VLOOKUP(
         $H7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M7" s="25">
-        <f t="array" ref="M7">IF(
+        <f t="array" ref="M7:M7">IF(
     VLOOKUP(
         $H7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H7,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2586,67 +2532,67 @@
         <v>1</v>
       </c>
       <c r="D8" s="25">
-        <f t="array" ref="D8">IF(
+        <f t="array" ref="D8:D8">IF(
     VLOOKUP(
         $A8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E8" s="25">
-        <f t="array" ref="E8">IF(
+        <f t="array" ref="E8:E8">IF(
     VLOOKUP(
         $A8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F8" s="25">
-        <f t="array" ref="F8">IF(
+        <f t="array" ref="F8:F8">IF(
     VLOOKUP(
         $A8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -2665,73 +2611,73 @@
         <v>8</v>
       </c>
       <c r="K8" s="25">
-        <f t="array" ref="K8">IF(
+        <f t="array" ref="K8:K8">IF(
     VLOOKUP(
         $H8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L8" s="25">
-        <f t="array" ref="L8">IF(
+        <f t="array" ref="L8:L8">IF(
     VLOOKUP(
         $H8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M8" s="25">
-        <f t="array" ref="M8">IF(
+        <f t="array" ref="M8:M8">IF(
     VLOOKUP(
         $H8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H8,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2746,67 +2692,67 @@
         <v>1</v>
       </c>
       <c r="D9" s="25">
-        <f t="array" ref="D9">IF(
+        <f t="array" ref="D9:D9">IF(
     VLOOKUP(
         $A9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E9" s="25">
-        <f t="array" ref="E9">IF(
+        <f t="array" ref="E9:E9">IF(
     VLOOKUP(
         $A9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F9" s="25">
-        <f t="array" ref="F9">IF(
+        <f t="array" ref="F9:F9">IF(
     VLOOKUP(
         $A9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -2825,73 +2771,73 @@
         <v>9</v>
       </c>
       <c r="K9" s="25">
-        <f t="array" ref="K9">IF(
+        <f t="array" ref="K9:K9">IF(
     VLOOKUP(
         $H9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L9" s="25">
-        <f t="array" ref="L9">IF(
+        <f t="array" ref="L9:L9">IF(
     VLOOKUP(
         $H9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M9" s="25">
-        <f t="array" ref="M9">IF(
+        <f t="array" ref="M9:M9">IF(
     VLOOKUP(
         $H9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H9,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2906,67 +2852,67 @@
         <v>1</v>
       </c>
       <c r="D10" s="25">
-        <f t="array" ref="D10">IF(
+        <f t="array" ref="D10:D10">IF(
     VLOOKUP(
         $A10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E10" s="25">
-        <f t="array" ref="E10">IF(
+        <f t="array" ref="E10:E10">IF(
     VLOOKUP(
         $A10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F10" s="25">
-        <f t="array" ref="F10">IF(
+        <f t="array" ref="F10:F10">IF(
     VLOOKUP(
         $A10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -2985,73 +2931,73 @@
         <v>1</v>
       </c>
       <c r="K10" s="25">
-        <f t="array" ref="K10">IF(
+        <f t="array" ref="K10:K10">IF(
     VLOOKUP(
         $H10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L10" s="25">
-        <f t="array" ref="L10">IF(
+        <f t="array" ref="L10:L10">IF(
     VLOOKUP(
         $H10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M10" s="25">
-        <f t="array" ref="M10">IF(
+        <f t="array" ref="M10:M10">IF(
     VLOOKUP(
         $H10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H10,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3066,67 +3012,67 @@
         <v>1</v>
       </c>
       <c r="D11" s="25">
-        <f t="array" ref="D11">IF(
+        <f t="array" ref="D11:D11">IF(
     VLOOKUP(
         $A11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E11" s="25">
-        <f t="array" ref="E11">IF(
+        <f t="array" ref="E11:E11">IF(
     VLOOKUP(
         $A11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F11" s="25">
-        <f t="array" ref="F11">IF(
+        <f t="array" ref="F11:F11">IF(
     VLOOKUP(
         $A11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -3145,73 +3091,73 @@
         <v>1</v>
       </c>
       <c r="K11" s="25">
-        <f t="array" ref="K11">IF(
+        <f t="array" ref="K11:K11">IF(
     VLOOKUP(
         $H11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L11" s="25">
-        <f t="array" ref="L11">IF(
+        <f t="array" ref="L11:L11">IF(
     VLOOKUP(
         $H11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M11" s="25">
-        <f t="array" ref="M11">IF(
+        <f t="array" ref="M11:M11">IF(
     VLOOKUP(
         $H11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H11,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3226,67 +3172,67 @@
         <v>1</v>
       </c>
       <c r="D12" s="25">
-        <f t="array" ref="D12">IF(
+        <f t="array" ref="D12:D12">IF(
     VLOOKUP(
         $A12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E12" s="25">
-        <f t="array" ref="E12">IF(
+        <f t="array" ref="E12:E12">IF(
     VLOOKUP(
         $A12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F12" s="25">
-        <f t="array" ref="F12">IF(
+        <f t="array" ref="F12:F12">IF(
     VLOOKUP(
         $A12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -3305,73 +3251,73 @@
         <v>1</v>
       </c>
       <c r="K12" s="25">
-        <f t="array" ref="K12">IF(
+        <f t="array" ref="K12:K12">IF(
     VLOOKUP(
         $H12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L12" s="25">
-        <f t="array" ref="L12">IF(
+        <f t="array" ref="L12:L12">IF(
     VLOOKUP(
         $H12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M12" s="25">
-        <f t="array" ref="M12">IF(
+        <f t="array" ref="M12:M12">IF(
     VLOOKUP(
         $H12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H12,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3386,67 +3332,67 @@
         <v>1</v>
       </c>
       <c r="D13" s="25">
-        <f t="array" ref="D13">IF(
+        <f t="array" ref="D13:D13">IF(
     VLOOKUP(
         $A13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E13" s="25">
-        <f t="array" ref="E13">IF(
+        <f t="array" ref="E13:E13">IF(
     VLOOKUP(
         $A13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F13" s="25">
-        <f t="array" ref="F13">IF(
+        <f t="array" ref="F13:F13">IF(
     VLOOKUP(
         $A13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -3465,73 +3411,73 @@
         <v>1</v>
       </c>
       <c r="K13" s="25">
-        <f t="array" ref="K13">IF(
+        <f t="array" ref="K13:K13">IF(
     VLOOKUP(
         $H13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L13" s="25">
-        <f t="array" ref="L13">IF(
+        <f t="array" ref="L13:L13">IF(
     VLOOKUP(
         $H13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M13" s="25">
-        <f t="array" ref="M13">IF(
+        <f t="array" ref="M13:M13">IF(
     VLOOKUP(
         $H13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H13,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3546,67 +3492,67 @@
         <v>1</v>
       </c>
       <c r="D14" s="25">
-        <f t="array" ref="D14">IF(
+        <f t="array" ref="D14:D14">IF(
     VLOOKUP(
         $A14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E14" s="25">
-        <f t="array" ref="E14">IF(
+        <f t="array" ref="E14:E14">IF(
     VLOOKUP(
         $A14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F14" s="25">
-        <f t="array" ref="F14">IF(
+        <f t="array" ref="F14:F14">IF(
     VLOOKUP(
         $A14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -3625,73 +3571,73 @@
         <v>1</v>
       </c>
       <c r="K14" s="25">
-        <f t="array" ref="K14">IF(
+        <f t="array" ref="K14:K14">IF(
     VLOOKUP(
         $H14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L14" s="25">
-        <f t="array" ref="L14">IF(
+        <f t="array" ref="L14:L14">IF(
     VLOOKUP(
         $H14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M14" s="25">
-        <f t="array" ref="M14">IF(
+        <f t="array" ref="M14:M14">IF(
     VLOOKUP(
         $H14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H14,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3706,67 +3652,67 @@
         <v>1</v>
       </c>
       <c r="D15" s="25">
-        <f t="array" ref="D15">IF(
+        <f t="array" ref="D15:D15">IF(
     VLOOKUP(
         $A15,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A15,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E15" s="25">
-        <f t="array" ref="E15">IF(
+        <f t="array" ref="E15:E15">IF(
     VLOOKUP(
         $A15,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A15,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F15" s="25">
-        <f t="array" ref="F15">IF(
+        <f t="array" ref="F15:F15">IF(
     VLOOKUP(
         $A15,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A15,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -3835,7 +3781,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -3850,67 +3796,67 @@
         <v>1</v>
       </c>
       <c r="D18" s="25">
-        <f t="array" ref="D18">IF(
+        <f t="array" ref="D18:D18">IF(
     VLOOKUP(
         $A18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E18" s="25">
-        <f t="array" ref="E18">IF(
+        <f t="array" ref="E18:E18">IF(
     VLOOKUP(
         $A18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F18" s="25">
-        <f t="array" ref="F18">IF(
+        <f t="array" ref="F18:F18">IF(
     VLOOKUP(
         $A18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -3929,73 +3875,73 @@
         <v>1</v>
       </c>
       <c r="K18" s="25">
-        <f t="array" ref="K18">IF(
+        <f t="array" ref="K18:K18">IF(
     VLOOKUP(
         $H18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L18" s="25">
-        <f t="array" ref="L18">IF(
+        <f t="array" ref="L18:L18">IF(
     VLOOKUP(
         $H18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M18" s="25">
-        <f t="array" ref="M18">IF(
+        <f t="array" ref="M18:M18">IF(
     VLOOKUP(
         $H18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H18,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4010,67 +3956,67 @@
         <v>1</v>
       </c>
       <c r="D19" s="25">
-        <f t="array" ref="D19">IF(
+        <f t="array" ref="D19:D19">IF(
     VLOOKUP(
         $A19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E19" s="25">
-        <f t="array" ref="E19">IF(
+        <f t="array" ref="E19:E19">IF(
     VLOOKUP(
         $A19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F19" s="25">
-        <f t="array" ref="F19">IF(
+        <f t="array" ref="F19:F19">IF(
     VLOOKUP(
         $A19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -4089,73 +4035,73 @@
         <v>1</v>
       </c>
       <c r="K19" s="25">
-        <f t="array" ref="K19">IF(
+        <f t="array" ref="K19:K19">IF(
     VLOOKUP(
         $H19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L19" s="25">
-        <f t="array" ref="L19">IF(
+        <f t="array" ref="L19:L19">IF(
     VLOOKUP(
         $H19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M19" s="25">
-        <f t="array" ref="M19">IF(
+        <f t="array" ref="M19:M19">IF(
     VLOOKUP(
         $H19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H19,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4170,67 +4116,67 @@
         <v>1</v>
       </c>
       <c r="D20" s="25">
-        <f t="array" ref="D20">IF(
+        <f t="array" ref="D20:D20">IF(
     VLOOKUP(
         $A20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E20" s="25">
-        <f t="array" ref="E20">IF(
+        <f t="array" ref="E20:E20">IF(
     VLOOKUP(
         $A20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F20" s="25">
-        <f t="array" ref="F20">IF(
+        <f t="array" ref="F20:F20">IF(
     VLOOKUP(
         $A20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -4249,73 +4195,73 @@
         <v>1</v>
       </c>
       <c r="K20" s="25">
-        <f t="array" ref="K20">IF(
+        <f t="array" ref="K20:K20">IF(
     VLOOKUP(
         $H20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L20" s="25">
-        <f t="array" ref="L20">IF(
+        <f t="array" ref="L20:L20">IF(
     VLOOKUP(
         $H20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M20" s="25">
-        <f t="array" ref="M20">IF(
+        <f t="array" ref="M20:M20">IF(
     VLOOKUP(
         $H20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H20,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4330,67 +4276,67 @@
         <v>1</v>
       </c>
       <c r="D21" s="25">
-        <f t="array" ref="D21">IF(
+        <f t="array" ref="D21:D21">IF(
     VLOOKUP(
         $A21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E21" s="25">
-        <f t="array" ref="E21">IF(
+        <f t="array" ref="E21:E21">IF(
     VLOOKUP(
         $A21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F21" s="25">
-        <f t="array" ref="F21">IF(
+        <f t="array" ref="F21:F21">IF(
     VLOOKUP(
         $A21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -4409,73 +4355,73 @@
         <v>1</v>
       </c>
       <c r="K21" s="25">
-        <f t="array" ref="K21">IF(
+        <f t="array" ref="K21:K21">IF(
     VLOOKUP(
         $H21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L21" s="25">
-        <f t="array" ref="L21">IF(
+        <f t="array" ref="L21:L21">IF(
     VLOOKUP(
         $H21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M21" s="25">
-        <f t="array" ref="M21">IF(
+        <f t="array" ref="M21:M21">IF(
     VLOOKUP(
         $H21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H21,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4490,67 +4436,67 @@
         <v>1</v>
       </c>
       <c r="D22" s="25">
-        <f t="array" ref="D22">IF(
+        <f t="array" ref="D22:D22">IF(
     VLOOKUP(
         $A22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E22" s="25">
-        <f t="array" ref="E22">IF(
+        <f t="array" ref="E22:E22">IF(
     VLOOKUP(
         $A22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F22" s="25">
-        <f t="array" ref="F22">IF(
+        <f t="array" ref="F22:F22">IF(
     VLOOKUP(
         $A22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -4569,73 +4515,73 @@
         <v>1</v>
       </c>
       <c r="K22" s="25">
-        <f t="array" ref="K22">IF(
+        <f t="array" ref="K22:K22">IF(
     VLOOKUP(
         $H22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L22" s="25">
-        <f t="array" ref="L22">IF(
+        <f t="array" ref="L22:L22">IF(
     VLOOKUP(
         $H22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M22" s="25">
-        <f t="array" ref="M22">IF(
+        <f t="array" ref="M22:M22">IF(
     VLOOKUP(
         $H22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H22,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4650,67 +4596,67 @@
         <v>1</v>
       </c>
       <c r="D23" s="25">
-        <f t="array" ref="D23">IF(
+        <f t="array" ref="D23:D23">IF(
     VLOOKUP(
         $A23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E23" s="25">
-        <f t="array" ref="E23">IF(
+        <f t="array" ref="E23:E23">IF(
     VLOOKUP(
         $A23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F23" s="25">
-        <f t="array" ref="F23">IF(
+        <f t="array" ref="F23:F23">IF(
     VLOOKUP(
         $A23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -4729,73 +4675,73 @@
         <v>2</v>
       </c>
       <c r="K23" s="25">
-        <f t="array" ref="K23">IF(
+        <f t="array" ref="K23:K23">IF(
     VLOOKUP(
         $H23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L23" s="25">
-        <f t="array" ref="L23">IF(
+        <f t="array" ref="L23:L23">IF(
     VLOOKUP(
         $H23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M23" s="25">
-        <f t="array" ref="M23">IF(
+        <f t="array" ref="M23:M23">IF(
     VLOOKUP(
         $H23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H23,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4810,67 +4756,67 @@
         <v>1</v>
       </c>
       <c r="D24" s="25">
-        <f t="array" ref="D24">IF(
+        <f t="array" ref="D24:D24">IF(
     VLOOKUP(
         $A24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E24" s="25">
-        <f t="array" ref="E24">IF(
+        <f t="array" ref="E24:E24">IF(
     VLOOKUP(
         $A24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F24" s="25">
-        <f t="array" ref="F24">IF(
+        <f t="array" ref="F24:F24">IF(
     VLOOKUP(
         $A24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -4889,73 +4835,73 @@
         <v>1</v>
       </c>
       <c r="K24" s="25">
-        <f t="array" ref="K24">IF(
+        <f t="array" ref="K24:K24">IF(
     VLOOKUP(
         $H24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L24" s="25">
-        <f t="array" ref="L24">IF(
+        <f t="array" ref="L24:L24">IF(
     VLOOKUP(
         $H24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M24" s="25">
-        <f t="array" ref="M24">IF(
+        <f t="array" ref="M24:M24">IF(
     VLOOKUP(
         $H24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H24,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4970,67 +4916,67 @@
         <v>1</v>
       </c>
       <c r="D25" s="25">
-        <f t="array" ref="D25">IF(
+        <f t="array" ref="D25:D25">IF(
     VLOOKUP(
         $A25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E25" s="25">
-        <f t="array" ref="E25">IF(
+        <f t="array" ref="E25:E25">IF(
     VLOOKUP(
         $A25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F25" s="25">
-        <f t="array" ref="F25">IF(
+        <f t="array" ref="F25:F25">IF(
     VLOOKUP(
         $A25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -5049,73 +4995,73 @@
         <v>1</v>
       </c>
       <c r="K25" s="25">
-        <f t="array" ref="K25">IF(
+        <f t="array" ref="K25:K25">IF(
     VLOOKUP(
         $H25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L25" s="25">
-        <f t="array" ref="L25">IF(
+        <f t="array" ref="L25:L25">IF(
     VLOOKUP(
         $H25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M25" s="25">
-        <f t="array" ref="M25">IF(
+        <f t="array" ref="M25:M25">IF(
     VLOOKUP(
         $H25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H25,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5130,67 +5076,67 @@
         <v>1</v>
       </c>
       <c r="D26" s="25">
-        <f t="array" ref="D26">IF(
+        <f t="array" ref="D26:D26">IF(
     VLOOKUP(
         $A26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E26" s="25">
-        <f t="array" ref="E26">IF(
+        <f t="array" ref="E26:E26">IF(
     VLOOKUP(
         $A26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F26" s="25">
-        <f t="array" ref="F26">IF(
+        <f t="array" ref="F26:F26">IF(
     VLOOKUP(
         $A26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -5209,73 +5155,73 @@
         <v>1</v>
       </c>
       <c r="K26" s="25">
-        <f t="array" ref="K26">IF(
+        <f t="array" ref="K26:K26">IF(
     VLOOKUP(
         $H26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L26" s="25">
-        <f t="array" ref="L26">IF(
+        <f t="array" ref="L26:L26">IF(
     VLOOKUP(
         $H26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M26" s="25">
-        <f t="array" ref="M26">IF(
+        <f t="array" ref="M26:M26">IF(
     VLOOKUP(
         $H26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H26,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5290,67 +5236,67 @@
         <v>1</v>
       </c>
       <c r="D27" s="25">
-        <f t="array" ref="D27">IF(
+        <f t="array" ref="D27:D27">IF(
     VLOOKUP(
         $A27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E27" s="25">
-        <f t="array" ref="E27">IF(
+        <f t="array" ref="E27:E27">IF(
     VLOOKUP(
         $A27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F27" s="25">
-        <f t="array" ref="F27">IF(
+        <f t="array" ref="F27:F27">IF(
     VLOOKUP(
         $A27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -5369,73 +5315,73 @@
         <v>1</v>
       </c>
       <c r="K27" s="25">
-        <f t="array" ref="K27">IF(
+        <f t="array" ref="K27:K27">IF(
     VLOOKUP(
         $H27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L27" s="25">
-        <f t="array" ref="L27">IF(
+        <f t="array" ref="L27:L27">IF(
     VLOOKUP(
         $H27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M27" s="25">
-        <f t="array" ref="M27">IF(
+        <f t="array" ref="M27:M27">IF(
     VLOOKUP(
         $H27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H27,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5450,67 +5396,67 @@
         <v>1</v>
       </c>
       <c r="D28" s="25">
-        <f t="array" ref="D28">IF(
+        <f t="array" ref="D28:D28">IF(
     VLOOKUP(
         $A28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E28" s="25">
-        <f t="array" ref="E28">IF(
+        <f t="array" ref="E28:E28">IF(
     VLOOKUP(
         $A28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F28" s="25">
-        <f t="array" ref="F28">IF(
+        <f t="array" ref="F28:F28">IF(
     VLOOKUP(
         $A28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -5529,73 +5475,73 @@
         <v>1</v>
       </c>
       <c r="K28" s="25">
-        <f t="array" ref="K28">IF(
+        <f t="array" ref="K28:K28">IF(
     VLOOKUP(
         $H28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L28" s="25">
-        <f t="array" ref="L28">IF(
+        <f t="array" ref="L28:L28">IF(
     VLOOKUP(
         $H28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M28" s="25">
-        <f t="array" ref="M28">IF(
+        <f t="array" ref="M28:M28">IF(
     VLOOKUP(
         $H28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H28,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5610,67 +5556,67 @@
         <v>1</v>
       </c>
       <c r="D29" s="25">
-        <f t="array" ref="D29">IF(
+        <f t="array" ref="D29:D29">IF(
     VLOOKUP(
         $A29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E29" s="25">
-        <f t="array" ref="E29">IF(
+        <f t="array" ref="E29:E29">IF(
     VLOOKUP(
         $A29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F29" s="25">
-        <f t="array" ref="F29">IF(
+        <f t="array" ref="F29:F29">IF(
     VLOOKUP(
         $A29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -5689,73 +5635,73 @@
         <v>1</v>
       </c>
       <c r="K29" s="25">
-        <f t="array" ref="K29">IF(
+        <f t="array" ref="K29:K29">IF(
     VLOOKUP(
         $H29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L29" s="25">
-        <f t="array" ref="L29">IF(
+        <f t="array" ref="L29:L29">IF(
     VLOOKUP(
         $H29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M29" s="25">
-        <f t="array" ref="M29">IF(
+        <f t="array" ref="M29:M29">IF(
     VLOOKUP(
         $H29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H29,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5770,67 +5716,67 @@
         <v>1</v>
       </c>
       <c r="D30" s="25">
-        <f t="array" ref="D30">IF(
+        <f t="array" ref="D30:D30">IF(
     VLOOKUP(
         $A30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E30" s="25">
-        <f t="array" ref="E30">IF(
+        <f t="array" ref="E30:E30">IF(
     VLOOKUP(
         $A30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F30" s="25">
-        <f t="array" ref="F30">IF(
+        <f t="array" ref="F30:F30">IF(
     VLOOKUP(
         $A30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -5849,73 +5795,73 @@
         <v>1</v>
       </c>
       <c r="K30" s="25">
-        <f t="array" ref="K30">IF(
+        <f t="array" ref="K30:K30">IF(
     VLOOKUP(
         $H30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L30" s="25">
-        <f t="array" ref="L30">IF(
+        <f t="array" ref="L30:L30">IF(
     VLOOKUP(
         $H30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M30" s="25">
-        <f t="array" ref="M30">IF(
+        <f t="array" ref="M30:M30">IF(
     VLOOKUP(
         $H30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H30,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5930,67 +5876,67 @@
         <v>1</v>
       </c>
       <c r="D31" s="25">
-        <f t="array" ref="D31">IF(
+        <f t="array" ref="D31:D31">IF(
     VLOOKUP(
         $A31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E31" s="25">
-        <f t="array" ref="E31">IF(
+        <f t="array" ref="E31:E31">IF(
     VLOOKUP(
         $A31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F31" s="25">
-        <f t="array" ref="F31">IF(
+        <f t="array" ref="F31:F31">IF(
     VLOOKUP(
         $A31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -6009,67 +5955,67 @@
         <v>1</v>
       </c>
       <c r="K31" s="25">
-        <f t="array" ref="K31">IF(
+        <f t="array" ref="K31:K31">IF(
     VLOOKUP(
         $H31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="L31" s="25">
-        <f t="array" ref="L31">IF(
+        <f t="array" ref="L31:L31">IF(
     VLOOKUP(
         $H31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="M31" s="25">
-        <f t="array" ref="M31">IF(
+        <f t="array" ref="M31:M31">IF(
     VLOOKUP(
         $H31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $H31,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -6108,7 +6054,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6123,73 +6069,73 @@
         <v>1</v>
       </c>
       <c r="D34" s="25">
-        <f t="array" ref="D34">IF(
+        <f t="array" ref="D34:D34">IF(
     VLOOKUP(
         $A34,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A34,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E34" s="25">
-        <f t="array" ref="E34">IF(
+        <f t="array" ref="E34:E34">IF(
     VLOOKUP(
         $A34,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A34,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F34" s="25">
-        <f t="array" ref="F34">IF(
+        <f t="array" ref="F34:F34">IF(
     VLOOKUP(
         $A34,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A34,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6204,73 +6150,73 @@
         <v>1</v>
       </c>
       <c r="D35" s="25">
-        <f t="array" ref="D35">IF(
+        <f t="array" ref="D35:D35">IF(
     VLOOKUP(
         $A35,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A35,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E35" s="25">
-        <f t="array" ref="E35">IF(
+        <f t="array" ref="E35:E35">IF(
     VLOOKUP(
         $A35,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A35,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F35" s="25">
-        <f t="array" ref="F35">IF(
+        <f t="array" ref="F35:F35">IF(
     VLOOKUP(
         $A35,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A35,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6285,73 +6231,73 @@
         <v>2</v>
       </c>
       <c r="D36" s="25">
-        <f t="array" ref="D36">IF(
+        <f t="array" ref="D36:D36">IF(
     VLOOKUP(
         $A36,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A36,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E36" s="25">
-        <f t="array" ref="E36">IF(
+        <f t="array" ref="E36:E36">IF(
     VLOOKUP(
         $A36,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A36,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F36" s="25">
-        <f t="array" ref="F36">IF(
+        <f t="array" ref="F36:F36">IF(
     VLOOKUP(
         $A36,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A36,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6366,73 +6312,73 @@
         <v>3</v>
       </c>
       <c r="D37" s="25">
-        <f t="array" ref="D37">IF(
+        <f t="array" ref="D37:D37">IF(
     VLOOKUP(
         $A37,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A37,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E37" s="25">
-        <f t="array" ref="E37">IF(
+        <f t="array" ref="E37:E37">IF(
     VLOOKUP(
         $A37,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A37,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F37" s="25">
-        <f t="array" ref="F37">IF(
+        <f t="array" ref="F37:F37">IF(
     VLOOKUP(
         $A37,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A37,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6447,73 +6393,73 @@
         <v>4</v>
       </c>
       <c r="D38" s="25">
-        <f t="array" ref="D38">IF(
+        <f t="array" ref="D38:D38">IF(
     VLOOKUP(
         $A38,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A38,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E38" s="25">
-        <f t="array" ref="E38">IF(
+        <f t="array" ref="E38:E38">IF(
     VLOOKUP(
         $A38,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A38,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F38" s="25">
-        <f t="array" ref="F38">IF(
+        <f t="array" ref="F38:F38">IF(
     VLOOKUP(
         $A38,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A38,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6528,73 +6474,73 @@
         <v>5</v>
       </c>
       <c r="D39" s="25">
-        <f t="array" ref="D39">IF(
+        <f t="array" ref="D39:D39">IF(
     VLOOKUP(
         $A39,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A39,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E39" s="25">
-        <f t="array" ref="E39">IF(
+        <f t="array" ref="E39:E39">IF(
     VLOOKUP(
         $A39,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A39,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F39" s="25">
-        <f t="array" ref="F39">IF(
+        <f t="array" ref="F39:F39">IF(
     VLOOKUP(
         $A39,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A39,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6609,73 +6555,73 @@
         <v>6</v>
       </c>
       <c r="D40" s="25">
-        <f t="array" ref="D40">IF(
+        <f t="array" ref="D40:D40">IF(
     VLOOKUP(
         $A40,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A40,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E40" s="25">
-        <f t="array" ref="E40">IF(
+        <f t="array" ref="E40:E40">IF(
     VLOOKUP(
         $A40,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A40,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F40" s="25">
-        <f t="array" ref="F40">IF(
+        <f t="array" ref="F40:F40">IF(
     VLOOKUP(
         $A40,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A40,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6690,73 +6636,73 @@
         <v>1</v>
       </c>
       <c r="D41" s="25">
-        <f t="array" ref="D41">IF(
+        <f t="array" ref="D41:D41">IF(
     VLOOKUP(
         $A41,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A41,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E41" s="25">
-        <f t="array" ref="E41">IF(
+        <f t="array" ref="E41:E41">IF(
     VLOOKUP(
         $A41,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A41,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F41" s="25">
-        <f t="array" ref="F41">IF(
+        <f t="array" ref="F41:F41">IF(
     VLOOKUP(
         $A41,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A41,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6771,73 +6717,73 @@
         <v>1</v>
       </c>
       <c r="D42" s="25">
-        <f t="array" ref="D42">IF(
+        <f t="array" ref="D42:D42">IF(
     VLOOKUP(
         $A42,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A42,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E42" s="25">
-        <f t="array" ref="E42">IF(
+        <f t="array" ref="E42:E42">IF(
     VLOOKUP(
         $A42,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A42,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F42" s="25">
-        <f t="array" ref="F42">IF(
+        <f t="array" ref="F42:F42">IF(
     VLOOKUP(
         $A42,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A42,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6852,73 +6798,73 @@
         <v>1</v>
       </c>
       <c r="D43" s="25">
-        <f t="array" ref="D43">IF(
+        <f t="array" ref="D43:D43">IF(
     VLOOKUP(
         $A43,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A43,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E43" s="25">
-        <f t="array" ref="E43">IF(
+        <f t="array" ref="E43:E43">IF(
     VLOOKUP(
         $A43,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A43,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F43" s="25">
-        <f t="array" ref="F43">IF(
+        <f t="array" ref="F43:F43">IF(
     VLOOKUP(
         $A43,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A43,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6933,73 +6879,73 @@
         <v>1</v>
       </c>
       <c r="D44" s="25">
-        <f t="array" ref="D44">IF(
+        <f t="array" ref="D44:D44">IF(
     VLOOKUP(
         $A44,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A44,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E44" s="25">
-        <f t="array" ref="E44">IF(
+        <f t="array" ref="E44:E44">IF(
     VLOOKUP(
         $A44,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A44,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F44" s="25">
-        <f t="array" ref="F44">IF(
+        <f t="array" ref="F44:F44">IF(
     VLOOKUP(
         $A44,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A44,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -7014,73 +6960,73 @@
         <v>1</v>
       </c>
       <c r="D45" s="25">
-        <f t="array" ref="D45">IF(
+        <f t="array" ref="D45:D45">IF(
     VLOOKUP(
         $A45,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A45,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E45" s="25">
-        <f t="array" ref="E45">IF(
+        <f t="array" ref="E45:E45">IF(
     VLOOKUP(
         $A45,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A45,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F45" s="25">
-        <f t="array" ref="F45">IF(
+        <f t="array" ref="F45:F45">IF(
     VLOOKUP(
         $A45,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A45,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
+        FALSE()
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -7095,67 +7041,67 @@
         <v>1</v>
       </c>
       <c r="D46" s="25">
-        <f t="array" ref="D46">IF(
+        <f t="array" ref="D46:D46">IF(
     VLOOKUP(
         $A46,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A46,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="E46" s="25">
-        <f t="array" ref="E46">IF(
+        <f t="array" ref="E46:E46">IF(
     VLOOKUP(
         $A46,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A46,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
       </c>
       <c r="F46" s="25">
-        <f t="array" ref="F46">IF(
+        <f t="array" ref="F46:F46">IF(
     VLOOKUP(
         $A46,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE
+        FALSE()
     )=0,
     "",
     VLOOKUP(
         $A46,
-        _xlfn._xlws.FILTER(
+        _xlfn._xlws.filter(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE
+        FALSE()
     )
 )</f>
         <v/>
@@ -7163,91 +7109,91 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" priority="33" operator="containsText" dxfId="0" text="Atrasado">
+    <cfRule type="containsText" rank="0" priority="2" equalAverage="0" operator="containsText" aboveAverage="0" dxfId="0" text="Atrasado" percent="0" bottom="0">
       <formula>NOT(ISERROR(SEARCH("Atrasado",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F15 K2:M14">
-    <cfRule type="cellIs" priority="29" operator="equal" dxfId="1">
+    <cfRule type="cellIs" rank="0" priority="3" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="2">
+    <cfRule type="cellIs" rank="0" priority="4" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="31" operator="equal" dxfId="0">
+    <cfRule type="cellIs" rank="0" priority="5" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="32" operator="equal" dxfId="3">
+    <cfRule type="cellIs" rank="0" priority="6" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="1">
+    <cfRule type="cellIs" rank="0" priority="7" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="26" operator="equal" dxfId="2">
+    <cfRule type="cellIs" rank="0" priority="8" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal" dxfId="0">
+    <cfRule type="cellIs" rank="0" priority="9" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="28" operator="equal" dxfId="3">
+    <cfRule type="cellIs" rank="0" priority="10" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="1">
+    <cfRule type="cellIs" rank="0" priority="11" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="2">
+    <cfRule type="cellIs" rank="0" priority="12" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="0">
+    <cfRule type="cellIs" rank="0" priority="13" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="3">
+    <cfRule type="cellIs" rank="0" priority="14" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F31">
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="1">
+    <cfRule type="cellIs" rank="0" priority="15" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="2">
+    <cfRule type="cellIs" rank="0" priority="16" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
+    <cfRule type="cellIs" rank="0" priority="17" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="3">
+    <cfRule type="cellIs" rank="0" priority="18" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:F46">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="1">
+    <cfRule type="cellIs" rank="0" priority="19" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="2">
+    <cfRule type="cellIs" rank="0" priority="20" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="0">
+    <cfRule type="cellIs" rank="0" priority="21" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="3">
+    <cfRule type="cellIs" rank="0" priority="22" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:M31">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
+    <cfRule type="cellIs" rank="0" priority="23" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="2">
+    <cfRule type="cellIs" rank="0" priority="24" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="0">
+    <cfRule type="cellIs" rank="0" priority="25" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3">
+    <cfRule type="cellIs" rank="0" priority="26" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7361,12 +7307,12 @@
       </c>
       <c r="E2" s="36" t="inlineStr">
         <is>
-          <t>Enviado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F2" s="35" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>09/07/2025, 01/01/2025</t>
         </is>
       </c>
       <c r="G2" s="37" t="inlineStr">
@@ -7376,7 +7322,7 @@
       </c>
       <c r="H2" s="35" t="inlineStr">
         <is>
-          <t>correções em: Qual a despesa anual com os serviços de coleta (convencional, seletiva) no município? se não ok</t>
+          <t>ESTA CERTO</t>
         </is>
       </c>
       <c r="I2" s="35" t="n"/>
@@ -7445,7 +7391,7 @@
           <t>Gisele Cássia Tamparowsky de Oliveira</t>
         </is>
       </c>
-      <c r="E4" s="36" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7488,7 +7434,7 @@
           <t>Marcos Gabriel Franciosi Borges</t>
         </is>
       </c>
-      <c r="E5" s="36" t="inlineStr">
+      <c r="E5" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7531,7 +7477,7 @@
           <t>Geni Rodrigues Morais / Chayla Bianca Gazoli</t>
         </is>
       </c>
-      <c r="E6" s="36" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7574,7 +7520,7 @@
           <t>Solange Maria Masqueti</t>
         </is>
       </c>
-      <c r="E7" s="36" t="inlineStr">
+      <c r="E7" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7603,7 +7549,7 @@
       <c r="K7" s="35" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="inlineStr">
+      <c r="A8" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7621,7 +7567,7 @@
           <t>Cristiane Petry Vieira</t>
         </is>
       </c>
-      <c r="E8" s="36" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7707,7 +7653,7 @@
           <t>Tatiane Girardi</t>
         </is>
       </c>
-      <c r="E10" s="36" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7732,7 +7678,7 @@
       <c r="K10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="41" t="inlineStr">
+      <c r="A11" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7750,7 +7696,7 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E11" s="42" t="inlineStr">
+      <c r="E11" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7775,7 +7721,7 @@
       <c r="K11" s="35" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="inlineStr">
+      <c r="A12" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7793,7 +7739,7 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E12" s="42" t="inlineStr">
+      <c r="E12" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7818,7 +7764,7 @@
       <c r="K12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="inlineStr">
+      <c r="A13" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7836,7 +7782,7 @@
           <t>Eduarda Rohden Donasolo</t>
         </is>
       </c>
-      <c r="E13" s="42" t="inlineStr">
+      <c r="E13" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7861,7 +7807,7 @@
       <c r="K13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="inlineStr">
+      <c r="A14" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7879,7 +7825,7 @@
           <t>Mauricio Pinto de Lima</t>
         </is>
       </c>
-      <c r="E14" s="42" t="inlineStr">
+      <c r="E14" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7904,7 +7850,7 @@
       <c r="K14" s="35" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="inlineStr">
+      <c r="A15" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7918,7 +7864,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="35" t="n"/>
-      <c r="E15" s="42" t="inlineStr">
+      <c r="E15" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7943,7 +7889,7 @@
       <c r="K15" s="35" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="41" t="inlineStr">
+      <c r="A16" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7961,7 +7907,7 @@
           <t>Marcelo Merlini</t>
         </is>
       </c>
-      <c r="E16" s="42" t="inlineStr">
+      <c r="E16" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -8047,7 +7993,7 @@
           <t>Douglas de Mattia / Alvaro Rodrigues</t>
         </is>
       </c>
-      <c r="E18" s="36" t="inlineStr">
+      <c r="E18" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8129,7 +8075,7 @@
           <t>Bruna Schneider Guimarães</t>
         </is>
       </c>
-      <c r="E20" s="36" t="inlineStr">
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8172,7 +8118,7 @@
           <t>Keilla Avezedo</t>
         </is>
       </c>
-      <c r="E21" s="36" t="inlineStr">
+      <c r="E21" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8236,7 +8182,7 @@
       <c r="K22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="41" t="inlineStr">
+      <c r="A23" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -8254,7 +8200,7 @@
           <t>Thiago Varaschim Cenci</t>
         </is>
       </c>
-      <c r="E23" s="36" t="inlineStr">
+      <c r="E23" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8687,7 +8633,7 @@
           <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
-      <c r="E34" s="42" t="inlineStr">
+      <c r="E34" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -8734,7 +8680,7 @@
           <t>Kelly Jackeline Silva do Valle</t>
         </is>
       </c>
-      <c r="E35" s="36" t="inlineStr">
+      <c r="E35" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8781,7 +8727,7 @@
           <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
-      <c r="E36" s="36" t="inlineStr">
+      <c r="E36" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8811,7 +8757,7 @@
       <c r="K36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="41" t="inlineStr">
+      <c r="A37" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -8829,7 +8775,7 @@
           <t>Eliane Borin</t>
         </is>
       </c>
-      <c r="E37" s="36" t="inlineStr">
+      <c r="E37" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8876,7 +8822,7 @@
           <t>Tatiana schrard</t>
         </is>
       </c>
-      <c r="E38" s="36" t="inlineStr">
+      <c r="E38" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8901,7 +8847,7 @@
       <c r="K38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="41" t="inlineStr">
+      <c r="A39" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -8919,7 +8865,7 @@
           <t>César Piva Glinglani</t>
         </is>
       </c>
-      <c r="E39" s="36" t="inlineStr">
+      <c r="E39" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9001,7 +8947,7 @@
           <t>Marcos José Chaves</t>
         </is>
       </c>
-      <c r="E41" s="36" t="inlineStr">
+      <c r="E41" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9044,7 +8990,7 @@
           <t>Diego Matheus Reinicke</t>
         </is>
       </c>
-      <c r="E42" s="36" t="inlineStr">
+      <c r="E42" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9126,7 +9072,7 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E44" s="36" t="inlineStr">
+      <c r="E44" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9169,7 +9115,7 @@
           <t>Natielly Pereira Ochoa</t>
         </is>
       </c>
-      <c r="E45" s="36" t="inlineStr">
+      <c r="E45" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9255,7 +9201,7 @@
           <t>Luciane Spies</t>
         </is>
       </c>
-      <c r="E47" s="36" t="inlineStr">
+      <c r="E47" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9319,7 +9265,7 @@
       <c r="K48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="41" t="inlineStr">
+      <c r="A49" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -9337,7 +9283,7 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E49" s="36" t="inlineStr">
+      <c r="E49" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9380,7 +9326,7 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E50" s="36" t="inlineStr">
+      <c r="E50" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9427,7 +9373,7 @@
           <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
         </is>
       </c>
-      <c r="E51" s="36" t="inlineStr">
+      <c r="E51" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9513,7 +9459,7 @@
           <t>Jaqueline Vanelli</t>
         </is>
       </c>
-      <c r="E53" s="36" t="inlineStr">
+      <c r="E53" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9560,7 +9506,7 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E54" s="36" t="inlineStr">
+      <c r="E54" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9607,7 +9553,7 @@
           <t>Ana Paula Romagnoli</t>
         </is>
       </c>
-      <c r="E55" s="36" t="inlineStr">
+      <c r="E55" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9650,7 +9596,7 @@
           <t>Alexandro Schaparini</t>
         </is>
       </c>
-      <c r="E56" s="36" t="inlineStr">
+      <c r="E56" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9732,7 +9678,7 @@
           <t>Ana Carolina Peterle Ribeiro</t>
         </is>
       </c>
-      <c r="E58" s="36" t="inlineStr">
+      <c r="E58" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9775,7 +9721,7 @@
           <t>Taiane Amélia Mondardo</t>
         </is>
       </c>
-      <c r="E59" s="36" t="inlineStr">
+      <c r="E59" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9822,7 +9768,7 @@
           <t>Regiane Lucia Pereira</t>
         </is>
       </c>
-      <c r="E60" s="36" t="inlineStr">
+      <c r="E60" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9869,7 +9815,7 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E61" s="36" t="inlineStr">
+      <c r="E61" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9916,7 +9862,7 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E62" s="36" t="inlineStr">
+      <c r="E62" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9959,7 +9905,7 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E63" s="36" t="inlineStr">
+      <c r="E63" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10002,7 +9948,7 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E64" s="42" t="inlineStr">
+      <c r="E64" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -10084,7 +10030,7 @@
           <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
-      <c r="E66" s="36" t="inlineStr">
+      <c r="E66" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10113,7 +10059,7 @@
       <c r="K66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="41" t="inlineStr">
+      <c r="A67" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10131,7 +10077,7 @@
           <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
-      <c r="E67" s="36" t="inlineStr">
+      <c r="E67" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10160,7 +10106,7 @@
       <c r="K67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="41" t="inlineStr">
+      <c r="A68" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10393,7 +10339,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10439,7 +10385,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="36" t="inlineStr">
+      <c r="E3" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10485,12 +10431,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F4" s="35" t="n"/>
+      <c r="E4" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="35" t="inlineStr">
+        <is>
+          <t>21/07/2025</t>
+        </is>
+      </c>
       <c r="G4" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10523,7 +10473,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="36" t="inlineStr">
+      <c r="E5" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10569,7 +10519,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="36" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10611,7 +10561,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="36" t="inlineStr">
+      <c r="E7" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10640,7 +10590,7 @@
       <c r="K7" s="35" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="inlineStr">
+      <c r="A8" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10657,7 +10607,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="36" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10737,7 +10687,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="36" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10762,7 +10712,7 @@
       <c r="K10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="41" t="inlineStr">
+      <c r="A11" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10779,7 +10729,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="36" t="inlineStr">
+      <c r="E11" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10804,7 +10754,7 @@
       <c r="K11" s="35" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="inlineStr">
+      <c r="A12" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10821,7 +10771,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="36" t="inlineStr">
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10846,7 +10796,7 @@
       <c r="K12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="inlineStr">
+      <c r="A13" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10863,7 +10813,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="36" t="inlineStr">
+      <c r="E13" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10888,7 +10838,7 @@
       <c r="K13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="inlineStr">
+      <c r="A14" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10905,7 +10855,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="42" t="inlineStr">
+      <c r="E14" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -10930,7 +10880,7 @@
       <c r="K14" s="35" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="inlineStr">
+      <c r="A15" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10947,7 +10897,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="36" t="inlineStr">
+      <c r="E15" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10972,7 +10922,7 @@
       <c r="K15" s="35" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="41" t="inlineStr">
+      <c r="A16" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10989,7 +10939,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="36" t="inlineStr">
+      <c r="E16" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11031,7 +10981,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="36" t="inlineStr">
+      <c r="E17" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11149,7 +11099,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="36" t="inlineStr">
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11191,7 +11141,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="36" t="inlineStr">
+      <c r="E21" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11233,7 +11183,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="36" t="inlineStr">
+      <c r="E22" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11258,7 +11208,7 @@
       <c r="K22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="41" t="inlineStr">
+      <c r="A23" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -11275,7 +11225,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="36" t="inlineStr">
+      <c r="E23" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11317,7 +11267,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="36" t="inlineStr">
+      <c r="E24" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11359,7 +11309,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="36" t="inlineStr">
+      <c r="E25" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11401,7 +11351,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="36" t="inlineStr">
+      <c r="E26" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11443,7 +11393,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="36" t="inlineStr">
+      <c r="E27" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11485,7 +11435,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="36" t="inlineStr">
+      <c r="E28" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11531,7 +11481,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="36" t="inlineStr">
+      <c r="E29" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11577,7 +11527,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="36" t="inlineStr">
+      <c r="E30" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11623,7 +11573,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="36" t="inlineStr">
+      <c r="E31" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11741,7 +11691,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="36" t="inlineStr">
+      <c r="E34" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11783,7 +11733,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="36" t="inlineStr">
+      <c r="E35" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11825,7 +11775,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="36" t="inlineStr">
+      <c r="E36" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11850,7 +11800,7 @@
       <c r="K36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="41" t="inlineStr">
+      <c r="A37" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -11867,7 +11817,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="36" t="inlineStr">
+      <c r="E37" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11909,7 +11859,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="36" t="inlineStr">
+      <c r="E38" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11934,7 +11884,7 @@
       <c r="K38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="41" t="inlineStr">
+      <c r="A39" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -12027,7 +11977,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="36" t="inlineStr">
+      <c r="E41" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12069,7 +12019,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="36" t="inlineStr">
+      <c r="E42" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12149,7 +12099,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="36" t="inlineStr">
+      <c r="E44" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12191,7 +12141,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="36" t="inlineStr">
+      <c r="E45" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12275,7 +12225,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="36" t="inlineStr">
+      <c r="E47" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12338,7 +12288,7 @@
       <c r="K48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="41" t="inlineStr">
+      <c r="A49" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -12355,7 +12305,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="42" t="inlineStr">
+      <c r="E49" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -12397,7 +12347,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="36" t="inlineStr">
+      <c r="E50" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12443,7 +12393,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="36" t="inlineStr">
+      <c r="E51" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12527,7 +12477,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="36" t="inlineStr">
+      <c r="E53" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12569,7 +12519,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="36" t="inlineStr">
+      <c r="E54" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12653,7 +12603,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="36" t="inlineStr">
+      <c r="E56" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12695,7 +12645,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="36" t="inlineStr">
+      <c r="E57" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12742,7 +12692,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="36" t="inlineStr">
+      <c r="E58" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12822,7 +12772,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E60" s="36" t="inlineStr">
+      <c r="E60" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12868,7 +12818,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E61" s="36" t="inlineStr">
+      <c r="E61" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12918,7 +12868,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E62" s="36" t="inlineStr">
+      <c r="E62" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12960,7 +12910,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E63" s="36" t="inlineStr">
+      <c r="E63" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13006,14 +12956,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E64" s="42" t="inlineStr">
+      <c r="E64" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
       </c>
       <c r="F64" s="35" t="inlineStr">
         <is>
-          <t>15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 04/04/2025, 12/05/2025</t>
+          <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
         </is>
       </c>
       <c r="G64" s="40" t="inlineStr">
@@ -13086,7 +13036,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E66" s="36" t="inlineStr">
+      <c r="E66" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13115,7 +13065,7 @@
       <c r="K66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="41" t="inlineStr">
+      <c r="A67" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13132,7 +13082,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E67" s="36" t="inlineStr">
+      <c r="E67" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13157,7 +13107,7 @@
       <c r="K67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="41" t="inlineStr">
+      <c r="A68" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13174,7 +13124,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E68" s="36" t="inlineStr">
+      <c r="E68" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13397,13 +13347,21 @@
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F2" s="35" t="n"/>
-      <c r="G2" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H2" s="35" t="n"/>
+      <c r="F2" s="35" t="inlineStr">
+        <is>
+          <t>09/07/2025, 01/01/2025</t>
+        </is>
+      </c>
+      <c r="G2" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H2" s="35" t="inlineStr">
+        <is>
+          <t>CERTO</t>
+        </is>
+      </c>
       <c r="I2" s="35" t="n"/>
       <c r="J2" s="35" t="inlineStr">
         <is>
@@ -13430,7 +13388,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="36" t="inlineStr">
+      <c r="E3" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13472,12 +13430,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F4" s="35" t="n"/>
+      <c r="E4" s="41" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F4" s="35" t="inlineStr">
+        <is>
+          <t>21/07/2025</t>
+        </is>
+      </c>
       <c r="G4" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13510,7 +13472,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="36" t="inlineStr">
+      <c r="E5" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13556,7 +13518,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="36" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13598,7 +13560,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="36" t="inlineStr">
+      <c r="E7" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13627,7 +13589,7 @@
       <c r="K7" s="35" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="inlineStr">
+      <c r="A8" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13720,7 +13682,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="42" t="inlineStr">
+      <c r="E10" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -13745,7 +13707,7 @@
       <c r="K10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="41" t="inlineStr">
+      <c r="A11" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13762,7 +13724,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="36" t="inlineStr">
+      <c r="E11" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13787,7 +13749,7 @@
       <c r="K11" s="35" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="inlineStr">
+      <c r="A12" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13804,7 +13766,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="36" t="inlineStr">
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13829,7 +13791,7 @@
       <c r="K12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="inlineStr">
+      <c r="A13" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13846,7 +13808,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="36" t="inlineStr">
+      <c r="E13" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13871,7 +13833,7 @@
       <c r="K13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="inlineStr">
+      <c r="A14" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13888,7 +13850,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="42" t="inlineStr">
+      <c r="E14" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -13913,7 +13875,7 @@
       <c r="K14" s="35" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="inlineStr">
+      <c r="A15" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13930,7 +13892,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="36" t="inlineStr">
+      <c r="E15" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13955,7 +13917,7 @@
       <c r="K15" s="35" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="41" t="inlineStr">
+      <c r="A16" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13972,7 +13934,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="36" t="inlineStr">
+      <c r="E16" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14014,7 +13976,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="36" t="inlineStr">
+      <c r="E17" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14132,7 +14094,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="36" t="inlineStr">
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14174,7 +14136,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="36" t="inlineStr">
+      <c r="E21" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14241,7 +14203,7 @@
       <c r="K22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="41" t="inlineStr">
+      <c r="A23" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14258,7 +14220,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="36" t="inlineStr">
+      <c r="E23" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14338,7 +14300,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="36" t="inlineStr">
+      <c r="E25" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14380,7 +14342,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="36" t="inlineStr">
+      <c r="E26" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14422,7 +14384,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="36" t="inlineStr">
+      <c r="E27" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14464,7 +14426,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="36" t="inlineStr">
+      <c r="E28" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14510,7 +14472,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="36" t="inlineStr">
+      <c r="E29" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14556,7 +14518,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="36" t="inlineStr">
+      <c r="E30" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14716,7 +14678,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="36" t="inlineStr">
+      <c r="E34" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14758,7 +14720,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="36" t="inlineStr">
+      <c r="E35" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14800,7 +14762,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="36" t="inlineStr">
+      <c r="E36" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14825,7 +14787,7 @@
       <c r="K36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="41" t="inlineStr">
+      <c r="A37" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14842,7 +14804,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="36" t="inlineStr">
+      <c r="E37" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14884,7 +14846,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="36" t="inlineStr">
+      <c r="E38" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14909,7 +14871,7 @@
       <c r="K38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="41" t="inlineStr">
+      <c r="A39" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14926,7 +14888,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="36" t="inlineStr">
+      <c r="E39" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15006,7 +14968,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="36" t="inlineStr">
+      <c r="E41" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15048,7 +15010,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="36" t="inlineStr">
+      <c r="E42" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15128,7 +15090,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="36" t="inlineStr">
+      <c r="E44" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15170,7 +15132,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="36" t="inlineStr">
+      <c r="E45" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15254,7 +15216,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="36" t="inlineStr">
+      <c r="E47" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15317,7 +15279,7 @@
       <c r="K48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="41" t="inlineStr">
+      <c r="A49" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -15334,7 +15296,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="36" t="inlineStr">
+      <c r="E49" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15376,7 +15338,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="36" t="inlineStr">
+      <c r="E50" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15422,7 +15384,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="36" t="inlineStr">
+      <c r="E51" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15506,7 +15468,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="36" t="inlineStr">
+      <c r="E53" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15548,7 +15510,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="36" t="inlineStr">
+      <c r="E54" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15632,7 +15594,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="36" t="inlineStr">
+      <c r="E56" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15712,7 +15674,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="36" t="inlineStr">
+      <c r="E58" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15792,7 +15754,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E60" s="36" t="inlineStr">
+      <c r="E60" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15834,7 +15796,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E61" s="36" t="inlineStr">
+      <c r="E61" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15876,7 +15838,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E62" s="36" t="inlineStr">
+      <c r="E62" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15918,7 +15880,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E63" s="36" t="inlineStr">
+      <c r="E63" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15960,7 +15922,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E64" s="42" t="inlineStr">
+      <c r="E64" s="36" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -16002,7 +15964,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E65" s="36" t="inlineStr">
+      <c r="E65" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -16044,7 +16006,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E66" s="36" t="inlineStr">
+      <c r="E66" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -16069,7 +16031,7 @@
       <c r="K66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="41" t="inlineStr">
+      <c r="A67" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16086,7 +16048,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E67" s="36" t="inlineStr">
+      <c r="E67" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -16111,7 +16073,7 @@
       <c r="K67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="41" t="inlineStr">
+      <c r="A68" s="42" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16128,7 +16090,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E68" s="36" t="inlineStr">
+      <c r="E68" s="41" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -35,45 +35,45 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -101,74 +101,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3172C4"/>
-        <bgColor rgb="FF31859C"/>
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF7C9"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA3DDFF"/>
-        <bgColor rgb="FF93CDDD"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF91F0D3"/>
-        <bgColor rgb="FFA3DDFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBC99F"/>
-        <bgColor rgb="FFF1E0C6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD2DE"/>
-        <bgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFF7C9"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF95B3D7"/>
-        <bgColor rgb="FFA9C5E6"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFF1E0C6"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor theme="4" tint="0.7999816888943144"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93CDDD"/>
-        <bgColor rgb="FFA9C5E6"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -221,8 +221,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -233,8 +233,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
   </fills>
@@ -247,75 +247,127 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF95B3D7"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
     </border>
     <border>
@@ -454,10 +506,10 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -473,41 +525,41 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF953735"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF31859C"/>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF7F7F7F"/>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF9BBB59"/>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -958,13 +1010,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="12.85" customWidth="1" min="2" max="2"/>
-    <col width="12.28" customWidth="1" min="3" max="3"/>
-    <col width="15.14" customWidth="1" min="4" max="4"/>
+    <col width="12.85546875" customWidth="1" min="2" max="2"/>
+    <col width="12.28515625" customWidth="1" min="3" max="3"/>
+    <col width="15.140625" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15.14" customWidth="1" min="6" max="6"/>
-    <col width="11.85" customWidth="1" min="7" max="7"/>
-    <col width="14.85" customWidth="1" min="8" max="8"/>
+    <col width="15.140625" customWidth="1" min="6" max="6"/>
+    <col width="11.85546875" customWidth="1" min="7" max="7"/>
+    <col width="14.85546875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -1274,14 +1326,14 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
       <c r="B17" s="13">
-        <f t="array" ref="B17:B17">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B17">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C17" s="6">
@@ -1289,7 +1341,7 @@
         <v/>
       </c>
       <c r="D17" s="13">
-        <f t="array" ref="D17:D17">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D17">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E17" s="6">
@@ -1297,7 +1349,7 @@
         <v/>
       </c>
       <c r="F17" s="13">
-        <f t="array" ref="F17:F17">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F17">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A17) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G17" s="6">
@@ -1305,14 +1357,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18">
       <c r="A18" s="14" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
       </c>
       <c r="B18" s="13">
-        <f t="array" ref="B18:B18">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B18">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C18" s="6">
@@ -1320,7 +1372,7 @@
         <v/>
       </c>
       <c r="D18" s="13">
-        <f t="array" ref="D18:D18">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D18">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E18" s="6">
@@ -1328,7 +1380,7 @@
         <v/>
       </c>
       <c r="F18" s="13">
-        <f t="array" ref="F18:F18">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F18">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A18) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G18" s="6">
@@ -1336,14 +1388,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19">
       <c r="A19" s="15" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
       </c>
       <c r="B19" s="13">
-        <f t="array" ref="B19:B19">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B19">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C19" s="6">
@@ -1351,7 +1403,7 @@
         <v/>
       </c>
       <c r="D19" s="13">
-        <f t="array" ref="D19:D19">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D19">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E19" s="6">
@@ -1359,7 +1411,7 @@
         <v/>
       </c>
       <c r="F19" s="13">
-        <f t="array" ref="F19:F19">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F19">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A19) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G19" s="6">
@@ -1367,14 +1419,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20">
       <c r="A20" s="16" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
       </c>
       <c r="B20" s="13">
-        <f t="array" ref="B20:B20">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B20">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C20" s="6">
@@ -1382,7 +1434,7 @@
         <v/>
       </c>
       <c r="D20" s="13">
-        <f t="array" ref="D20:D20">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D20">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E20" s="6">
@@ -1390,7 +1442,7 @@
         <v/>
       </c>
       <c r="F20" s="13">
-        <f t="array" ref="F20:F20">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F20">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A20) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G20" s="6">
@@ -1398,14 +1450,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21">
       <c r="A21" s="17" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
       </c>
       <c r="B21" s="13">
-        <f t="array" ref="B21:B21">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="B21">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;B$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;B$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;B$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="C21" s="6">
@@ -1413,7 +1465,7 @@
         <v/>
       </c>
       <c r="D21" s="13">
-        <f t="array" ref="D21:D21">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="D21">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;D$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;D$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;D$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="E21" s="6">
@@ -1421,7 +1473,7 @@
         <v/>
       </c>
       <c r="F21" s="13">
-        <f t="array" ref="F21:F21">IFERROR(ROWS(_xlfn._xlws.filter(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
+        <f t="array" ref="F21">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT("'"&amp;F$15&amp;"'!A2:K100"),(INDIRECT("'"&amp;F$15&amp;"'!A2:A100")=$A21) * (INDIRECT("'"&amp;F$15&amp;"'!G2:G100")="Sim"))), 0)</f>
         <v/>
       </c>
       <c r="G21" s="6">
@@ -1429,7 +1481,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22">
       <c r="A22" s="18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1485,14 +1537,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31.14" customWidth="1" min="2" max="2"/>
-    <col width="24.28" customWidth="1" min="4" max="4"/>
-    <col width="26.15" customWidth="1" min="5" max="5"/>
-    <col width="27.72" customWidth="1" min="6" max="6"/>
-    <col width="31.14" customWidth="1" min="9" max="9"/>
-    <col width="24.28" customWidth="1" min="11" max="11"/>
-    <col width="28.86" customWidth="1" min="12" max="12"/>
-    <col width="29.14" customWidth="1" min="13" max="13"/>
+    <col width="31.140625" customWidth="1" min="2" max="2"/>
+    <col width="8.5703125" customWidth="1" min="3" max="3"/>
+    <col width="24.28515625" customWidth="1" min="4" max="4"/>
+    <col width="26.140625" customWidth="1" min="5" max="5"/>
+    <col width="27.7109375" customWidth="1" min="6" max="6"/>
+    <col width="31.140625" customWidth="1" min="9" max="9"/>
+    <col width="8.5703125" customWidth="1" min="10" max="10"/>
+    <col width="24.28515625" customWidth="1" min="11" max="11"/>
+    <col width="28.85546875" customWidth="1" min="12" max="12"/>
+    <col width="29.140625" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1572,67 +1626,67 @@
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <f t="array" ref="D2:D2">IF(
+        <f t="array" ref="D2">IF(
     VLOOKUP(
         $A2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E2" s="25">
-        <f t="array" ref="E2:E2">IF(
+        <f t="array" ref="E2">IF(
     VLOOKUP(
         $A2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F2" s="25">
-        <f t="array" ref="F2:F2">IF(
+        <f t="array" ref="F2">IF(
     VLOOKUP(
         $A2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B2) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C2)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -1651,73 +1705,73 @@
         <v>2</v>
       </c>
       <c r="K2" s="25">
-        <f t="array" ref="K2:K2">IF(
+        <f t="array" ref="K2">IF(
     VLOOKUP(
         $H2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L2" s="25">
-        <f t="array" ref="L2:L2">IF(
+        <f t="array" ref="L2">IF(
     VLOOKUP(
         $H2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M2" s="25">
-        <f t="array" ref="M2:M2">IF(
+        <f t="array" ref="M2">IF(
     VLOOKUP(
         $H2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H2,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I2) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J2)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -1732,67 +1786,67 @@
         <v>1</v>
       </c>
       <c r="D3" s="25">
-        <f t="array" ref="D3:D3">IF(
+        <f t="array" ref="D3">IF(
     VLOOKUP(
         $A3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E3" s="25">
-        <f t="array" ref="E3:E3">IF(
+        <f t="array" ref="E3">IF(
     VLOOKUP(
         $A3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F3" s="25">
-        <f t="array" ref="F3:F3">IF(
+        <f t="array" ref="F3">IF(
     VLOOKUP(
         $A3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B3) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C3)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -1811,73 +1865,73 @@
         <v>3</v>
       </c>
       <c r="K3" s="25">
-        <f t="array" ref="K3:K3">IF(
+        <f t="array" ref="K3">IF(
     VLOOKUP(
         $H3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L3" s="25">
-        <f t="array" ref="L3:L3">IF(
+        <f t="array" ref="L3">IF(
     VLOOKUP(
         $H3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M3" s="25">
-        <f t="array" ref="M3:M3">IF(
+        <f t="array" ref="M3">IF(
     VLOOKUP(
         $H3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H3,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I3) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J3)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -1892,67 +1946,67 @@
         <v>1</v>
       </c>
       <c r="D4" s="25">
-        <f t="array" ref="D4:D4">IF(
+        <f t="array" ref="D4">IF(
     VLOOKUP(
         $A4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E4" s="25">
-        <f t="array" ref="E4:E4">IF(
+        <f t="array" ref="E4">IF(
     VLOOKUP(
         $A4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F4" s="25">
-        <f t="array" ref="F4:F4">IF(
+        <f t="array" ref="F4">IF(
     VLOOKUP(
         $A4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B4) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C4)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -1971,73 +2025,73 @@
         <v>4</v>
       </c>
       <c r="K4" s="25">
-        <f t="array" ref="K4:K4">IF(
+        <f t="array" ref="K4">IF(
     VLOOKUP(
         $H4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L4" s="25">
-        <f t="array" ref="L4:L4">IF(
+        <f t="array" ref="L4">IF(
     VLOOKUP(
         $H4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M4" s="25">
-        <f t="array" ref="M4:M4">IF(
+        <f t="array" ref="M4">IF(
     VLOOKUP(
         $H4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H4,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I4) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J4)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2052,67 +2106,67 @@
         <v>1</v>
       </c>
       <c r="D5" s="25">
-        <f t="array" ref="D5:D5">IF(
+        <f t="array" ref="D5">IF(
     VLOOKUP(
         $A5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E5" s="25">
-        <f t="array" ref="E5:E5">IF(
+        <f t="array" ref="E5">IF(
     VLOOKUP(
         $A5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F5" s="25">
-        <f t="array" ref="F5:F5">IF(
+        <f t="array" ref="F5">IF(
     VLOOKUP(
         $A5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B5) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C5)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -2131,73 +2185,73 @@
         <v>5</v>
       </c>
       <c r="K5" s="25">
-        <f t="array" ref="K5:K5">IF(
+        <f t="array" ref="K5">IF(
     VLOOKUP(
         $H5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L5" s="25">
-        <f t="array" ref="L5:L5">IF(
+        <f t="array" ref="L5">IF(
     VLOOKUP(
         $H5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M5" s="25">
-        <f t="array" ref="M5:M5">IF(
+        <f t="array" ref="M5">IF(
     VLOOKUP(
         $H5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H5,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I5) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J5)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2212,67 +2266,67 @@
         <v>1</v>
       </c>
       <c r="D6" s="25">
-        <f t="array" ref="D6:D6">IF(
+        <f t="array" ref="D6">IF(
     VLOOKUP(
         $A6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E6" s="25">
-        <f t="array" ref="E6:E6">IF(
+        <f t="array" ref="E6">IF(
     VLOOKUP(
         $A6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F6" s="25">
-        <f t="array" ref="F6:F6">IF(
+        <f t="array" ref="F6">IF(
     VLOOKUP(
         $A6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B6) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C6)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -2291,73 +2345,73 @@
         <v>6</v>
       </c>
       <c r="K6" s="25">
-        <f t="array" ref="K6:K6">IF(
+        <f t="array" ref="K6">IF(
     VLOOKUP(
         $H6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L6" s="25">
-        <f t="array" ref="L6:L6">IF(
+        <f t="array" ref="L6">IF(
     VLOOKUP(
         $H6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M6" s="25">
-        <f t="array" ref="M6:M6">IF(
+        <f t="array" ref="M6">IF(
     VLOOKUP(
         $H6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H6,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I6) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J6)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2372,67 +2426,67 @@
         <v>1</v>
       </c>
       <c r="D7" s="25">
-        <f t="array" ref="D7:D7">IF(
+        <f t="array" ref="D7">IF(
     VLOOKUP(
         $A7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E7" s="25">
-        <f t="array" ref="E7:E7">IF(
+        <f t="array" ref="E7">IF(
     VLOOKUP(
         $A7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F7" s="25">
-        <f t="array" ref="F7:F7">IF(
+        <f t="array" ref="F7">IF(
     VLOOKUP(
         $A7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B7) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C7)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -2451,73 +2505,73 @@
         <v>7</v>
       </c>
       <c r="K7" s="25">
-        <f t="array" ref="K7:K7">IF(
+        <f t="array" ref="K7">IF(
     VLOOKUP(
         $H7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L7" s="25">
-        <f t="array" ref="L7:L7">IF(
+        <f t="array" ref="L7">IF(
     VLOOKUP(
         $H7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M7" s="25">
-        <f t="array" ref="M7:M7">IF(
+        <f t="array" ref="M7">IF(
     VLOOKUP(
         $H7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H7,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I7) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J7)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2532,67 +2586,67 @@
         <v>1</v>
       </c>
       <c r="D8" s="25">
-        <f t="array" ref="D8:D8">IF(
+        <f t="array" ref="D8">IF(
     VLOOKUP(
         $A8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E8" s="25">
-        <f t="array" ref="E8:E8">IF(
+        <f t="array" ref="E8">IF(
     VLOOKUP(
         $A8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F8" s="25">
-        <f t="array" ref="F8:F8">IF(
+        <f t="array" ref="F8">IF(
     VLOOKUP(
         $A8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B8) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C8)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -2611,73 +2665,73 @@
         <v>8</v>
       </c>
       <c r="K8" s="25">
-        <f t="array" ref="K8:K8">IF(
+        <f t="array" ref="K8">IF(
     VLOOKUP(
         $H8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L8" s="25">
-        <f t="array" ref="L8:L8">IF(
+        <f t="array" ref="L8">IF(
     VLOOKUP(
         $H8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M8" s="25">
-        <f t="array" ref="M8:M8">IF(
+        <f t="array" ref="M8">IF(
     VLOOKUP(
         $H8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H8,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I8) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J8)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2692,67 +2746,67 @@
         <v>1</v>
       </c>
       <c r="D9" s="25">
-        <f t="array" ref="D9:D9">IF(
+        <f t="array" ref="D9">IF(
     VLOOKUP(
         $A9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E9" s="25">
-        <f t="array" ref="E9:E9">IF(
+        <f t="array" ref="E9">IF(
     VLOOKUP(
         $A9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F9" s="25">
-        <f t="array" ref="F9:F9">IF(
+        <f t="array" ref="F9">IF(
     VLOOKUP(
         $A9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B9) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C9)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -2771,73 +2825,73 @@
         <v>9</v>
       </c>
       <c r="K9" s="25">
-        <f t="array" ref="K9:K9">IF(
+        <f t="array" ref="K9">IF(
     VLOOKUP(
         $H9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L9" s="25">
-        <f t="array" ref="L9:L9">IF(
+        <f t="array" ref="L9">IF(
     VLOOKUP(
         $H9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M9" s="25">
-        <f t="array" ref="M9:M9">IF(
+        <f t="array" ref="M9">IF(
     VLOOKUP(
         $H9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H9,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I9) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J9)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -2852,67 +2906,67 @@
         <v>1</v>
       </c>
       <c r="D10" s="25">
-        <f t="array" ref="D10:D10">IF(
+        <f t="array" ref="D10">IF(
     VLOOKUP(
         $A10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E10" s="25">
-        <f t="array" ref="E10:E10">IF(
+        <f t="array" ref="E10">IF(
     VLOOKUP(
         $A10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F10" s="25">
-        <f t="array" ref="F10:F10">IF(
+        <f t="array" ref="F10">IF(
     VLOOKUP(
         $A10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B10) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C10)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -2931,73 +2985,73 @@
         <v>1</v>
       </c>
       <c r="K10" s="25">
-        <f t="array" ref="K10:K10">IF(
+        <f t="array" ref="K10">IF(
     VLOOKUP(
         $H10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L10" s="25">
-        <f t="array" ref="L10:L10">IF(
+        <f t="array" ref="L10">IF(
     VLOOKUP(
         $H10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M10" s="25">
-        <f t="array" ref="M10:M10">IF(
+        <f t="array" ref="M10">IF(
     VLOOKUP(
         $H10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H10,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I10) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J10)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3012,67 +3066,67 @@
         <v>1</v>
       </c>
       <c r="D11" s="25">
-        <f t="array" ref="D11:D11">IF(
+        <f t="array" ref="D11">IF(
     VLOOKUP(
         $A11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E11" s="25">
-        <f t="array" ref="E11:E11">IF(
+        <f t="array" ref="E11">IF(
     VLOOKUP(
         $A11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F11" s="25">
-        <f t="array" ref="F11:F11">IF(
+        <f t="array" ref="F11">IF(
     VLOOKUP(
         $A11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B11) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C11)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -3091,73 +3145,73 @@
         <v>1</v>
       </c>
       <c r="K11" s="25">
-        <f t="array" ref="K11:K11">IF(
+        <f t="array" ref="K11">IF(
     VLOOKUP(
         $H11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L11" s="25">
-        <f t="array" ref="L11:L11">IF(
+        <f t="array" ref="L11">IF(
     VLOOKUP(
         $H11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M11" s="25">
-        <f t="array" ref="M11:M11">IF(
+        <f t="array" ref="M11">IF(
     VLOOKUP(
         $H11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H11,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I11) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J11)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3172,67 +3226,67 @@
         <v>1</v>
       </c>
       <c r="D12" s="25">
-        <f t="array" ref="D12:D12">IF(
+        <f t="array" ref="D12">IF(
     VLOOKUP(
         $A12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E12" s="25">
-        <f t="array" ref="E12:E12">IF(
+        <f t="array" ref="E12">IF(
     VLOOKUP(
         $A12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F12" s="25">
-        <f t="array" ref="F12:F12">IF(
+        <f t="array" ref="F12">IF(
     VLOOKUP(
         $A12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B12) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C12)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -3251,73 +3305,73 @@
         <v>1</v>
       </c>
       <c r="K12" s="25">
-        <f t="array" ref="K12:K12">IF(
+        <f t="array" ref="K12">IF(
     VLOOKUP(
         $H12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L12" s="25">
-        <f t="array" ref="L12:L12">IF(
+        <f t="array" ref="L12">IF(
     VLOOKUP(
         $H12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M12" s="25">
-        <f t="array" ref="M12:M12">IF(
+        <f t="array" ref="M12">IF(
     VLOOKUP(
         $H12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H12,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I12) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J12)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3332,67 +3386,67 @@
         <v>1</v>
       </c>
       <c r="D13" s="25">
-        <f t="array" ref="D13:D13">IF(
+        <f t="array" ref="D13">IF(
     VLOOKUP(
         $A13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E13" s="25">
-        <f t="array" ref="E13:E13">IF(
+        <f t="array" ref="E13">IF(
     VLOOKUP(
         $A13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F13" s="25">
-        <f t="array" ref="F13:F13">IF(
+        <f t="array" ref="F13">IF(
     VLOOKUP(
         $A13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B13) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C13)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -3411,73 +3465,73 @@
         <v>1</v>
       </c>
       <c r="K13" s="25">
-        <f t="array" ref="K13:K13">IF(
+        <f t="array" ref="K13">IF(
     VLOOKUP(
         $H13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L13" s="25">
-        <f t="array" ref="L13:L13">IF(
+        <f t="array" ref="L13">IF(
     VLOOKUP(
         $H13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M13" s="25">
-        <f t="array" ref="M13:M13">IF(
+        <f t="array" ref="M13">IF(
     VLOOKUP(
         $H13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H13,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I13) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J13)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3492,67 +3546,67 @@
         <v>1</v>
       </c>
       <c r="D14" s="25">
-        <f t="array" ref="D14:D14">IF(
+        <f t="array" ref="D14">IF(
     VLOOKUP(
         $A14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E14" s="25">
-        <f t="array" ref="E14:E14">IF(
+        <f t="array" ref="E14">IF(
     VLOOKUP(
         $A14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F14" s="25">
-        <f t="array" ref="F14:F14">IF(
+        <f t="array" ref="F14">IF(
     VLOOKUP(
         $A14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B14) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C14)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -3571,73 +3625,73 @@
         <v>1</v>
       </c>
       <c r="K14" s="25">
-        <f t="array" ref="K14:K14">IF(
+        <f t="array" ref="K14">IF(
     VLOOKUP(
         $H14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L14" s="25">
-        <f t="array" ref="L14:L14">IF(
+        <f t="array" ref="L14">IF(
     VLOOKUP(
         $H14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M14" s="25">
-        <f t="array" ref="M14:M14">IF(
+        <f t="array" ref="M14">IF(
     VLOOKUP(
         $H14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H14,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I14) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J14)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="24" t="inlineStr">
         <is>
           <t>Gabriel</t>
@@ -3652,67 +3706,67 @@
         <v>1</v>
       </c>
       <c r="D15" s="25">
-        <f t="array" ref="D15:D15">IF(
+        <f t="array" ref="D15">IF(
     VLOOKUP(
         $A15,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A15,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E15" s="25">
-        <f t="array" ref="E15:E15">IF(
+        <f t="array" ref="E15">IF(
     VLOOKUP(
         $A15,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A15,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F15" s="25">
-        <f t="array" ref="F15:F15">IF(
+        <f t="array" ref="F15">IF(
     VLOOKUP(
         $A15,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A15,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B15) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C15)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -3781,7 +3835,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -3796,67 +3850,67 @@
         <v>1</v>
       </c>
       <c r="D18" s="25">
-        <f t="array" ref="D18:D18">IF(
+        <f t="array" ref="D18">IF(
     VLOOKUP(
         $A18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E18" s="25">
-        <f t="array" ref="E18:E18">IF(
+        <f t="array" ref="E18">IF(
     VLOOKUP(
         $A18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F18" s="25">
-        <f t="array" ref="F18:F18">IF(
+        <f t="array" ref="F18">IF(
     VLOOKUP(
         $A18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B18) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C18)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -3875,73 +3929,73 @@
         <v>1</v>
       </c>
       <c r="K18" s="25">
-        <f t="array" ref="K18:K18">IF(
+        <f t="array" ref="K18">IF(
     VLOOKUP(
         $H18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L18" s="25">
-        <f t="array" ref="L18:L18">IF(
+        <f t="array" ref="L18">IF(
     VLOOKUP(
         $H18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M18" s="25">
-        <f t="array" ref="M18:M18">IF(
+        <f t="array" ref="M18">IF(
     VLOOKUP(
         $H18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H18,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I18) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J18)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -3956,67 +4010,67 @@
         <v>1</v>
       </c>
       <c r="D19" s="25">
-        <f t="array" ref="D19:D19">IF(
+        <f t="array" ref="D19">IF(
     VLOOKUP(
         $A19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E19" s="25">
-        <f t="array" ref="E19:E19">IF(
+        <f t="array" ref="E19">IF(
     VLOOKUP(
         $A19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F19" s="25">
-        <f t="array" ref="F19:F19">IF(
+        <f t="array" ref="F19">IF(
     VLOOKUP(
         $A19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B19) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C19)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -4035,73 +4089,73 @@
         <v>1</v>
       </c>
       <c r="K19" s="25">
-        <f t="array" ref="K19:K19">IF(
+        <f t="array" ref="K19">IF(
     VLOOKUP(
         $H19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L19" s="25">
-        <f t="array" ref="L19:L19">IF(
+        <f t="array" ref="L19">IF(
     VLOOKUP(
         $H19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M19" s="25">
-        <f t="array" ref="M19:M19">IF(
+        <f t="array" ref="M19">IF(
     VLOOKUP(
         $H19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H19,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I19) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J19)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4116,67 +4170,67 @@
         <v>1</v>
       </c>
       <c r="D20" s="25">
-        <f t="array" ref="D20:D20">IF(
+        <f t="array" ref="D20">IF(
     VLOOKUP(
         $A20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E20" s="25">
-        <f t="array" ref="E20:E20">IF(
+        <f t="array" ref="E20">IF(
     VLOOKUP(
         $A20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F20" s="25">
-        <f t="array" ref="F20:F20">IF(
+        <f t="array" ref="F20">IF(
     VLOOKUP(
         $A20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B20) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C20)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -4195,73 +4249,73 @@
         <v>1</v>
       </c>
       <c r="K20" s="25">
-        <f t="array" ref="K20:K20">IF(
+        <f t="array" ref="K20">IF(
     VLOOKUP(
         $H20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L20" s="25">
-        <f t="array" ref="L20:L20">IF(
+        <f t="array" ref="L20">IF(
     VLOOKUP(
         $H20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M20" s="25">
-        <f t="array" ref="M20:M20">IF(
+        <f t="array" ref="M20">IF(
     VLOOKUP(
         $H20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H20,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I20) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J20)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4276,67 +4330,67 @@
         <v>1</v>
       </c>
       <c r="D21" s="25">
-        <f t="array" ref="D21:D21">IF(
+        <f t="array" ref="D21">IF(
     VLOOKUP(
         $A21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E21" s="25">
-        <f t="array" ref="E21:E21">IF(
+        <f t="array" ref="E21">IF(
     VLOOKUP(
         $A21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F21" s="25">
-        <f t="array" ref="F21:F21">IF(
+        <f t="array" ref="F21">IF(
     VLOOKUP(
         $A21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B21) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C21)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -4355,73 +4409,73 @@
         <v>1</v>
       </c>
       <c r="K21" s="25">
-        <f t="array" ref="K21:K21">IF(
+        <f t="array" ref="K21">IF(
     VLOOKUP(
         $H21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L21" s="25">
-        <f t="array" ref="L21:L21">IF(
+        <f t="array" ref="L21">IF(
     VLOOKUP(
         $H21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M21" s="25">
-        <f t="array" ref="M21:M21">IF(
+        <f t="array" ref="M21">IF(
     VLOOKUP(
         $H21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H21,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I21) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J21)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4436,67 +4490,67 @@
         <v>1</v>
       </c>
       <c r="D22" s="25">
-        <f t="array" ref="D22:D22">IF(
+        <f t="array" ref="D22">IF(
     VLOOKUP(
         $A22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E22" s="25">
-        <f t="array" ref="E22:E22">IF(
+        <f t="array" ref="E22">IF(
     VLOOKUP(
         $A22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F22" s="25">
-        <f t="array" ref="F22:F22">IF(
+        <f t="array" ref="F22">IF(
     VLOOKUP(
         $A22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B22) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C22)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -4515,73 +4569,73 @@
         <v>1</v>
       </c>
       <c r="K22" s="25">
-        <f t="array" ref="K22:K22">IF(
+        <f t="array" ref="K22">IF(
     VLOOKUP(
         $H22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L22" s="25">
-        <f t="array" ref="L22:L22">IF(
+        <f t="array" ref="L22">IF(
     VLOOKUP(
         $H22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M22" s="25">
-        <f t="array" ref="M22:M22">IF(
+        <f t="array" ref="M22">IF(
     VLOOKUP(
         $H22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H22,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I22) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J22)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4596,67 +4650,67 @@
         <v>1</v>
       </c>
       <c r="D23" s="25">
-        <f t="array" ref="D23:D23">IF(
+        <f t="array" ref="D23">IF(
     VLOOKUP(
         $A23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E23" s="25">
-        <f t="array" ref="E23:E23">IF(
+        <f t="array" ref="E23">IF(
     VLOOKUP(
         $A23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F23" s="25">
-        <f t="array" ref="F23:F23">IF(
+        <f t="array" ref="F23">IF(
     VLOOKUP(
         $A23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B23) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C23)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -4675,73 +4729,73 @@
         <v>2</v>
       </c>
       <c r="K23" s="25">
-        <f t="array" ref="K23:K23">IF(
+        <f t="array" ref="K23">IF(
     VLOOKUP(
         $H23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L23" s="25">
-        <f t="array" ref="L23:L23">IF(
+        <f t="array" ref="L23">IF(
     VLOOKUP(
         $H23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M23" s="25">
-        <f t="array" ref="M23:M23">IF(
+        <f t="array" ref="M23">IF(
     VLOOKUP(
         $H23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H23,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I23) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J23)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4756,67 +4810,67 @@
         <v>1</v>
       </c>
       <c r="D24" s="25">
-        <f t="array" ref="D24:D24">IF(
+        <f t="array" ref="D24">IF(
     VLOOKUP(
         $A24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E24" s="25">
-        <f t="array" ref="E24:E24">IF(
+        <f t="array" ref="E24">IF(
     VLOOKUP(
         $A24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F24" s="25">
-        <f t="array" ref="F24:F24">IF(
+        <f t="array" ref="F24">IF(
     VLOOKUP(
         $A24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B24) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C24)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -4835,73 +4889,73 @@
         <v>1</v>
       </c>
       <c r="K24" s="25">
-        <f t="array" ref="K24:K24">IF(
+        <f t="array" ref="K24">IF(
     VLOOKUP(
         $H24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L24" s="25">
-        <f t="array" ref="L24:L24">IF(
+        <f t="array" ref="L24">IF(
     VLOOKUP(
         $H24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M24" s="25">
-        <f t="array" ref="M24:M24">IF(
+        <f t="array" ref="M24">IF(
     VLOOKUP(
         $H24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H24,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I24) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J24)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -4916,67 +4970,67 @@
         <v>1</v>
       </c>
       <c r="D25" s="25">
-        <f t="array" ref="D25:D25">IF(
+        <f t="array" ref="D25">IF(
     VLOOKUP(
         $A25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E25" s="25">
-        <f t="array" ref="E25:E25">IF(
+        <f t="array" ref="E25">IF(
     VLOOKUP(
         $A25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F25" s="25">
-        <f t="array" ref="F25:F25">IF(
+        <f t="array" ref="F25">IF(
     VLOOKUP(
         $A25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B25) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C25)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -4995,73 +5049,73 @@
         <v>1</v>
       </c>
       <c r="K25" s="25">
-        <f t="array" ref="K25:K25">IF(
+        <f t="array" ref="K25">IF(
     VLOOKUP(
         $H25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L25" s="25">
-        <f t="array" ref="L25:L25">IF(
+        <f t="array" ref="L25">IF(
     VLOOKUP(
         $H25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M25" s="25">
-        <f t="array" ref="M25:M25">IF(
+        <f t="array" ref="M25">IF(
     VLOOKUP(
         $H25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H25,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I25) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J25)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5076,67 +5130,67 @@
         <v>1</v>
       </c>
       <c r="D26" s="25">
-        <f t="array" ref="D26:D26">IF(
+        <f t="array" ref="D26">IF(
     VLOOKUP(
         $A26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E26" s="25">
-        <f t="array" ref="E26:E26">IF(
+        <f t="array" ref="E26">IF(
     VLOOKUP(
         $A26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F26" s="25">
-        <f t="array" ref="F26:F26">IF(
+        <f t="array" ref="F26">IF(
     VLOOKUP(
         $A26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B26) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C26)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -5155,73 +5209,73 @@
         <v>1</v>
       </c>
       <c r="K26" s="25">
-        <f t="array" ref="K26:K26">IF(
+        <f t="array" ref="K26">IF(
     VLOOKUP(
         $H26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L26" s="25">
-        <f t="array" ref="L26:L26">IF(
+        <f t="array" ref="L26">IF(
     VLOOKUP(
         $H26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M26" s="25">
-        <f t="array" ref="M26:M26">IF(
+        <f t="array" ref="M26">IF(
     VLOOKUP(
         $H26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H26,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I26) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J26)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5236,67 +5290,67 @@
         <v>1</v>
       </c>
       <c r="D27" s="25">
-        <f t="array" ref="D27:D27">IF(
+        <f t="array" ref="D27">IF(
     VLOOKUP(
         $A27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E27" s="25">
-        <f t="array" ref="E27:E27">IF(
+        <f t="array" ref="E27">IF(
     VLOOKUP(
         $A27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F27" s="25">
-        <f t="array" ref="F27:F27">IF(
+        <f t="array" ref="F27">IF(
     VLOOKUP(
         $A27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B27) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C27)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -5315,73 +5369,73 @@
         <v>1</v>
       </c>
       <c r="K27" s="25">
-        <f t="array" ref="K27:K27">IF(
+        <f t="array" ref="K27">IF(
     VLOOKUP(
         $H27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L27" s="25">
-        <f t="array" ref="L27:L27">IF(
+        <f t="array" ref="L27">IF(
     VLOOKUP(
         $H27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M27" s="25">
-        <f t="array" ref="M27:M27">IF(
+        <f t="array" ref="M27">IF(
     VLOOKUP(
         $H27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H27,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I27) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J27)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5396,67 +5450,67 @@
         <v>1</v>
       </c>
       <c r="D28" s="25">
-        <f t="array" ref="D28:D28">IF(
+        <f t="array" ref="D28">IF(
     VLOOKUP(
         $A28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E28" s="25">
-        <f t="array" ref="E28:E28">IF(
+        <f t="array" ref="E28">IF(
     VLOOKUP(
         $A28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F28" s="25">
-        <f t="array" ref="F28:F28">IF(
+        <f t="array" ref="F28">IF(
     VLOOKUP(
         $A28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B28) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C28)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -5475,73 +5529,73 @@
         <v>1</v>
       </c>
       <c r="K28" s="25">
-        <f t="array" ref="K28:K28">IF(
+        <f t="array" ref="K28">IF(
     VLOOKUP(
         $H28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L28" s="25">
-        <f t="array" ref="L28:L28">IF(
+        <f t="array" ref="L28">IF(
     VLOOKUP(
         $H28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M28" s="25">
-        <f t="array" ref="M28:M28">IF(
+        <f t="array" ref="M28">IF(
     VLOOKUP(
         $H28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H28,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I28) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J28)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5556,67 +5610,67 @@
         <v>1</v>
       </c>
       <c r="D29" s="25">
-        <f t="array" ref="D29:D29">IF(
+        <f t="array" ref="D29">IF(
     VLOOKUP(
         $A29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E29" s="25">
-        <f t="array" ref="E29:E29">IF(
+        <f t="array" ref="E29">IF(
     VLOOKUP(
         $A29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F29" s="25">
-        <f t="array" ref="F29:F29">IF(
+        <f t="array" ref="F29">IF(
     VLOOKUP(
         $A29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B29) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C29)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -5635,73 +5689,73 @@
         <v>1</v>
       </c>
       <c r="K29" s="25">
-        <f t="array" ref="K29:K29">IF(
+        <f t="array" ref="K29">IF(
     VLOOKUP(
         $H29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L29" s="25">
-        <f t="array" ref="L29:L29">IF(
+        <f t="array" ref="L29">IF(
     VLOOKUP(
         $H29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M29" s="25">
-        <f t="array" ref="M29:M29">IF(
+        <f t="array" ref="M29">IF(
     VLOOKUP(
         $H29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H29,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I29) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J29)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5716,67 +5770,67 @@
         <v>1</v>
       </c>
       <c r="D30" s="25">
-        <f t="array" ref="D30:D30">IF(
+        <f t="array" ref="D30">IF(
     VLOOKUP(
         $A30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E30" s="25">
-        <f t="array" ref="E30:E30">IF(
+        <f t="array" ref="E30">IF(
     VLOOKUP(
         $A30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F30" s="25">
-        <f t="array" ref="F30:F30">IF(
+        <f t="array" ref="F30">IF(
     VLOOKUP(
         $A30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B30) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C30)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -5795,73 +5849,73 @@
         <v>1</v>
       </c>
       <c r="K30" s="25">
-        <f t="array" ref="K30:K30">IF(
+        <f t="array" ref="K30">IF(
     VLOOKUP(
         $H30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L30" s="25">
-        <f t="array" ref="L30:L30">IF(
+        <f t="array" ref="L30">IF(
     VLOOKUP(
         $H30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M30" s="25">
-        <f t="array" ref="M30:M30">IF(
+        <f t="array" ref="M30">IF(
     VLOOKUP(
         $H30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H30,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I30) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J30)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="30" t="inlineStr">
         <is>
           <t>Bianca</t>
@@ -5876,67 +5930,67 @@
         <v>1</v>
       </c>
       <c r="D31" s="25">
-        <f t="array" ref="D31:D31">IF(
+        <f t="array" ref="D31">IF(
     VLOOKUP(
         $A31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E31" s="25">
-        <f t="array" ref="E31:E31">IF(
+        <f t="array" ref="E31">IF(
     VLOOKUP(
         $A31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F31" s="25">
-        <f t="array" ref="F31:F31">IF(
+        <f t="array" ref="F31">IF(
     VLOOKUP(
         $A31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B31) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C31)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -5955,67 +6009,67 @@
         <v>1</v>
       </c>
       <c r="K31" s="25">
-        <f t="array" ref="K31:K31">IF(
+        <f t="array" ref="K31">IF(
     VLOOKUP(
         $H31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;K$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;K$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;K$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="L31" s="25">
-        <f t="array" ref="L31:L31">IF(
+        <f t="array" ref="L31">IF(
     VLOOKUP(
         $H31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;L$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;L$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;L$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="M31" s="25">
-        <f t="array" ref="M31:M31">IF(
+        <f t="array" ref="M31">IF(
     VLOOKUP(
         $H31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $H31,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;M$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;M$1&amp;"'!B2:B1000")=$I31) * (INDIRECT("'"&amp;M$1&amp;"'!C2:C1000")=$J31)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -6054,7 +6108,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34">
       <c r="A34" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6069,73 +6123,73 @@
         <v>1</v>
       </c>
       <c r="D34" s="25">
-        <f t="array" ref="D34:D34">IF(
+        <f t="array" ref="D34">IF(
     VLOOKUP(
         $A34,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A34,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E34" s="25">
-        <f t="array" ref="E34:E34">IF(
+        <f t="array" ref="E34">IF(
     VLOOKUP(
         $A34,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A34,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F34" s="25">
-        <f t="array" ref="F34:F34">IF(
+        <f t="array" ref="F34">IF(
     VLOOKUP(
         $A34,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A34,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B34) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C34)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6150,73 +6204,73 @@
         <v>1</v>
       </c>
       <c r="D35" s="25">
-        <f t="array" ref="D35:D35">IF(
+        <f t="array" ref="D35">IF(
     VLOOKUP(
         $A35,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A35,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E35" s="25">
-        <f t="array" ref="E35:E35">IF(
+        <f t="array" ref="E35">IF(
     VLOOKUP(
         $A35,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A35,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F35" s="25">
-        <f t="array" ref="F35:F35">IF(
+        <f t="array" ref="F35">IF(
     VLOOKUP(
         $A35,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A35,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B35) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C35)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6231,73 +6285,73 @@
         <v>2</v>
       </c>
       <c r="D36" s="25">
-        <f t="array" ref="D36:D36">IF(
+        <f t="array" ref="D36">IF(
     VLOOKUP(
         $A36,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A36,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E36" s="25">
-        <f t="array" ref="E36:E36">IF(
+        <f t="array" ref="E36">IF(
     VLOOKUP(
         $A36,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A36,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F36" s="25">
-        <f t="array" ref="F36:F36">IF(
+        <f t="array" ref="F36">IF(
     VLOOKUP(
         $A36,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A36,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B36) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C36)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6312,73 +6366,73 @@
         <v>3</v>
       </c>
       <c r="D37" s="25">
-        <f t="array" ref="D37:D37">IF(
+        <f t="array" ref="D37">IF(
     VLOOKUP(
         $A37,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A37,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E37" s="25">
-        <f t="array" ref="E37:E37">IF(
+        <f t="array" ref="E37">IF(
     VLOOKUP(
         $A37,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A37,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F37" s="25">
-        <f t="array" ref="F37:F37">IF(
+        <f t="array" ref="F37">IF(
     VLOOKUP(
         $A37,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A37,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B37) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C37)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6393,73 +6447,73 @@
         <v>4</v>
       </c>
       <c r="D38" s="25">
-        <f t="array" ref="D38:D38">IF(
+        <f t="array" ref="D38">IF(
     VLOOKUP(
         $A38,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A38,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E38" s="25">
-        <f t="array" ref="E38:E38">IF(
+        <f t="array" ref="E38">IF(
     VLOOKUP(
         $A38,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A38,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F38" s="25">
-        <f t="array" ref="F38:F38">IF(
+        <f t="array" ref="F38">IF(
     VLOOKUP(
         $A38,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A38,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B38) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C38)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6474,73 +6528,73 @@
         <v>5</v>
       </c>
       <c r="D39" s="25">
-        <f t="array" ref="D39:D39">IF(
+        <f t="array" ref="D39">IF(
     VLOOKUP(
         $A39,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A39,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E39" s="25">
-        <f t="array" ref="E39:E39">IF(
+        <f t="array" ref="E39">IF(
     VLOOKUP(
         $A39,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A39,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F39" s="25">
-        <f t="array" ref="F39:F39">IF(
+        <f t="array" ref="F39">IF(
     VLOOKUP(
         $A39,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A39,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B39) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C39)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6555,73 +6609,73 @@
         <v>6</v>
       </c>
       <c r="D40" s="25">
-        <f t="array" ref="D40:D40">IF(
+        <f t="array" ref="D40">IF(
     VLOOKUP(
         $A40,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A40,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E40" s="25">
-        <f t="array" ref="E40:E40">IF(
+        <f t="array" ref="E40">IF(
     VLOOKUP(
         $A40,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A40,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F40" s="25">
-        <f t="array" ref="F40:F40">IF(
+        <f t="array" ref="F40">IF(
     VLOOKUP(
         $A40,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A40,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B40) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C40)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6636,73 +6690,73 @@
         <v>1</v>
       </c>
       <c r="D41" s="25">
-        <f t="array" ref="D41:D41">IF(
+        <f t="array" ref="D41">IF(
     VLOOKUP(
         $A41,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A41,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E41" s="25">
-        <f t="array" ref="E41:E41">IF(
+        <f t="array" ref="E41">IF(
     VLOOKUP(
         $A41,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A41,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F41" s="25">
-        <f t="array" ref="F41:F41">IF(
+        <f t="array" ref="F41">IF(
     VLOOKUP(
         $A41,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A41,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B41) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C41)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6717,73 +6771,73 @@
         <v>1</v>
       </c>
       <c r="D42" s="25">
-        <f t="array" ref="D42:D42">IF(
+        <f t="array" ref="D42">IF(
     VLOOKUP(
         $A42,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A42,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E42" s="25">
-        <f t="array" ref="E42:E42">IF(
+        <f t="array" ref="E42">IF(
     VLOOKUP(
         $A42,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A42,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F42" s="25">
-        <f t="array" ref="F42:F42">IF(
+        <f t="array" ref="F42">IF(
     VLOOKUP(
         $A42,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A42,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B42) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C42)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6798,73 +6852,73 @@
         <v>1</v>
       </c>
       <c r="D43" s="25">
-        <f t="array" ref="D43:D43">IF(
+        <f t="array" ref="D43">IF(
     VLOOKUP(
         $A43,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A43,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E43" s="25">
-        <f t="array" ref="E43:E43">IF(
+        <f t="array" ref="E43">IF(
     VLOOKUP(
         $A43,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A43,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F43" s="25">
-        <f t="array" ref="F43:F43">IF(
+        <f t="array" ref="F43">IF(
     VLOOKUP(
         $A43,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A43,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B43) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C43)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6879,73 +6933,73 @@
         <v>1</v>
       </c>
       <c r="D44" s="25">
-        <f t="array" ref="D44:D44">IF(
+        <f t="array" ref="D44">IF(
     VLOOKUP(
         $A44,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A44,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E44" s="25">
-        <f t="array" ref="E44:E44">IF(
+        <f t="array" ref="E44">IF(
     VLOOKUP(
         $A44,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A44,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F44" s="25">
-        <f t="array" ref="F44:F44">IF(
+        <f t="array" ref="F44">IF(
     VLOOKUP(
         $A44,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A44,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B44) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C44)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -6960,73 +7014,73 @@
         <v>1</v>
       </c>
       <c r="D45" s="25">
-        <f t="array" ref="D45:D45">IF(
+        <f t="array" ref="D45">IF(
     VLOOKUP(
         $A45,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A45,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E45" s="25">
-        <f t="array" ref="E45:E45">IF(
+        <f t="array" ref="E45">IF(
     VLOOKUP(
         $A45,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A45,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F45" s="25">
-        <f t="array" ref="F45:F45">IF(
+        <f t="array" ref="F45">IF(
     VLOOKUP(
         $A45,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A45,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B45) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C45)
         ),
         5,
-        FALSE()
-    )
-)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
+        FALSE
+    )
+)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="32" t="inlineStr">
         <is>
           <t>Valquiria</t>
@@ -7041,67 +7095,67 @@
         <v>1</v>
       </c>
       <c r="D46" s="25">
-        <f t="array" ref="D46:D46">IF(
+        <f t="array" ref="D46">IF(
     VLOOKUP(
         $A46,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A46,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;D$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;D$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;D$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="E46" s="25">
-        <f t="array" ref="E46:E46">IF(
+        <f t="array" ref="E46">IF(
     VLOOKUP(
         $A46,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A46,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;E$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;E$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;E$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
       </c>
       <c r="F46" s="25">
-        <f t="array" ref="F46:F46">IF(
+        <f t="array" ref="F46">IF(
     VLOOKUP(
         $A46,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE()
+        FALSE
     )=0,
     "",
     VLOOKUP(
         $A46,
-        _xlfn._xlws.filter(
+        _xlfn._xlws.FILTER(
             INDIRECT("'"&amp;F$1&amp;"'!A2:E1000"), (INDIRECT("'"&amp;F$1&amp;"'!B2:B1000")=$B46) * (INDIRECT("'"&amp;F$1&amp;"'!C2:C1000")=$C46)
         ),
         5,
-        FALSE()
+        FALSE
     )
 )</f>
         <v/>
@@ -7109,91 +7163,91 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" rank="0" priority="2" equalAverage="0" operator="containsText" aboveAverage="0" dxfId="0" text="Atrasado" percent="0" bottom="0">
+    <cfRule type="containsText" priority="33" operator="containsText" dxfId="0" text="Atrasado">
       <formula>NOT(ISERROR(SEARCH("Atrasado",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F15 K2:M14">
-    <cfRule type="cellIs" rank="0" priority="3" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="4" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="5" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="31" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="6" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="32" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="cellIs" rank="0" priority="7" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="8" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="26" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="9" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="10" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="28" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="cellIs" rank="0" priority="11" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="12" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="13" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="14" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F31">
-    <cfRule type="cellIs" rank="0" priority="15" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="16" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="17" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="18" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:F46">
-    <cfRule type="cellIs" rank="0" priority="19" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="20" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="21" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="22" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:M31">
-    <cfRule type="cellIs" rank="0" priority="23" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
       <formula>"Duplicado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="24" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="2">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="25" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="0">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" rank="0" priority="26" equalAverage="0" operator="equal" aboveAverage="0" dxfId="3" text="" percent="0" bottom="0">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3">
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7307,12 +7361,12 @@
       </c>
       <c r="E2" s="36" t="inlineStr">
         <is>
-          <t>Duplicado</t>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F2" s="35" t="inlineStr">
         <is>
-          <t>09/07/2025, 01/01/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="G2" s="37" t="inlineStr">
@@ -7322,7 +7376,7 @@
       </c>
       <c r="H2" s="35" t="inlineStr">
         <is>
-          <t>ESTA CERTO</t>
+          <t>correções em: Qual a despesa anual com os serviços de coleta (convencional, seletiva) no município? se não ok</t>
         </is>
       </c>
       <c r="I2" s="35" t="n"/>
@@ -7391,7 +7445,7 @@
           <t>Gisele Cássia Tamparowsky de Oliveira</t>
         </is>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7434,7 +7488,7 @@
           <t>Marcos Gabriel Franciosi Borges</t>
         </is>
       </c>
-      <c r="E5" s="41" t="inlineStr">
+      <c r="E5" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7477,7 +7531,7 @@
           <t>Geni Rodrigues Morais / Chayla Bianca Gazoli</t>
         </is>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7520,7 +7574,7 @@
           <t>Solange Maria Masqueti</t>
         </is>
       </c>
-      <c r="E7" s="41" t="inlineStr">
+      <c r="E7" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7549,7 +7603,7 @@
       <c r="K7" s="35" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7567,7 +7621,7 @@
           <t>Cristiane Petry Vieira</t>
         </is>
       </c>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="E8" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7653,7 +7707,7 @@
           <t>Tatiane Girardi</t>
         </is>
       </c>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="E10" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -7678,7 +7732,7 @@
       <c r="K10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="42" t="inlineStr">
+      <c r="A11" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7696,7 +7750,7 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E11" s="36" t="inlineStr">
+      <c r="E11" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7721,7 +7775,7 @@
       <c r="K11" s="35" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="42" t="inlineStr">
+      <c r="A12" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7739,7 +7793,7 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E12" s="36" t="inlineStr">
+      <c r="E12" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7764,7 +7818,7 @@
       <c r="K12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="42" t="inlineStr">
+      <c r="A13" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7782,7 +7836,7 @@
           <t>Eduarda Rohden Donasolo</t>
         </is>
       </c>
-      <c r="E13" s="36" t="inlineStr">
+      <c r="E13" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7807,7 +7861,7 @@
       <c r="K13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="42" t="inlineStr">
+      <c r="A14" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7825,7 +7879,7 @@
           <t>Mauricio Pinto de Lima</t>
         </is>
       </c>
-      <c r="E14" s="36" t="inlineStr">
+      <c r="E14" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7850,7 +7904,7 @@
       <c r="K14" s="35" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="inlineStr">
+      <c r="A15" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7864,7 +7918,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="35" t="n"/>
-      <c r="E15" s="36" t="inlineStr">
+      <c r="E15" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7889,7 +7943,7 @@
       <c r="K15" s="35" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="inlineStr">
+      <c r="A16" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -7907,7 +7961,7 @@
           <t>Marcelo Merlini</t>
         </is>
       </c>
-      <c r="E16" s="36" t="inlineStr">
+      <c r="E16" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -7993,7 +8047,7 @@
           <t>Douglas de Mattia / Alvaro Rodrigues</t>
         </is>
       </c>
-      <c r="E18" s="41" t="inlineStr">
+      <c r="E18" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8075,7 +8129,7 @@
           <t>Bruna Schneider Guimarães</t>
         </is>
       </c>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="E20" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8118,7 +8172,7 @@
           <t>Keilla Avezedo</t>
         </is>
       </c>
-      <c r="E21" s="41" t="inlineStr">
+      <c r="E21" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8182,7 +8236,7 @@
       <c r="K22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="inlineStr">
+      <c r="A23" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -8200,7 +8254,7 @@
           <t>Thiago Varaschim Cenci</t>
         </is>
       </c>
-      <c r="E23" s="41" t="inlineStr">
+      <c r="E23" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8633,7 +8687,7 @@
           <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
-      <c r="E34" s="36" t="inlineStr">
+      <c r="E34" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -8680,7 +8734,7 @@
           <t>Kelly Jackeline Silva do Valle</t>
         </is>
       </c>
-      <c r="E35" s="41" t="inlineStr">
+      <c r="E35" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8727,7 +8781,7 @@
           <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
-      <c r="E36" s="41" t="inlineStr">
+      <c r="E36" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8757,7 +8811,7 @@
       <c r="K36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="inlineStr">
+      <c r="A37" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -8775,7 +8829,7 @@
           <t>Eliane Borin</t>
         </is>
       </c>
-      <c r="E37" s="41" t="inlineStr">
+      <c r="E37" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8822,7 +8876,7 @@
           <t>Tatiana schrard</t>
         </is>
       </c>
-      <c r="E38" s="41" t="inlineStr">
+      <c r="E38" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8847,7 +8901,7 @@
       <c r="K38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="42" t="inlineStr">
+      <c r="A39" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -8865,7 +8919,7 @@
           <t>César Piva Glinglani</t>
         </is>
       </c>
-      <c r="E39" s="41" t="inlineStr">
+      <c r="E39" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8947,7 +9001,7 @@
           <t>Marcos José Chaves</t>
         </is>
       </c>
-      <c r="E41" s="41" t="inlineStr">
+      <c r="E41" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -8990,7 +9044,7 @@
           <t>Diego Matheus Reinicke</t>
         </is>
       </c>
-      <c r="E42" s="41" t="inlineStr">
+      <c r="E42" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9072,7 +9126,7 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E44" s="41" t="inlineStr">
+      <c r="E44" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9115,7 +9169,7 @@
           <t>Natielly Pereira Ochoa</t>
         </is>
       </c>
-      <c r="E45" s="41" t="inlineStr">
+      <c r="E45" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9201,7 +9255,7 @@
           <t>Luciane Spies</t>
         </is>
       </c>
-      <c r="E47" s="41" t="inlineStr">
+      <c r="E47" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9265,7 +9319,7 @@
       <c r="K48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="42" t="inlineStr">
+      <c r="A49" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -9283,7 +9337,7 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E49" s="41" t="inlineStr">
+      <c r="E49" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9326,7 +9380,7 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E50" s="41" t="inlineStr">
+      <c r="E50" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9373,7 +9427,7 @@
           <t>Gabriela Carvalho / Ivan Gonçalves da Silva</t>
         </is>
       </c>
-      <c r="E51" s="41" t="inlineStr">
+      <c r="E51" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9459,7 +9513,7 @@
           <t>Jaqueline Vanelli</t>
         </is>
       </c>
-      <c r="E53" s="41" t="inlineStr">
+      <c r="E53" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9506,7 +9560,7 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E54" s="41" t="inlineStr">
+      <c r="E54" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9553,7 +9607,7 @@
           <t>Ana Paula Romagnoli</t>
         </is>
       </c>
-      <c r="E55" s="41" t="inlineStr">
+      <c r="E55" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9596,7 +9650,7 @@
           <t>Alexandro Schaparini</t>
         </is>
       </c>
-      <c r="E56" s="41" t="inlineStr">
+      <c r="E56" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9678,7 +9732,7 @@
           <t>Ana Carolina Peterle Ribeiro</t>
         </is>
       </c>
-      <c r="E58" s="41" t="inlineStr">
+      <c r="E58" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9721,7 +9775,7 @@
           <t>Taiane Amélia Mondardo</t>
         </is>
       </c>
-      <c r="E59" s="41" t="inlineStr">
+      <c r="E59" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9768,7 +9822,7 @@
           <t>Regiane Lucia Pereira</t>
         </is>
       </c>
-      <c r="E60" s="41" t="inlineStr">
+      <c r="E60" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9815,7 +9869,7 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E61" s="41" t="inlineStr">
+      <c r="E61" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9862,7 +9916,7 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E62" s="41" t="inlineStr">
+      <c r="E62" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9905,7 +9959,7 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E63" s="41" t="inlineStr">
+      <c r="E63" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -9948,7 +10002,7 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E64" s="36" t="inlineStr">
+      <c r="E64" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -10030,7 +10084,7 @@
           <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
-      <c r="E66" s="41" t="inlineStr">
+      <c r="E66" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10059,7 +10113,7 @@
       <c r="K66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="42" t="inlineStr">
+      <c r="A67" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10077,7 +10131,7 @@
           <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
-      <c r="E67" s="41" t="inlineStr">
+      <c r="E67" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10106,7 +10160,7 @@
       <c r="K67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="42" t="inlineStr">
+      <c r="A68" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10339,7 +10393,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B2&amp;C2, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E2" s="41" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10385,7 +10439,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="41" t="inlineStr">
+      <c r="E3" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10431,7 +10485,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10473,7 +10527,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="41" t="inlineStr">
+      <c r="E5" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10519,7 +10573,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10561,7 +10615,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="41" t="inlineStr">
+      <c r="E7" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10590,7 +10644,7 @@
       <c r="K7" s="35" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10607,7 +10661,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B8&amp;C8, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="E8" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10687,7 +10741,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="E10" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10712,7 +10766,7 @@
       <c r="K10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="42" t="inlineStr">
+      <c r="A11" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10729,7 +10783,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="41" t="inlineStr">
+      <c r="E11" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10754,7 +10808,7 @@
       <c r="K11" s="35" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="42" t="inlineStr">
+      <c r="A12" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10771,7 +10825,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="41" t="inlineStr">
+      <c r="E12" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10796,7 +10850,7 @@
       <c r="K12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="42" t="inlineStr">
+      <c r="A13" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10813,7 +10867,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="41" t="inlineStr">
+      <c r="E13" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10838,7 +10892,7 @@
       <c r="K13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="42" t="inlineStr">
+      <c r="A14" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10855,7 +10909,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="36" t="inlineStr">
+      <c r="E14" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -10880,7 +10934,7 @@
       <c r="K14" s="35" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="inlineStr">
+      <c r="A15" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10897,7 +10951,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="41" t="inlineStr">
+      <c r="E15" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10922,7 +10976,7 @@
       <c r="K15" s="35" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="inlineStr">
+      <c r="A16" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -10939,7 +10993,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="41" t="inlineStr">
+      <c r="E16" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -10981,7 +11035,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="41" t="inlineStr">
+      <c r="E17" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11099,7 +11153,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="E20" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11141,7 +11195,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="41" t="inlineStr">
+      <c r="E21" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11183,7 +11237,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="41" t="inlineStr">
+      <c r="E22" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11208,7 +11262,7 @@
       <c r="K22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="inlineStr">
+      <c r="A23" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -11225,7 +11279,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="41" t="inlineStr">
+      <c r="E23" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11267,7 +11321,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="41" t="inlineStr">
+      <c r="E24" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11309,7 +11363,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="41" t="inlineStr">
+      <c r="E25" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11351,7 +11405,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="41" t="inlineStr">
+      <c r="E26" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11393,7 +11447,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="41" t="inlineStr">
+      <c r="E27" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11435,7 +11489,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="41" t="inlineStr">
+      <c r="E28" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11481,7 +11535,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="41" t="inlineStr">
+      <c r="E29" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11527,7 +11581,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="41" t="inlineStr">
+      <c r="E30" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11573,7 +11627,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B31&amp;C31, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E31" s="41" t="inlineStr">
+      <c r="E31" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11691,7 +11745,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="41" t="inlineStr">
+      <c r="E34" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11733,7 +11787,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="41" t="inlineStr">
+      <c r="E35" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11775,7 +11829,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="41" t="inlineStr">
+      <c r="E36" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11800,7 +11854,7 @@
       <c r="K36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="inlineStr">
+      <c r="A37" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -11817,7 +11871,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="41" t="inlineStr">
+      <c r="E37" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11859,7 +11913,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="41" t="inlineStr">
+      <c r="E38" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -11884,7 +11938,7 @@
       <c r="K38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="42" t="inlineStr">
+      <c r="A39" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -11977,7 +12031,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="41" t="inlineStr">
+      <c r="E41" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12019,7 +12073,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="41" t="inlineStr">
+      <c r="E42" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12099,7 +12153,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="41" t="inlineStr">
+      <c r="E44" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12141,7 +12195,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="41" t="inlineStr">
+      <c r="E45" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12225,7 +12279,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="41" t="inlineStr">
+      <c r="E47" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12288,7 +12342,7 @@
       <c r="K48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="42" t="inlineStr">
+      <c r="A49" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -12305,7 +12359,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="36" t="inlineStr">
+      <c r="E49" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -12347,7 +12401,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="41" t="inlineStr">
+      <c r="E50" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12393,7 +12447,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="41" t="inlineStr">
+      <c r="E51" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12477,7 +12531,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="41" t="inlineStr">
+      <c r="E53" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12519,7 +12573,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="41" t="inlineStr">
+      <c r="E54" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12603,7 +12657,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="41" t="inlineStr">
+      <c r="E56" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12645,7 +12699,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B57&amp;C57, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="41" t="inlineStr">
+      <c r="E57" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12692,7 +12746,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="41" t="inlineStr">
+      <c r="E58" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12772,7 +12826,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E60" s="41" t="inlineStr">
+      <c r="E60" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12818,7 +12872,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E61" s="41" t="inlineStr">
+      <c r="E61" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12868,7 +12922,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E62" s="41" t="inlineStr">
+      <c r="E62" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12910,7 +12964,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E63" s="41" t="inlineStr">
+      <c r="E63" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -12956,7 +13010,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E64" s="36" t="inlineStr">
+      <c r="E64" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -13036,7 +13090,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E66" s="41" t="inlineStr">
+      <c r="E66" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13065,7 +13119,7 @@
       <c r="K66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="42" t="inlineStr">
+      <c r="A67" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13082,7 +13136,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E67" s="41" t="inlineStr">
+      <c r="E67" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13107,7 +13161,7 @@
       <c r="K67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="42" t="inlineStr">
+      <c r="A68" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13124,7 +13178,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E68" s="41" t="inlineStr">
+      <c r="E68" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13347,21 +13401,13 @@
           <t>Atrasado</t>
         </is>
       </c>
-      <c r="F2" s="35" t="inlineStr">
-        <is>
-          <t>09/07/2025, 01/01/2025</t>
-        </is>
-      </c>
-      <c r="G2" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="H2" s="35" t="inlineStr">
-        <is>
-          <t>CERTO</t>
-        </is>
-      </c>
+      <c r="F2" s="35" t="n"/>
+      <c r="G2" s="40" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" s="35" t="n"/>
       <c r="I2" s="35" t="n"/>
       <c r="J2" s="35" t="inlineStr">
         <is>
@@ -13388,7 +13434,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B3&amp;C3, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E3" s="41" t="inlineStr">
+      <c r="E3" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13430,7 +13476,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B4&amp;C4, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13472,7 +13518,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B5&amp;C5, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E5" s="41" t="inlineStr">
+      <c r="E5" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13518,7 +13564,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B6&amp;C6, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13560,7 +13606,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B7&amp;C7, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E7" s="41" t="inlineStr">
+      <c r="E7" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13589,7 +13635,7 @@
       <c r="K7" s="35" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13682,7 +13728,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B10&amp;C10, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="36" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -13707,7 +13753,7 @@
       <c r="K10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="42" t="inlineStr">
+      <c r="A11" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13724,7 +13770,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B11&amp;C11, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="41" t="inlineStr">
+      <c r="E11" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13749,7 +13795,7 @@
       <c r="K11" s="35" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="42" t="inlineStr">
+      <c r="A12" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13766,7 +13812,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B12&amp;C12, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="41" t="inlineStr">
+      <c r="E12" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13791,7 +13837,7 @@
       <c r="K12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="42" t="inlineStr">
+      <c r="A13" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13808,7 +13854,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="41" t="inlineStr">
+      <c r="E13" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13833,7 +13879,7 @@
       <c r="K13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="42" t="inlineStr">
+      <c r="A14" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13850,7 +13896,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B14&amp;C14, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="36" t="inlineStr">
+      <c r="E14" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -13875,7 +13921,7 @@
       <c r="K14" s="35" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="inlineStr">
+      <c r="A15" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13892,7 +13938,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B15&amp;C15, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="41" t="inlineStr">
+      <c r="E15" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13917,7 +13963,7 @@
       <c r="K15" s="35" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="inlineStr">
+      <c r="A16" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13934,7 +13980,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B16&amp;C16, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E16" s="41" t="inlineStr">
+      <c r="E16" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -13976,7 +14022,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B17&amp;C17, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E17" s="41" t="inlineStr">
+      <c r="E17" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14094,7 +14140,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B20&amp;C20, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="E20" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14136,7 +14182,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B21&amp;C21, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E21" s="41" t="inlineStr">
+      <c r="E21" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14203,7 +14249,7 @@
       <c r="K22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="inlineStr">
+      <c r="A23" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14220,7 +14266,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B23&amp;C23, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="41" t="inlineStr">
+      <c r="E23" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14300,7 +14346,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="41" t="inlineStr">
+      <c r="E25" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14342,7 +14388,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B26&amp;C26, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="41" t="inlineStr">
+      <c r="E26" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14384,7 +14430,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B27&amp;C27, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E27" s="41" t="inlineStr">
+      <c r="E27" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14426,7 +14472,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B28&amp;C28, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E28" s="41" t="inlineStr">
+      <c r="E28" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14472,7 +14518,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B29&amp;C29, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="41" t="inlineStr">
+      <c r="E29" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14518,7 +14564,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B30&amp;C30, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E30" s="41" t="inlineStr">
+      <c r="E30" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14678,7 +14724,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B34&amp;C34, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E34" s="41" t="inlineStr">
+      <c r="E34" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14720,7 +14766,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B35&amp;C35, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="41" t="inlineStr">
+      <c r="E35" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14762,7 +14808,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B36&amp;C36, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E36" s="41" t="inlineStr">
+      <c r="E36" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14787,7 +14833,7 @@
       <c r="K36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="inlineStr">
+      <c r="A37" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14804,7 +14850,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B37&amp;C37, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="41" t="inlineStr">
+      <c r="E37" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14846,7 +14892,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B38&amp;C38, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E38" s="41" t="inlineStr">
+      <c r="E38" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14871,7 +14917,7 @@
       <c r="K38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="42" t="inlineStr">
+      <c r="A39" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14888,7 +14934,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B39&amp;C39, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="41" t="inlineStr">
+      <c r="E39" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -14968,7 +15014,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="41" t="inlineStr">
+      <c r="E41" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15010,7 +15056,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B42&amp;C42, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E42" s="41" t="inlineStr">
+      <c r="E42" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15090,7 +15136,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B44&amp;C44, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E44" s="41" t="inlineStr">
+      <c r="E44" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15132,7 +15178,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B45&amp;C45, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E45" s="41" t="inlineStr">
+      <c r="E45" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15216,7 +15262,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B47&amp;C47, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="41" t="inlineStr">
+      <c r="E47" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15279,7 +15325,7 @@
       <c r="K48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="42" t="inlineStr">
+      <c r="A49" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -15296,7 +15342,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B49&amp;C49, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E49" s="41" t="inlineStr">
+      <c r="E49" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15338,7 +15384,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B50&amp;C50, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E50" s="41" t="inlineStr">
+      <c r="E50" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15384,7 +15430,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B51&amp;C51, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E51" s="41" t="inlineStr">
+      <c r="E51" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15468,7 +15514,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B53&amp;C53, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E53" s="41" t="inlineStr">
+      <c r="E53" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15510,7 +15556,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B54&amp;C54, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E54" s="41" t="inlineStr">
+      <c r="E54" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15594,7 +15640,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B56&amp;C56, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E56" s="41" t="inlineStr">
+      <c r="E56" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15674,7 +15720,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B58&amp;C58, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="41" t="inlineStr">
+      <c r="E58" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15754,7 +15800,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B60&amp;C60, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E60" s="41" t="inlineStr">
+      <c r="E60" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15796,7 +15842,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B61&amp;C61, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E61" s="41" t="inlineStr">
+      <c r="E61" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15838,7 +15884,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B62&amp;C62, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E62" s="41" t="inlineStr">
+      <c r="E62" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15880,7 +15926,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B63&amp;C63, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E63" s="41" t="inlineStr">
+      <c r="E63" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -15922,7 +15968,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E64" s="36" t="inlineStr">
+      <c r="E64" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
         </is>
@@ -15964,7 +16010,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E65" s="41" t="inlineStr">
+      <c r="E65" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -16006,7 +16052,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B66&amp;C66, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E66" s="41" t="inlineStr">
+      <c r="E66" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -16031,7 +16077,7 @@
       <c r="K66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="42" t="inlineStr">
+      <c r="A67" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16048,7 +16094,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B67&amp;C67, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E67" s="41" t="inlineStr">
+      <c r="E67" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -16073,7 +16119,7 @@
       <c r="K67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="42" t="inlineStr">
+      <c r="A68" s="41" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16090,7 +16136,7 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B68&amp;C68, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E68" s="41" t="inlineStr">
+      <c r="E68" s="36" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -13738,9 +13738,9 @@
           <t>06/03/2025, 05/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G10" s="40" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H10" s="35" t="n"/>
@@ -16010,14 +16010,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E65" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E65" s="42" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F65" s="35" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>24/03/2025, 28/07/2025, 29/07/2025</t>
         </is>
       </c>
       <c r="G65" s="40" t="inlineStr">

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -10045,18 +10045,26 @@
           <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
         </is>
       </c>
-      <c r="E65" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F65" s="35" t="n"/>
-      <c r="G65" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H65" s="35" t="n"/>
+      <c r="E65" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F65" s="35" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="G65" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H65" s="35" t="inlineStr">
+        <is>
+          <t>revisar: resíduos são pesados; valor das despesas com coletas</t>
+        </is>
+      </c>
       <c r="I65" s="35" t="n"/>
       <c r="J65" s="35" t="inlineStr">
         <is>
@@ -16020,13 +16028,21 @@
           <t>24/03/2025, 28/07/2025, 29/07/2025</t>
         </is>
       </c>
-      <c r="G65" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H65" s="35" t="n"/>
-      <c r="I65" s="35" t="n"/>
+      <c r="G65" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H65" s="35" t="inlineStr">
+        <is>
+          <t>Corrigir nome da presidente</t>
+        </is>
+      </c>
+      <c r="I65" s="35" t="inlineStr">
+        <is>
+          <t>ID115, ID187</t>
+        </is>
+      </c>
       <c r="J65" s="35" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16062,9 +16078,9 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G66" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="G66" s="40" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H66" s="35" t="n"/>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -8215,12 +8215,16 @@
           <t>Carmen Maria Stein Weiler</t>
         </is>
       </c>
-      <c r="E22" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="35" t="n"/>
+      <c r="E22" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="35" t="inlineStr">
+        <is>
+          <t>05/08/2025</t>
+        </is>
+      </c>
       <c r="G22" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9298,12 +9302,16 @@
           <t>Jaqueline Meireles / Margarete Pusippe</t>
         </is>
       </c>
-      <c r="E48" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="35" t="n"/>
+      <c r="E48" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="35" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G48" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12329,12 +12337,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="35" t="n"/>
+      <c r="E48" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="35" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G48" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15312,12 +15324,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="35" t="n"/>
+      <c r="E48" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="35" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
       <c r="G48" s="40" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -7277,8 +7277,8 @@
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="87" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="162" customWidth="1" min="8" max="8"/>
-    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="337" customWidth="1" min="8" max="8"/>
+    <col width="45" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
@@ -7455,12 +7455,16 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G4" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="35" t="n"/>
+      <c r="G4" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="I4" s="35" t="n"/>
       <c r="J4" s="35" t="inlineStr">
         <is>
@@ -7917,7 +7921,11 @@
       <c r="C15" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="35" t="n"/>
+      <c r="D15" s="35" t="inlineStr">
+        <is>
+          <t>Marcelo Merlini</t>
+        </is>
+      </c>
       <c r="E15" s="42" t="inlineStr">
         <is>
           <t>Duplicado</t>
@@ -7958,7 +7966,7 @@
       </c>
       <c r="D16" s="35" t="inlineStr">
         <is>
-          <t>Marcelo Merlini</t>
+          <t xml:space="preserve">Débora Laize Lampert Gnass </t>
         </is>
       </c>
       <c r="E16" s="42" t="inlineStr">
@@ -8301,12 +8309,16 @@
           <t>Andrea Carla Winkelmann</t>
         </is>
       </c>
-      <c r="E24" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="35" t="n"/>
+      <c r="E24" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G24" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8340,12 +8352,16 @@
           <t>Lorizete de Andrade</t>
         </is>
       </c>
-      <c r="E25" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="35" t="n"/>
+      <c r="E25" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G25" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8379,12 +8395,16 @@
           <t>Andressa Maia</t>
         </is>
       </c>
-      <c r="E26" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F26" s="35" t="n"/>
+      <c r="E26" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G26" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8418,12 +8438,16 @@
           <t>Lucas Correia de Souza</t>
         </is>
       </c>
-      <c r="E27" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F27" s="35" t="n"/>
+      <c r="E27" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F27" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G27" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8457,12 +8481,16 @@
           <t>Jose Francisco Mariano de Faria Filho</t>
         </is>
       </c>
-      <c r="E28" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="35" t="n"/>
+      <c r="E28" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G28" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8496,12 +8524,16 @@
           <t>Pedro Henrique Mariano de Faria</t>
         </is>
       </c>
-      <c r="E29" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F29" s="35" t="n"/>
+      <c r="E29" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F29" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G29" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8535,12 +8567,16 @@
           <t>Renata Aparecida de Souza</t>
         </is>
       </c>
-      <c r="E30" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F30" s="35" t="n"/>
+      <c r="E30" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F30" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G30" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8574,12 +8610,16 @@
           <t xml:space="preserve">Mariane Plaza da Silva </t>
         </is>
       </c>
-      <c r="E31" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F31" s="35" t="n"/>
+      <c r="E31" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G31" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -9312,12 +9352,16 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G48" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H48" s="35" t="n"/>
+      <c r="G48" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H48" s="35" t="inlineStr">
+        <is>
+          <t>Verificar quanto 1 - Qual a receita anual com essa taxa conforme o balanço anterior?; A prefeitura apoia os catadores com: AINDA não tem contrato, retirar. de resto ok!</t>
+        </is>
+      </c>
       <c r="I48" s="35" t="n"/>
       <c r="J48" s="35" t="inlineStr">
         <is>
@@ -10020,13 +10064,21 @@
           <t>03/04/2025, 04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
         </is>
       </c>
-      <c r="G64" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H64" s="35" t="n"/>
-      <c r="I64" s="35" t="n"/>
+      <c r="G64" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H64" s="35" t="inlineStr">
+        <is>
+          <t>Revisar informações financeiras, valores preenchidos muito abaixo do ideal (solicitar a secretária os dados); sim, há diferença entre as coletas; quanto a aba de coelta seletiva: Revisar dias de coleta, não tem como coletar 100 DIAS DENTRO DE UMA SEMANA. onde é realizado a compostagem e a reciclagem de RCC? pois no aterro não tem.</t>
+        </is>
+      </c>
+      <c r="I64" s="35" t="inlineStr">
+        <is>
+          <t>ID159; ID158; ID156; ID155; ID145; ID144</t>
+        </is>
+      </c>
       <c r="J64" s="35" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10328,8 +10380,8 @@
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="75" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="153" customWidth="1" min="8" max="8"/>
-    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="344" customWidth="1" min="8" max="8"/>
+    <col width="38" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
@@ -10511,12 +10563,16 @@
           <t>21/07/2025</t>
         </is>
       </c>
-      <c r="G4" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="35" t="n"/>
+      <c r="G4" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">revisar metragens dos ambientes; Esteira de Triagem Elevação (era para ser esteira elevada! já está em correção), mas retirar por favor; </t>
+        </is>
+      </c>
       <c r="I4" s="35" t="n"/>
       <c r="J4" s="35" t="inlineStr">
         <is>
@@ -12347,12 +12403,16 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G48" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H48" s="35" t="n"/>
+      <c r="G48" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H48" s="35" t="inlineStr">
+        <is>
+          <t>Verificar Equipamentos I - vocês não possuem prensa HORIZONTAL, trocar para VERTICAL. e até onde me lembro uma está quebrada para manutenção, ou não?; esteiras - não possuem esteira de triagem elevada (está como elevação, mas vai ser corrigido), retirar; em outros - mesa de triagem, seria de eletronicos, se tiver mantem, se não, retirar.</t>
+        </is>
+      </c>
       <c r="I48" s="35" t="n"/>
       <c r="J48" s="35" t="inlineStr">
         <is>
@@ -13040,13 +13100,21 @@
           <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
         </is>
       </c>
-      <c r="G64" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H64" s="35" t="n"/>
-      <c r="I64" s="35" t="n"/>
+      <c r="G64" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H64" s="35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refazer todas as fotos e tirar no formado horizontal; A área de processamento operacional é coberta? sim, mas as metragens estão incorretas, revisar. o caminhão é semi-compactador trocar. possui Carro de Movimentação de Big Bag, revisar quantidade!! Esteira de Triagem Elevação (aqui é para ser elevada) vocês não  possuem, retirar. </t>
+        </is>
+      </c>
+      <c r="I64" s="35" t="inlineStr">
+        <is>
+          <t>ID192; ID191; ID190; ID189; ID171</t>
+        </is>
+      </c>
       <c r="J64" s="35" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13335,8 +13403,8 @@
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="75" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="73" customWidth="1" min="8" max="8"/>
-    <col width="34" customWidth="1" min="9" max="9"/>
+    <col width="251" customWidth="1" min="8" max="8"/>
+    <col width="38" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="26" customWidth="1" min="11" max="11"/>
   </cols>
@@ -13506,12 +13574,16 @@
           <t>21/07/2025</t>
         </is>
       </c>
-      <c r="G4" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="35" t="n"/>
+      <c r="G4" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="I4" s="35" t="n"/>
       <c r="J4" s="35" t="inlineStr">
         <is>
@@ -14248,12 +14320,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B22&amp;C22, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="35" t="n"/>
+      <c r="E22" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="35" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
       <c r="G22" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15334,12 +15410,16 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G48" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H48" s="35" t="n"/>
+      <c r="G48" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H48" s="35" t="inlineStr">
+        <is>
+          <t>realmente não pagam o INSS?</t>
+        </is>
+      </c>
       <c r="I48" s="35" t="n"/>
       <c r="J48" s="35" t="inlineStr">
         <is>
@@ -16002,13 +16082,21 @@
           <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
         </is>
       </c>
-      <c r="G64" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H64" s="35" t="n"/>
-      <c r="I64" s="35" t="n"/>
+      <c r="G64" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H64" s="35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> revisar NOME RAZÃO SOCIAL (pois o de vocês é: ASSOCIACAO DOS CATADORES DE MATERIAIS RECICLAVEIS DE TERRA ROXA - ACARTERRA) e o nome FANTASIA  - ACARTERRA. Colocar os documentos, pois não tem nada no sistema!! 6 possuem ensino superior? revisar; </t>
+        </is>
+      </c>
+      <c r="I64" s="35" t="inlineStr">
+        <is>
+          <t>ID169; ID168; ID166; ID165; ID149</t>
+        </is>
+      </c>
       <c r="J64" s="35" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16061,7 +16149,7 @@
       </c>
       <c r="J65" s="35" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Em Análise</t>
         </is>
       </c>
       <c r="K65" s="35" t="n"/>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -7275,12 +7275,12 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="87" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="337" customWidth="1" min="8" max="8"/>
     <col width="45" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="38" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8012,12 +8012,16 @@
           <t>Cristina Harumi Enokida</t>
         </is>
       </c>
-      <c r="E17" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F17" s="35" t="n"/>
+      <c r="E17" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F17" s="35" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
       <c r="G17" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8319,12 +8323,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G24" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H24" s="35" t="n"/>
+      <c r="G24" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H24" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I24" s="35" t="n"/>
       <c r="J24" s="35" t="inlineStr">
         <is>
@@ -8362,12 +8370,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G25" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H25" s="35" t="n"/>
+      <c r="G25" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H25" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I25" s="35" t="n"/>
       <c r="J25" s="35" t="inlineStr">
         <is>
@@ -8405,12 +8417,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G26" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H26" s="35" t="n"/>
+      <c r="G26" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H26" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I26" s="35" t="n"/>
       <c r="J26" s="35" t="inlineStr">
         <is>
@@ -8448,12 +8464,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G27" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H27" s="35" t="n"/>
+      <c r="G27" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H27" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I27" s="35" t="n"/>
       <c r="J27" s="35" t="inlineStr">
         <is>
@@ -8491,12 +8511,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G28" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H28" s="35" t="n"/>
+      <c r="G28" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H28" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I28" s="35" t="n"/>
       <c r="J28" s="35" t="inlineStr">
         <is>
@@ -8534,12 +8558,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G29" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="35" t="n"/>
+      <c r="G29" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H29" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I29" s="35" t="n"/>
       <c r="J29" s="35" t="inlineStr">
         <is>
@@ -8577,12 +8605,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G30" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H30" s="35" t="n"/>
+      <c r="G30" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H30" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I30" s="35" t="n"/>
       <c r="J30" s="35" t="inlineStr">
         <is>
@@ -8620,12 +8652,16 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G31" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H31" s="35" t="n"/>
+      <c r="G31" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H31" s="35" t="inlineStr">
+        <is>
+          <t>corrigir aba 7 (não há compostagem)</t>
+        </is>
+      </c>
       <c r="I31" s="35" t="n"/>
       <c r="J31" s="35" t="inlineStr">
         <is>
@@ -9526,12 +9562,16 @@
           <t>Dorival Manoel Canhete</t>
         </is>
       </c>
-      <c r="E52" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F52" s="35" t="n"/>
+      <c r="E52" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="35" t="inlineStr">
+        <is>
+          <t>21/08/2025</t>
+        </is>
+      </c>
       <c r="G52" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10054,14 +10094,14 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E64" s="42" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E64" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F64" s="35" t="inlineStr">
         <is>
-          <t>03/04/2025, 04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
+          <t>12/05/2025</t>
         </is>
       </c>
       <c r="G64" s="37" t="inlineStr">
@@ -10081,10 +10121,14 @@
       </c>
       <c r="J64" s="35" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K64" s="35" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K64" s="35" t="inlineStr">
+        <is>
+          <t>Deletados 144;145;155;156;158;159</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="34" t="inlineStr">
@@ -10378,12 +10422,12 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="75" customWidth="1" min="6" max="6"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="344" customWidth="1" min="8" max="8"/>
     <col width="38" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="34" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11149,12 +11193,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F18" s="35" t="n"/>
+      <c r="E18" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="35" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
       <c r="G18" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11403,12 +11451,16 @@
           <t>15/07/2025</t>
         </is>
       </c>
-      <c r="G24" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H24" s="35" t="n"/>
+      <c r="G24" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H24" s="35" t="inlineStr">
+        <is>
+          <t>corrigir caminhao semi compactador</t>
+        </is>
+      </c>
       <c r="I24" s="35" t="n"/>
       <c r="J24" s="35" t="inlineStr">
         <is>
@@ -11445,12 +11497,16 @@
           <t>14/04/2025</t>
         </is>
       </c>
-      <c r="G25" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H25" s="35" t="n"/>
+      <c r="G25" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H25" s="35" t="inlineStr">
+        <is>
+          <t>corrigir esteira de triagem elevação</t>
+        </is>
+      </c>
       <c r="I25" s="35" t="n"/>
       <c r="J25" s="35" t="inlineStr">
         <is>
@@ -11487,12 +11543,16 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G26" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H26" s="35" t="n"/>
+      <c r="G26" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H26" s="35" t="inlineStr">
+        <is>
+          <t>corrigir quantidade de elevador de fardo</t>
+        </is>
+      </c>
       <c r="I26" s="35" t="n"/>
       <c r="J26" s="35" t="inlineStr">
         <is>
@@ -11529,9 +11589,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G27" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="35" t="n"/>
@@ -12235,9 +12295,9 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G44" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G44" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H44" s="35" t="n"/>
@@ -12393,19 +12453,19 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B48&amp;C48, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E48" s="36" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E48" s="42" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F48" s="35" t="inlineStr">
         <is>
-          <t>06/08/2025</t>
-        </is>
-      </c>
-      <c r="G48" s="37" t="inlineStr">
-        <is>
-          <t>Sim</t>
+          <t>06/08/2025, 20/08/2025</t>
+        </is>
+      </c>
+      <c r="G48" s="40" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H48" s="35" t="inlineStr">
@@ -12573,12 +12633,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F52" s="35" t="n"/>
+      <c r="E52" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="35" t="inlineStr">
+        <is>
+          <t>21/08/2025</t>
+        </is>
+      </c>
       <c r="G52" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12868,15 +12932,19 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E59" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F59" s="35" t="n"/>
-      <c r="G59" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E59" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F59" s="35" t="inlineStr">
+        <is>
+          <t>19/08/2025</t>
+        </is>
+      </c>
+      <c r="G59" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H59" s="35" t="n"/>
@@ -13090,14 +13158,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E64" s="42" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E64" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F64" s="35" t="inlineStr">
         <is>
-          <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
+          <t>12/05/2025</t>
         </is>
       </c>
       <c r="G64" s="37" t="inlineStr">
@@ -13117,10 +13185,14 @@
       </c>
       <c r="J64" s="35" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K64" s="35" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K64" s="35" t="inlineStr">
+        <is>
+          <t>Deletados 171;189;190;191;192</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="34" t="inlineStr">
@@ -13401,12 +13473,12 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="75" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="251" customWidth="1" min="8" max="8"/>
     <col width="38" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="34" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14156,12 +14228,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B18&amp;C18, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F18" s="35" t="n"/>
+      <c r="E18" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F18" s="35" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
       <c r="G18" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -14404,15 +14480,19 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B24&amp;C24, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="35" t="n"/>
-      <c r="G24" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E24" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="35" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="G24" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H24" s="35" t="n"/>
@@ -14452,9 +14532,9 @@
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G25" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G25" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H25" s="35" t="n"/>
@@ -14494,9 +14574,9 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G26" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G26" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H26" s="35" t="n"/>
@@ -14536,9 +14616,9 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G27" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="35" t="n"/>
@@ -15580,12 +15660,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B52&amp;C52, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E52" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F52" s="35" t="n"/>
+      <c r="E52" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F52" s="35" t="inlineStr">
+        <is>
+          <t>21/08/2025</t>
+        </is>
+      </c>
       <c r="G52" s="40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15866,15 +15950,19 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B59&amp;C59, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E59" s="39" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F59" s="35" t="n"/>
-      <c r="G59" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E59" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F59" s="35" t="inlineStr">
+        <is>
+          <t>19/08/2025</t>
+        </is>
+      </c>
+      <c r="G59" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H59" s="35" t="n"/>
@@ -16072,14 +16160,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B64&amp;C64, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E64" s="42" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E64" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F64" s="35" t="inlineStr">
         <is>
-          <t>04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
+          <t>12/05/2025</t>
         </is>
       </c>
       <c r="G64" s="37" t="inlineStr">
@@ -16099,10 +16187,14 @@
       </c>
       <c r="J64" s="35" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="K64" s="35" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K64" s="35" t="inlineStr">
+        <is>
+          <t>Deletados 149;165;166;168;169</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="34" t="inlineStr">
@@ -16122,14 +16214,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B65&amp;C65, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E65" s="42" t="inlineStr">
-        <is>
-          <t>Duplicado</t>
+      <c r="E65" s="36" t="inlineStr">
+        <is>
+          <t>Enviado</t>
         </is>
       </c>
       <c r="F65" s="35" t="inlineStr">
         <is>
-          <t>24/03/2025, 28/07/2025, 29/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
       <c r="G65" s="37" t="inlineStr">
@@ -16149,10 +16241,14 @@
       </c>
       <c r="J65" s="35" t="inlineStr">
         <is>
-          <t>Em Análise</t>
-        </is>
-      </c>
-      <c r="K65" s="35" t="n"/>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K65" s="35" t="inlineStr">
+        <is>
+          <t>Deletados 115; 187</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="38" t="inlineStr">

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -11769,9 +11769,9 @@
           <t>16/07/2025</t>
         </is>
       </c>
-      <c r="G31" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G31" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H31" s="35" t="n"/>
@@ -16044,9 +16044,9 @@
           <t>09/05/2025</t>
         </is>
       </c>
-      <c r="G61" s="40" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G61" s="37" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H61" s="35" t="n"/>

--- a/outputs/grs_atualizado.xlsx
+++ b/outputs/grs_atualizado.xlsx
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -659,7 +659,7 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -671,7 +671,7 @@
     <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -680,37 +680,22 @@
     <xf numFmtId="0" fontId="15" fillId="29" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10347,7 +10332,7 @@
       </c>
       <c r="G22" s="49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="44" t="n"/>
@@ -11119,7 +11104,7 @@
       </c>
       <c r="G39" s="49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H39" s="44" t="n"/>
@@ -11244,7 +11229,7 @@
       </c>
       <c r="G42" s="49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H42" s="44" t="n"/>
@@ -11287,7 +11272,7 @@
       </c>
       <c r="G43" s="49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="44" t="n"/>
@@ -11862,7 +11847,7 @@
       </c>
       <c r="G56" s="49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H56" s="44" t="n"/>
@@ -11905,7 +11890,7 @@
       </c>
       <c r="G57" s="49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="44" t="n"/>
@@ -12171,7 +12156,7 @@
       </c>
       <c r="G63" s="49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H63" s="44" t="n"/>
@@ -12639,7 +12624,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54" t="inlineStr">
+      <c r="A2" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -12666,7 +12651,7 @@
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="G2" s="55" t="inlineStr">
+      <c r="G2" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12685,7 +12670,7 @@
       <c r="K2" s="44" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="inlineStr">
+      <c r="A3" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -12712,7 +12697,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="55" t="inlineStr">
+      <c r="G3" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12731,7 +12716,7 @@
       <c r="K3" s="44" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="54" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -12758,7 +12743,7 @@
           <t>21/07/2025</t>
         </is>
       </c>
-      <c r="G4" s="55" t="inlineStr">
+      <c r="G4" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12777,7 +12762,7 @@
       <c r="K4" s="44" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="56" t="inlineStr">
+      <c r="A5" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -12804,7 +12789,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G5" s="55" t="inlineStr">
+      <c r="G5" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12823,7 +12808,7 @@
       <c r="K5" s="44" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -12850,7 +12835,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G6" s="57" t="inlineStr">
+      <c r="G6" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12865,7 +12850,7 @@
       <c r="K6" s="44" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -12892,7 +12877,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="55" t="inlineStr">
+      <c r="G7" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -12911,7 +12896,7 @@
       <c r="K7" s="44" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="58" t="inlineStr">
+      <c r="A8" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -12938,7 +12923,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G8" s="57" t="inlineStr">
+      <c r="G8" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12953,7 +12938,7 @@
       <c r="K8" s="44" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="inlineStr">
+      <c r="A9" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -12976,7 +12961,7 @@
         </is>
       </c>
       <c r="F9" s="44" t="n"/>
-      <c r="G9" s="57" t="inlineStr">
+      <c r="G9" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12991,7 +12976,7 @@
       <c r="K9" s="44" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="inlineStr">
+      <c r="A10" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -13018,7 +13003,7 @@
           <t>07/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="55" t="inlineStr">
+      <c r="G10" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13033,7 +13018,7 @@
       <c r="K10" s="44" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="58" t="inlineStr">
+      <c r="A11" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13060,7 +13045,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G11" s="57" t="inlineStr">
+      <c r="G11" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13075,7 +13060,7 @@
       <c r="K11" s="44" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="58" t="inlineStr">
+      <c r="A12" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13102,7 +13087,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G12" s="57" t="inlineStr">
+      <c r="G12" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13117,7 +13102,7 @@
       <c r="K12" s="44" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="58" t="inlineStr">
+      <c r="A13" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13144,7 +13129,7 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G13" s="57" t="inlineStr">
+      <c r="G13" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13159,7 +13144,7 @@
       <c r="K13" s="44" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="58" t="inlineStr">
+      <c r="A14" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13186,7 +13171,7 @@
           <t>10/04/2025, 10/04/2025, 09/05/2025, 10/06/2025</t>
         </is>
       </c>
-      <c r="G14" s="57" t="inlineStr">
+      <c r="G14" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13201,7 +13186,7 @@
       <c r="K14" s="44" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="58" t="inlineStr">
+      <c r="A15" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13228,7 +13213,7 @@
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="G15" s="57" t="inlineStr">
+      <c r="G15" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13243,7 +13228,7 @@
       <c r="K15" s="44" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="58" t="inlineStr">
+      <c r="A16" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13270,7 +13255,7 @@
           <t>20/05/2025</t>
         </is>
       </c>
-      <c r="G16" s="57" t="inlineStr">
+      <c r="G16" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13285,7 +13270,7 @@
       <c r="K16" s="44" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="56" t="inlineStr">
+      <c r="A17" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -13312,7 +13297,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="55" t="inlineStr">
+      <c r="G17" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13327,7 +13312,7 @@
       <c r="K17" s="44" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="59" t="inlineStr">
+      <c r="A18" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13354,9 +13339,9 @@
           <t>22/08/2025</t>
         </is>
       </c>
-      <c r="G18" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G18" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H18" s="44" t="n"/>
@@ -13369,7 +13354,7 @@
       <c r="K18" s="44" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="56" t="inlineStr">
+      <c r="A19" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -13392,7 +13377,7 @@
         </is>
       </c>
       <c r="F19" s="44" t="n"/>
-      <c r="G19" s="57" t="inlineStr">
+      <c r="G19" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13407,7 +13392,7 @@
       <c r="K19" s="44" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="59" t="inlineStr">
+      <c r="A20" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13434,7 +13419,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="55" t="inlineStr">
+      <c r="G20" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13449,7 +13434,7 @@
       <c r="K20" s="44" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="56" t="inlineStr">
+      <c r="A21" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -13476,7 +13461,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="55" t="inlineStr">
+      <c r="G21" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13491,7 +13476,7 @@
       <c r="K21" s="44" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="59" t="inlineStr">
+      <c r="A22" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -13518,9 +13503,9 @@
           <t>10/07/2025</t>
         </is>
       </c>
-      <c r="G22" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G22" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="44" t="n"/>
@@ -13533,7 +13518,7 @@
       <c r="K22" s="44" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="58" t="inlineStr">
+      <c r="A23" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -13560,7 +13545,7 @@
           <t>06/05/2025</t>
         </is>
       </c>
-      <c r="G23" s="57" t="inlineStr">
+      <c r="G23" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13575,7 +13560,7 @@
       <c r="K23" s="44" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="60" t="inlineStr">
+      <c r="A24" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13602,7 +13587,7 @@
           <t>25/09/2025</t>
         </is>
       </c>
-      <c r="G24" s="57" t="inlineStr">
+      <c r="G24" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13617,7 +13602,7 @@
       <c r="K24" s="44" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="60" t="inlineStr">
+      <c r="A25" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13644,7 +13629,7 @@
           <t>15/07/2025</t>
         </is>
       </c>
-      <c r="G25" s="55" t="inlineStr">
+      <c r="G25" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13663,7 +13648,7 @@
       <c r="K25" s="44" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="60" t="inlineStr">
+      <c r="A26" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13690,7 +13675,7 @@
           <t>14/04/2025</t>
         </is>
       </c>
-      <c r="G26" s="55" t="inlineStr">
+      <c r="G26" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13709,7 +13694,7 @@
       <c r="K26" s="44" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="60" t="inlineStr">
+      <c r="A27" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13736,7 +13721,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G27" s="55" t="inlineStr">
+      <c r="G27" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13755,7 +13740,7 @@
       <c r="K27" s="44" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="60" t="inlineStr">
+      <c r="A28" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13782,7 +13767,7 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G28" s="55" t="inlineStr">
+      <c r="G28" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13797,7 +13782,7 @@
       <c r="K28" s="44" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="60" t="inlineStr">
+      <c r="A29" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13824,7 +13809,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G29" s="55" t="inlineStr">
+      <c r="G29" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13843,7 +13828,7 @@
       <c r="K29" s="44" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="60" t="inlineStr">
+      <c r="A30" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13870,7 +13855,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G30" s="55" t="inlineStr">
+      <c r="G30" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13889,7 +13874,7 @@
       <c r="K30" s="44" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="60" t="inlineStr">
+      <c r="A31" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13916,7 +13901,7 @@
           <t>25/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="55" t="inlineStr">
+      <c r="G31" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13935,7 +13920,7 @@
       <c r="K31" s="44" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="60" t="inlineStr">
+      <c r="A32" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -13962,7 +13947,7 @@
           <t>16/07/2025</t>
         </is>
       </c>
-      <c r="G32" s="55" t="inlineStr">
+      <c r="G32" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -13977,7 +13962,7 @@
       <c r="K32" s="44" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="54" t="inlineStr">
+      <c r="A33" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14000,7 +13985,7 @@
         </is>
       </c>
       <c r="F33" s="44" t="n"/>
-      <c r="G33" s="57" t="inlineStr">
+      <c r="G33" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14015,7 +14000,7 @@
       <c r="K33" s="44" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="54" t="inlineStr">
+      <c r="A34" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14038,7 +14023,7 @@
         </is>
       </c>
       <c r="F34" s="44" t="n"/>
-      <c r="G34" s="57" t="inlineStr">
+      <c r="G34" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14053,7 +14038,7 @@
       <c r="K34" s="44" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="56" t="inlineStr">
+      <c r="A35" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -14080,7 +14065,7 @@
           <t>08/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="55" t="inlineStr">
+      <c r="G35" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14095,7 +14080,7 @@
       <c r="K35" s="44" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="56" t="inlineStr">
+      <c r="A36" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -14122,7 +14107,7 @@
           <t>24/03/2025</t>
         </is>
       </c>
-      <c r="G36" s="55" t="inlineStr">
+      <c r="G36" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14137,7 +14122,7 @@
       <c r="K36" s="44" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="56" t="inlineStr">
+      <c r="A37" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -14164,7 +14149,7 @@
           <t>28/02/2025</t>
         </is>
       </c>
-      <c r="G37" s="55" t="inlineStr">
+      <c r="G37" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14179,7 +14164,7 @@
       <c r="K37" s="44" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="58" t="inlineStr">
+      <c r="A38" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14206,7 +14191,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="57" t="inlineStr">
+      <c r="G38" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14221,7 +14206,7 @@
       <c r="K38" s="44" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="59" t="inlineStr">
+      <c r="A39" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14248,9 +14233,9 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G39" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G39" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H39" s="44" t="n"/>
@@ -14263,7 +14248,7 @@
       <c r="K39" s="44" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="58" t="inlineStr">
+      <c r="A40" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14286,7 +14271,7 @@
         </is>
       </c>
       <c r="F40" s="44" t="n"/>
-      <c r="G40" s="57" t="inlineStr">
+      <c r="G40" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14301,7 +14286,7 @@
       <c r="K40" s="44" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="56" t="inlineStr">
+      <c r="A41" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -14324,7 +14309,7 @@
         </is>
       </c>
       <c r="F41" s="44" t="n"/>
-      <c r="G41" s="57" t="inlineStr">
+      <c r="G41" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14339,7 +14324,7 @@
       <c r="K41" s="44" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="59" t="inlineStr">
+      <c r="A42" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14366,9 +14351,9 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G42" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G42" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H42" s="44" t="n"/>
@@ -14381,7 +14366,7 @@
       <c r="K42" s="44" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="59" t="inlineStr">
+      <c r="A43" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14408,9 +14393,9 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G43" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="44" t="n"/>
@@ -14423,7 +14408,7 @@
       <c r="K43" s="44" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="54" t="inlineStr">
+      <c r="A44" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14446,7 +14431,7 @@
         </is>
       </c>
       <c r="F44" s="44" t="n"/>
-      <c r="G44" s="57" t="inlineStr">
+      <c r="G44" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14461,7 +14446,7 @@
       <c r="K44" s="44" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="60" t="inlineStr">
+      <c r="A45" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14488,7 +14473,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G45" s="55" t="inlineStr">
+      <c r="G45" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14503,7 +14488,7 @@
       <c r="K45" s="44" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="60" t="inlineStr">
+      <c r="A46" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -14530,7 +14515,7 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="55" t="inlineStr">
+      <c r="G46" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14549,7 +14534,7 @@
       <c r="K46" s="44" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="54" t="inlineStr">
+      <c r="A47" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14572,7 +14557,7 @@
         </is>
       </c>
       <c r="F47" s="44" t="n"/>
-      <c r="G47" s="57" t="inlineStr">
+      <c r="G47" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14587,7 +14572,7 @@
       <c r="K47" s="44" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="59" t="inlineStr">
+      <c r="A48" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14614,7 +14599,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="55" t="inlineStr">
+      <c r="G48" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14629,7 +14614,7 @@
       <c r="K48" s="44" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="54" t="inlineStr">
+      <c r="A49" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14656,7 +14641,7 @@
           <t>06/08/2025, 20/08/2025</t>
         </is>
       </c>
-      <c r="G49" s="57" t="inlineStr">
+      <c r="G49" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14675,7 +14660,7 @@
       <c r="K49" s="44" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="58" t="inlineStr">
+      <c r="A50" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -14702,7 +14687,7 @@
           <t>16/04/2025, 30/05/2025</t>
         </is>
       </c>
-      <c r="G50" s="57" t="inlineStr">
+      <c r="G50" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14717,7 +14702,7 @@
       <c r="K50" s="44" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="54" t="inlineStr">
+      <c r="A51" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14744,7 +14729,7 @@
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="G51" s="55" t="inlineStr">
+      <c r="G51" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14763,7 +14748,7 @@
       <c r="K51" s="44" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="54" t="inlineStr">
+      <c r="A52" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14790,7 +14775,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="55" t="inlineStr">
+      <c r="G52" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14809,7 +14794,7 @@
       <c r="K52" s="44" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="54" t="inlineStr">
+      <c r="A53" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14836,7 +14821,7 @@
           <t>21/08/2025</t>
         </is>
       </c>
-      <c r="G53" s="57" t="inlineStr">
+      <c r="G53" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14851,7 +14836,7 @@
       <c r="K53" s="44" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="59" t="inlineStr">
+      <c r="A54" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14878,7 +14863,7 @@
           <t>05/03/2025</t>
         </is>
       </c>
-      <c r="G54" s="55" t="inlineStr">
+      <c r="G54" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14893,7 +14878,7 @@
       <c r="K54" s="44" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="54" t="inlineStr">
+      <c r="A55" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -14920,7 +14905,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G55" s="55" t="inlineStr">
+      <c r="G55" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -14939,7 +14924,7 @@
       <c r="K55" s="44" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="59" t="inlineStr">
+      <c r="A56" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -14962,7 +14947,7 @@
         </is>
       </c>
       <c r="F56" s="44" t="n"/>
-      <c r="G56" s="57" t="inlineStr">
+      <c r="G56" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -14977,7 +14962,7 @@
       <c r="K56" s="44" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="59" t="inlineStr">
+      <c r="A57" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15004,9 +14989,9 @@
           <t>03/04/2025</t>
         </is>
       </c>
-      <c r="G57" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G57" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="44" t="n"/>
@@ -15019,7 +15004,7 @@
       <c r="K57" s="44" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="56" t="inlineStr">
+      <c r="A58" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -15046,7 +15031,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G58" s="55" t="inlineStr">
+      <c r="G58" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15066,7 +15051,7 @@
       <c r="K58" s="44" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="59" t="inlineStr">
+      <c r="A59" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15093,7 +15078,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="55" t="inlineStr">
+      <c r="G59" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15108,7 +15093,7 @@
       <c r="K59" s="44" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="60" t="inlineStr">
+      <c r="A60" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15135,7 +15120,7 @@
           <t>19/08/2025</t>
         </is>
       </c>
-      <c r="G60" s="55" t="inlineStr">
+      <c r="G60" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15150,7 +15135,7 @@
       <c r="K60" s="44" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="59" t="inlineStr">
+      <c r="A61" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15177,7 +15162,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G61" s="55" t="inlineStr">
+      <c r="G61" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15196,7 +15181,7 @@
       <c r="K61" s="44" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="60" t="inlineStr">
+      <c r="A62" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15223,7 +15208,7 @@
           <t>22/04/2025</t>
         </is>
       </c>
-      <c r="G62" s="55" t="inlineStr">
+      <c r="G62" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15246,7 +15231,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="59" t="inlineStr">
+      <c r="A63" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15273,9 +15258,9 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="G63" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G63" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H63" s="44" t="n"/>
@@ -15288,7 +15273,7 @@
       <c r="K63" s="44" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="60" t="inlineStr">
+      <c r="A64" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -15315,7 +15300,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G64" s="55" t="inlineStr">
+      <c r="G64" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15334,7 +15319,7 @@
       <c r="K64" s="44" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="54" t="inlineStr">
+      <c r="A65" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -15361,7 +15346,7 @@
           <t>12/05/2025</t>
         </is>
       </c>
-      <c r="G65" s="55" t="inlineStr">
+      <c r="G65" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15388,7 +15373,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="54" t="inlineStr">
+      <c r="A66" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -15411,7 +15396,7 @@
         </is>
       </c>
       <c r="F66" s="44" t="n"/>
-      <c r="G66" s="57" t="inlineStr">
+      <c r="G66" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15426,7 +15411,7 @@
       <c r="K66" s="44" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="56" t="inlineStr">
+      <c r="A67" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -15453,7 +15438,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G67" s="55" t="inlineStr">
+      <c r="G67" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15472,7 +15457,7 @@
       <c r="K67" s="44" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="58" t="inlineStr">
+      <c r="A68" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -15499,7 +15484,7 @@
           <t>26/02/2025</t>
         </is>
       </c>
-      <c r="G68" s="57" t="inlineStr">
+      <c r="G68" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15514,7 +15499,7 @@
       <c r="K68" s="44" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="58" t="inlineStr">
+      <c r="A69" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -15541,7 +15526,7 @@
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G69" s="57" t="inlineStr">
+      <c r="G69" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15556,7 +15541,7 @@
       <c r="K69" s="44" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="59" t="inlineStr">
+      <c r="A70" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -15579,7 +15564,7 @@
         </is>
       </c>
       <c r="F70" s="44" t="n"/>
-      <c r="G70" s="57" t="inlineStr">
+      <c r="G70" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15732,7 +15717,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54" t="inlineStr">
+      <c r="A2" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -15755,7 +15740,7 @@
         </is>
       </c>
       <c r="F2" s="44" t="n"/>
-      <c r="G2" s="57" t="inlineStr">
+      <c r="G2" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15770,7 +15755,7 @@
       <c r="K2" s="44" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="inlineStr">
+      <c r="A3" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -15797,7 +15782,7 @@
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="G3" s="57" t="inlineStr">
+      <c r="G3" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15812,7 +15797,7 @@
       <c r="K3" s="44" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="54" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -15839,7 +15824,7 @@
           <t>21/07/2025</t>
         </is>
       </c>
-      <c r="G4" s="55" t="inlineStr">
+      <c r="G4" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15858,7 +15843,7 @@
       <c r="K4" s="44" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="56" t="inlineStr">
+      <c r="A5" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -15885,7 +15870,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G5" s="55" t="inlineStr">
+      <c r="G5" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15904,7 +15889,7 @@
       <c r="K5" s="44" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -15931,7 +15916,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G6" s="57" t="inlineStr">
+      <c r="G6" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -15946,7 +15931,7 @@
       <c r="K6" s="44" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -15973,7 +15958,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="55" t="inlineStr">
+      <c r="G7" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -15992,7 +15977,7 @@
       <c r="K7" s="44" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="58" t="inlineStr">
+      <c r="A8" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16015,7 +16000,7 @@
         </is>
       </c>
       <c r="F8" s="44" t="n"/>
-      <c r="G8" s="57" t="inlineStr">
+      <c r="G8" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16030,7 +16015,7 @@
       <c r="K8" s="44" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="inlineStr">
+      <c r="A9" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -16053,7 +16038,7 @@
         </is>
       </c>
       <c r="F9" s="44" t="n"/>
-      <c r="G9" s="57" t="inlineStr">
+      <c r="G9" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16068,7 +16053,7 @@
       <c r="K9" s="44" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="inlineStr">
+      <c r="A10" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -16095,7 +16080,7 @@
           <t>06/03/2025, 05/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="57" t="inlineStr">
+      <c r="G10" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16110,7 +16095,7 @@
       <c r="K10" s="44" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="58" t="inlineStr">
+      <c r="A11" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16137,7 +16122,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G11" s="57" t="inlineStr">
+      <c r="G11" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16152,7 +16137,7 @@
       <c r="K11" s="44" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="58" t="inlineStr">
+      <c r="A12" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16179,7 +16164,7 @@
           <t>10/04/2025</t>
         </is>
       </c>
-      <c r="G12" s="57" t="inlineStr">
+      <c r="G12" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16194,7 +16179,7 @@
       <c r="K12" s="44" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="58" t="inlineStr">
+      <c r="A13" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16221,7 +16206,7 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G13" s="57" t="inlineStr">
+      <c r="G13" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16236,7 +16221,7 @@
       <c r="K13" s="44" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="58" t="inlineStr">
+      <c r="A14" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16263,7 +16248,7 @@
           <t>10/04/2025, 09/05/2025</t>
         </is>
       </c>
-      <c r="G14" s="57" t="inlineStr">
+      <c r="G14" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16278,7 +16263,7 @@
       <c r="K14" s="44" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="58" t="inlineStr">
+      <c r="A15" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16305,7 +16290,7 @@
           <t>11/04/2025</t>
         </is>
       </c>
-      <c r="G15" s="57" t="inlineStr">
+      <c r="G15" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16320,7 +16305,7 @@
       <c r="K15" s="44" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="58" t="inlineStr">
+      <c r="A16" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16347,7 +16332,7 @@
           <t>15/05/2025</t>
         </is>
       </c>
-      <c r="G16" s="57" t="inlineStr">
+      <c r="G16" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16362,7 +16347,7 @@
       <c r="K16" s="44" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="56" t="inlineStr">
+      <c r="A17" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -16389,7 +16374,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G17" s="55" t="inlineStr">
+      <c r="G17" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16404,7 +16389,7 @@
       <c r="K17" s="44" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="59" t="inlineStr">
+      <c r="A18" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -16431,9 +16416,9 @@
           <t>22/08/2025</t>
         </is>
       </c>
-      <c r="G18" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G18" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H18" s="44" t="n"/>
@@ -16446,7 +16431,7 @@
       <c r="K18" s="44" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="56" t="inlineStr">
+      <c r="A19" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -16469,7 +16454,7 @@
         </is>
       </c>
       <c r="F19" s="44" t="n"/>
-      <c r="G19" s="57" t="inlineStr">
+      <c r="G19" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16484,7 +16469,7 @@
       <c r="K19" s="44" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="59" t="inlineStr">
+      <c r="A20" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -16511,7 +16496,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="55" t="inlineStr">
+      <c r="G20" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16526,7 +16511,7 @@
       <c r="K20" s="44" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="56" t="inlineStr">
+      <c r="A21" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -16553,7 +16538,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="55" t="inlineStr">
+      <c r="G21" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16572,7 +16557,7 @@
       <c r="K21" s="44" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="59" t="inlineStr">
+      <c r="A22" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -16599,9 +16584,9 @@
           <t>08/08/2025</t>
         </is>
       </c>
-      <c r="G22" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G22" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H22" s="44" t="n"/>
@@ -16614,7 +16599,7 @@
       <c r="K22" s="44" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="58" t="inlineStr">
+      <c r="A23" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -16641,7 +16626,7 @@
           <t>15/04/2025</t>
         </is>
       </c>
-      <c r="G23" s="57" t="inlineStr">
+      <c r="G23" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16656,7 +16641,7 @@
       <c r="K23" s="44" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="60" t="inlineStr">
+      <c r="A24" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16679,7 +16664,7 @@
         </is>
       </c>
       <c r="F24" s="44" t="n"/>
-      <c r="G24" s="57" t="inlineStr">
+      <c r="G24" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -16694,7 +16679,7 @@
       <c r="K24" s="44" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="60" t="inlineStr">
+      <c r="A25" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16721,7 +16706,7 @@
           <t>20/08/2025</t>
         </is>
       </c>
-      <c r="G25" s="55" t="inlineStr">
+      <c r="G25" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16736,7 +16721,7 @@
       <c r="K25" s="44" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="60" t="inlineStr">
+      <c r="A26" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16763,7 +16748,7 @@
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G26" s="55" t="inlineStr">
+      <c r="G26" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16778,7 +16763,7 @@
       <c r="K26" s="44" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="60" t="inlineStr">
+      <c r="A27" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16805,7 +16790,7 @@
           <t>09/07/2025</t>
         </is>
       </c>
-      <c r="G27" s="55" t="inlineStr">
+      <c r="G27" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16820,7 +16805,7 @@
       <c r="K27" s="44" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="60" t="inlineStr">
+      <c r="A28" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16847,7 +16832,7 @@
           <t>03/07/2025</t>
         </is>
       </c>
-      <c r="G28" s="55" t="inlineStr">
+      <c r="G28" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16862,7 +16847,7 @@
       <c r="K28" s="44" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="60" t="inlineStr">
+      <c r="A29" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16889,7 +16874,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G29" s="55" t="inlineStr">
+      <c r="G29" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16908,7 +16893,7 @@
       <c r="K29" s="44" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="60" t="inlineStr">
+      <c r="A30" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16935,7 +16920,7 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="G30" s="55" t="inlineStr">
+      <c r="G30" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -16954,7 +16939,7 @@
       <c r="K30" s="44" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="60" t="inlineStr">
+      <c r="A31" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -16981,7 +16966,7 @@
           <t>17/03/2025</t>
         </is>
       </c>
-      <c r="G31" s="55" t="inlineStr">
+      <c r="G31" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17000,7 +16985,7 @@
       <c r="K31" s="44" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="60" t="inlineStr">
+      <c r="A32" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17027,7 +17012,7 @@
           <t>02/09/2025</t>
         </is>
       </c>
-      <c r="G32" s="55" t="inlineStr">
+      <c r="G32" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17046,7 +17031,7 @@
       <c r="K32" s="44" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="54" t="inlineStr">
+      <c r="A33" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17069,7 +17054,7 @@
         </is>
       </c>
       <c r="F33" s="44" t="n"/>
-      <c r="G33" s="57" t="inlineStr">
+      <c r="G33" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17084,7 +17069,7 @@
       <c r="K33" s="44" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="54" t="inlineStr">
+      <c r="A34" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17107,7 +17092,7 @@
         </is>
       </c>
       <c r="F34" s="44" t="n"/>
-      <c r="G34" s="57" t="inlineStr">
+      <c r="G34" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17122,7 +17107,7 @@
       <c r="K34" s="44" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="56" t="inlineStr">
+      <c r="A35" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -17149,7 +17134,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G35" s="57" t="inlineStr">
+      <c r="G35" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17164,7 +17149,7 @@
       <c r="K35" s="44" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="56" t="inlineStr">
+      <c r="A36" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -17191,7 +17176,7 @@
           <t>24/03/2025</t>
         </is>
       </c>
-      <c r="G36" s="55" t="inlineStr">
+      <c r="G36" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17206,7 +17191,7 @@
       <c r="K36" s="44" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="56" t="inlineStr">
+      <c r="A37" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -17233,7 +17218,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G37" s="55" t="inlineStr">
+      <c r="G37" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17248,7 +17233,7 @@
       <c r="K37" s="44" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="58" t="inlineStr">
+      <c r="A38" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -17275,7 +17260,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G38" s="57" t="inlineStr">
+      <c r="G38" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17290,7 +17275,7 @@
       <c r="K38" s="44" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="59" t="inlineStr">
+      <c r="A39" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17317,9 +17302,9 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G39" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G39" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H39" s="44" t="n"/>
@@ -17332,7 +17317,7 @@
       <c r="K39" s="44" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="58" t="inlineStr">
+      <c r="A40" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -17359,7 +17344,7 @@
           <t>16/07/2025</t>
         </is>
       </c>
-      <c r="G40" s="57" t="inlineStr">
+      <c r="G40" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17374,7 +17359,7 @@
       <c r="K40" s="44" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="56" t="inlineStr">
+      <c r="A41" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -17397,7 +17382,7 @@
         </is>
       </c>
       <c r="F41" s="44" t="n"/>
-      <c r="G41" s="57" t="inlineStr">
+      <c r="G41" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17412,7 +17397,7 @@
       <c r="K41" s="44" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="59" t="inlineStr">
+      <c r="A42" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17439,9 +17424,9 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G42" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G42" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H42" s="44" t="n"/>
@@ -17454,7 +17439,7 @@
       <c r="K42" s="44" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="59" t="inlineStr">
+      <c r="A43" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17481,9 +17466,9 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G43" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="44" t="n"/>
@@ -17496,7 +17481,7 @@
       <c r="K43" s="44" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="54" t="inlineStr">
+      <c r="A44" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17519,7 +17504,7 @@
         </is>
       </c>
       <c r="F44" s="44" t="n"/>
-      <c r="G44" s="57" t="inlineStr">
+      <c r="G44" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17534,7 +17519,7 @@
       <c r="K44" s="44" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="60" t="inlineStr">
+      <c r="A45" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17561,7 +17546,7 @@
           <t>02/04/2025</t>
         </is>
       </c>
-      <c r="G45" s="55" t="inlineStr">
+      <c r="G45" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17576,7 +17561,7 @@
       <c r="K45" s="44" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="60" t="inlineStr">
+      <c r="A46" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -17603,7 +17588,7 @@
           <t>26/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="55" t="inlineStr">
+      <c r="G46" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17622,7 +17607,7 @@
       <c r="K46" s="44" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="54" t="inlineStr">
+      <c r="A47" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17645,7 +17630,7 @@
         </is>
       </c>
       <c r="F47" s="44" t="n"/>
-      <c r="G47" s="57" t="inlineStr">
+      <c r="G47" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17660,7 +17645,7 @@
       <c r="K47" s="44" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="59" t="inlineStr">
+      <c r="A48" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17687,7 +17672,7 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G48" s="55" t="inlineStr">
+      <c r="G48" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17702,7 +17687,7 @@
       <c r="K48" s="44" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="54" t="inlineStr">
+      <c r="A49" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17729,7 +17714,7 @@
           <t>06/08/2025</t>
         </is>
       </c>
-      <c r="G49" s="55" t="inlineStr">
+      <c r="G49" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17748,7 +17733,7 @@
       <c r="K49" s="44" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="58" t="inlineStr">
+      <c r="A50" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -17775,7 +17760,7 @@
           <t>16/04/2025</t>
         </is>
       </c>
-      <c r="G50" s="57" t="inlineStr">
+      <c r="G50" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17790,7 +17775,7 @@
       <c r="K50" s="44" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="54" t="inlineStr">
+      <c r="A51" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17817,7 +17802,7 @@
           <t>04/04/2025</t>
         </is>
       </c>
-      <c r="G51" s="55" t="inlineStr">
+      <c r="G51" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17836,7 +17821,7 @@
       <c r="K51" s="44" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="54" t="inlineStr">
+      <c r="A52" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17863,7 +17848,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G52" s="55" t="inlineStr">
+      <c r="G52" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17882,7 +17867,7 @@
       <c r="K52" s="44" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="54" t="inlineStr">
+      <c r="A53" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17909,7 +17894,7 @@
           <t>21/08/2025</t>
         </is>
       </c>
-      <c r="G53" s="57" t="inlineStr">
+      <c r="G53" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -17924,7 +17909,7 @@
       <c r="K53" s="44" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="59" t="inlineStr">
+      <c r="A54" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -17951,7 +17936,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G54" s="55" t="inlineStr">
+      <c r="G54" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -17966,7 +17951,7 @@
       <c r="K54" s="44" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="54" t="inlineStr">
+      <c r="A55" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -17993,7 +17978,7 @@
           <t>09/04/2025</t>
         </is>
       </c>
-      <c r="G55" s="55" t="inlineStr">
+      <c r="G55" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18012,7 +17997,7 @@
       <c r="K55" s="44" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="59" t="inlineStr">
+      <c r="A56" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18035,7 +18020,7 @@
         </is>
       </c>
       <c r="F56" s="44" t="n"/>
-      <c r="G56" s="57" t="inlineStr">
+      <c r="G56" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18050,7 +18035,7 @@
       <c r="K56" s="44" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="59" t="inlineStr">
+      <c r="A57" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18077,9 +18062,9 @@
           <t>12/06/2025</t>
         </is>
       </c>
-      <c r="G57" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G57" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H57" s="44" t="n"/>
@@ -18092,7 +18077,7 @@
       <c r="K57" s="44" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="56" t="inlineStr">
+      <c r="A58" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -18115,7 +18100,7 @@
         </is>
       </c>
       <c r="F58" s="44" t="n"/>
-      <c r="G58" s="57" t="inlineStr">
+      <c r="G58" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18130,7 +18115,7 @@
       <c r="K58" s="44" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="59" t="inlineStr">
+      <c r="A59" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18157,7 +18142,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G59" s="55" t="inlineStr">
+      <c r="G59" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18172,7 +18157,7 @@
       <c r="K59" s="44" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="60" t="inlineStr">
+      <c r="A60" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18199,7 +18184,7 @@
           <t>19/08/2025</t>
         </is>
       </c>
-      <c r="G60" s="55" t="inlineStr">
+      <c r="G60" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18214,7 +18199,7 @@
       <c r="K60" s="44" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="59" t="inlineStr">
+      <c r="A61" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18241,7 +18226,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G61" s="55" t="inlineStr">
+      <c r="G61" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18256,7 +18241,7 @@
       <c r="K61" s="44" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="60" t="inlineStr">
+      <c r="A62" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18283,7 +18268,7 @@
           <t>09/05/2025</t>
         </is>
       </c>
-      <c r="G62" s="55" t="inlineStr">
+      <c r="G62" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18298,7 +18283,7 @@
       <c r="K62" s="44" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="59" t="inlineStr">
+      <c r="A63" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18325,9 +18310,9 @@
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="G63" s="57" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G63" s="54" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H63" s="44" t="n"/>
@@ -18340,7 +18325,7 @@
       <c r="K63" s="44" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="60" t="inlineStr">
+      <c r="A64" s="53" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -18367,7 +18352,7 @@
           <t>08/04/2025</t>
         </is>
       </c>
-      <c r="G64" s="55" t="inlineStr">
+      <c r="G64" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18382,7 +18367,7 @@
       <c r="K64" s="44" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="54" t="inlineStr">
+      <c r="A65" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -18409,7 +18394,7 @@
           <t>12/05/2025</t>
         </is>
       </c>
-      <c r="G65" s="55" t="inlineStr">
+      <c r="G65" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18436,7 +18421,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="54" t="inlineStr">
+      <c r="A66" s="43" t="inlineStr">
         <is>
           <t>Gabriel</t>
         </is>
@@ -18463,7 +18448,7 @@
           <t>29/07/2025</t>
         </is>
       </c>
-      <c r="G66" s="55" t="inlineStr">
+      <c r="G66" s="54" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -18490,7 +18475,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="56" t="inlineStr">
+      <c r="A67" s="47" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -18517,7 +18502,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G67" s="57" t="inlineStr">
+      <c r="G67" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18532,7 +18517,7 @@
       <c r="K67" s="44" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="58" t="inlineStr">
+      <c r="A68" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -18559,7 +18544,7 @@
           <t>26/02/2025</t>
         </is>
       </c>
-      <c r="G68" s="57" t="inlineStr">
+      <c r="G68" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18574,7 +18559,7 @@
       <c r="K68" s="44" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="58" t="inlineStr">
+      <c r="A69" s="50" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -18601,7 +18586,7 @@
           <t>17/06/2025</t>
         </is>
       </c>
-      <c r="G69" s="57" t="inlineStr">
+      <c r="G69" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -18616,7 +18601,7 @@
       <c r="K69" s="44" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="59" t="inlineStr">
+      <c r="A70" s="52" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -18639,7 +18624,7 @@
         </is>
       </c>
       <c r="F70" s="44" t="n"/>
-      <c r="G70" s="57" t="inlineStr">
+      <c r="G70" s="55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
